--- a/data/fig3/TOF_FC.xlsx
+++ b/data/fig3/TOF_FC.xlsx
@@ -476,7 +476,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3965721541145572</v>
+        <v>0.3965721541145567</v>
       </c>
       <c r="D2" t="n">
         <v>0.5740047574585703</v>
@@ -495,7 +495,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002675192144450182</v>
+        <v>0.003641908932235038</v>
       </c>
       <c r="D3" t="n">
         <v>-2.24246699020735</v>
@@ -514,7 +514,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2598285916040701</v>
+        <v>0.2598285916040741</v>
       </c>
       <c r="D4" t="n">
         <v>2.55332444539269</v>
@@ -533,7 +533,7 @@
         <v>-0.1681227588083269</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1784066663600553</v>
+        <v>-0.3924638438034361</v>
       </c>
       <c r="D5" t="n">
         <v>1.870249901751391</v>
@@ -552,7 +552,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1600054501732215</v>
+        <v>0.1601053448133229</v>
       </c>
       <c r="D6" t="n">
         <v>0.09516663485419037</v>
@@ -571,7 +571,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.09387991541595411</v>
+        <v>-0.09387991541595514</v>
       </c>
       <c r="D7" t="n">
         <v>1.041336796062701</v>
@@ -590,7 +590,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3322036955629358</v>
+        <v>0.3322036955629318</v>
       </c>
       <c r="D8" t="n">
         <v>0.2945012612932327</v>
@@ -609,7 +609,7 @@
         <v>0.3785116232537298</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4885545228025956</v>
+        <v>0.4885545228025917</v>
       </c>
       <c r="D9" t="n">
         <v>0.3508633057785547</v>
@@ -628,7 +628,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2299081474528798</v>
+        <v>0.2299081474528741</v>
       </c>
       <c r="D10" t="n">
         <v>0.3375203988455141</v>
@@ -647,7 +647,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09085390334192156</v>
+        <v>-0.1179396952278486</v>
       </c>
       <c r="D11" t="n">
         <v>-0.8216761832024496</v>
@@ -685,7 +685,7 @@
         <v>0.5260688116675876</v>
       </c>
       <c r="C13" t="n">
-        <v>0.365858965058487</v>
+        <v>0.3658589650584885</v>
       </c>
       <c r="D13" t="n">
         <v>0.08292103591330272</v>
@@ -704,7 +704,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1385588050055993</v>
+        <v>0.1385588050056005</v>
       </c>
       <c r="D14" t="n">
         <v>-0.02519374867257226</v>
@@ -723,7 +723,7 @@
         <v>0.2868811477881615</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3257289860278953</v>
+        <v>0.3226374954715878</v>
       </c>
       <c r="D15" t="n">
         <v>0.6194823787411452</v>
@@ -742,7 +742,7 @@
         <v>0.3673710656485294</v>
       </c>
       <c r="C16" t="n">
-        <v>0.60554832556154</v>
+        <v>0.6065082280833046</v>
       </c>
       <c r="D16" t="n">
         <v>-2.638904780276234</v>
@@ -761,7 +761,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2133551270366796</v>
+        <v>0.2133551270366854</v>
       </c>
       <c r="D17" t="n">
         <v>0.04680793094877848</v>
@@ -796,7 +796,7 @@
         <v>0.3673710656485294</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3321267259295855</v>
+        <v>0.3373042221464896</v>
       </c>
       <c r="D19" t="n">
         <v>-2.610252102760493</v>
@@ -815,7 +815,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2144143639129237</v>
+        <v>0.2144143639129176</v>
       </c>
       <c r="D20" t="n">
         <v>-0.2374939104600567</v>
@@ -834,7 +834,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08339469458830807</v>
+        <v>0.08592610925892925</v>
       </c>
       <c r="D21" t="n">
         <v>0.4555460220939415</v>
@@ -853,7 +853,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C22" t="n">
-        <v>0.248451082689357</v>
+        <v>0.2484510826893586</v>
       </c>
       <c r="D22" t="n">
         <v>-0.09111501927675709</v>
@@ -872,7 +872,7 @@
         <v>0.2986583155645152</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.3290144627585152</v>
+        <v>0.06866602084887734</v>
       </c>
       <c r="D23" t="n">
         <v>0.1273575075857776</v>
@@ -891,7 +891,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01590215879262415</v>
+        <v>0.01590215879262922</v>
       </c>
       <c r="D24" t="n">
         <v>0.1391068782369785</v>
@@ -910,7 +910,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.2612467607190487</v>
+        <v>-0.2656795794530048</v>
       </c>
       <c r="D25" t="n">
         <v>0.3168152242524778</v>
@@ -929,7 +929,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.1404433007037547</v>
+        <v>-0.1404433007037551</v>
       </c>
       <c r="D26" t="n">
         <v>-0.09373482553018196</v>
@@ -948,7 +948,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2725182566628728</v>
+        <v>0.2729000013696396</v>
       </c>
       <c r="D27" t="n">
         <v>0.2471012930509508</v>
@@ -967,7 +967,7 @@
         <v>0.3673710656485294</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3313093311816713</v>
+        <v>0.3318472488019604</v>
       </c>
       <c r="D28" t="n">
         <v>2.545931903664115</v>
@@ -986,7 +986,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1656780303421264</v>
+        <v>0.1656780303421244</v>
       </c>
       <c r="D29" t="n">
         <v>0.1158307636522831</v>
@@ -1005,7 +1005,7 @@
         <v>0.4222330006830478</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5421097772579905</v>
+        <v>0.8970707557542442</v>
       </c>
       <c r="D30" t="n">
         <v>0.2595087896601484</v>
@@ -1024,7 +1024,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2178634679629022</v>
+        <v>0.2178634679629011</v>
       </c>
       <c r="D31" t="n">
         <v>0.2486821227227092</v>
@@ -1043,7 +1043,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1299018010165967</v>
+        <v>0.1299018010165976</v>
       </c>
       <c r="D32" t="n">
         <v>0.0006956539536173211</v>
@@ -1062,7 +1062,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1757233553186031</v>
+        <v>0.175723355318609</v>
       </c>
       <c r="D33" t="n">
         <v>0.2340450540678972</v>
@@ -1081,7 +1081,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1334508879526104</v>
+        <v>0.1334998617646138</v>
       </c>
       <c r="D34" t="n">
         <v>0.3100830001156555</v>
@@ -1100,7 +1100,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C35" t="n">
-        <v>0.08368045976583492</v>
+        <v>0.08368045976584006</v>
       </c>
       <c r="D35" t="n">
         <v>0.3587296131736478</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0466884092107736</v>
+        <v>0.04735462466889162</v>
       </c>
       <c r="D36" t="n">
         <v>0.03151349141190204</v>
@@ -1138,7 +1138,7 @@
         <v>0.4541758931858021</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4207486197478668</v>
+        <v>0.4207486197478699</v>
       </c>
       <c r="D37" t="n">
         <v>0.3473653041982764</v>
@@ -1157,7 +1157,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C38" t="n">
-        <v>0.05273566326368411</v>
+        <v>0.05273566326369122</v>
       </c>
       <c r="D38" t="n">
         <v>-1.755178630667676</v>
@@ -1192,7 +1192,7 @@
         <v>0.6415460290875237</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6077791140770349</v>
+        <v>0.607779114077037</v>
       </c>
       <c r="D40" t="n">
         <v>0.7186769750316411</v>
@@ -1211,7 +1211,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1379168401225083</v>
+        <v>0.1379168401225107</v>
       </c>
       <c r="D41" t="n">
         <v>0.2946156910922745</v>
@@ -1230,7 +1230,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3552702560920921</v>
+        <v>0.3568449952856212</v>
       </c>
       <c r="D42" t="n">
         <v>2.431693901814189</v>
@@ -1249,7 +1249,7 @@
         <v>-0.3584539709124763</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.1754969872543726</v>
+        <v>-0.1518685802683449</v>
       </c>
       <c r="D43" t="n">
         <v>2.812033892927552</v>
@@ -1268,7 +1268,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2824918985930635</v>
+        <v>0.2824918985930648</v>
       </c>
       <c r="D44" t="n">
         <v>0.2179389992669192</v>
@@ -1287,7 +1287,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08485134769378698</v>
+        <v>0.08682403948823966</v>
       </c>
       <c r="D45" t="n">
         <v>0.1054995759544785</v>
@@ -1306,7 +1306,7 @@
         <v>0.3103401206121505</v>
       </c>
       <c r="C46" t="n">
-        <v>0.116214545425425</v>
+        <v>0.1162145454254291</v>
       </c>
       <c r="D46" t="n">
         <v>0.1217928832258864</v>
@@ -1325,7 +1325,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C47" t="n">
-        <v>0.07709052702610589</v>
+        <v>0.07683698441051709</v>
       </c>
       <c r="D47" t="n">
         <v>0.1193790235820961</v>
@@ -1344,7 +1344,7 @@
         <v>0.3561438102252754</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3481647979526266</v>
+        <v>0.3481647979526222</v>
       </c>
       <c r="D48" t="n">
         <v>0.3151185989223267</v>
@@ -1363,7 +1363,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2378868186615347</v>
+        <v>0.2378868186615404</v>
       </c>
       <c r="D49" t="n">
         <v>0.1887287072250014</v>
@@ -1382,7 +1382,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1333575842284406</v>
+        <v>0.1333575842284414</v>
       </c>
       <c r="D50" t="n">
         <v>0.217807764490232</v>
@@ -1401,7 +1401,7 @@
         <v>0.5558161550616397</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6470511970414868</v>
+        <v>0.6470511970414877</v>
       </c>
       <c r="D51" t="n">
         <v>0.4315579266233933</v>
@@ -1420,7 +1420,7 @@
         <v>0.3103401206121505</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3356270781044897</v>
+        <v>0.3356270781044856</v>
       </c>
       <c r="D52" t="n">
         <v>0.4109167375230887</v>
@@ -1458,7 +1458,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.1398706822237129</v>
+        <v>0.2563514557053331</v>
       </c>
       <c r="D54" t="n">
         <v>0.2455335106051099</v>
@@ -1477,7 +1477,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C55" t="n">
-        <v>0.3081436862102276</v>
+        <v>0.3081436862102263</v>
       </c>
       <c r="D55" t="n">
         <v>0.6422246626774734</v>
@@ -1496,7 +1496,7 @@
         <v>0.3785116232537298</v>
       </c>
       <c r="C56" t="n">
-        <v>0.3320477305114197</v>
+        <v>0.3320477305114167</v>
       </c>
       <c r="D56" t="n">
         <v>0.312372462856961</v>
@@ -1515,7 +1515,7 @@
         <v>0.4750848829487826</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3815191311103396</v>
+        <v>0.381519131110345</v>
       </c>
       <c r="D57" t="n">
         <v>-0.05507760553109092</v>
@@ -1534,7 +1534,7 @@
         <v>0.3219280948873623</v>
       </c>
       <c r="C58" t="n">
-        <v>0.408455571301258</v>
+        <v>0.8474306993509212</v>
       </c>
       <c r="D58" t="n">
         <v>10.58870913592508</v>
@@ -1553,7 +1553,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C59" t="n">
-        <v>0.07411529229761109</v>
+        <v>0.07573070960855499</v>
       </c>
       <c r="D59" t="n">
         <v>-2.285782309166307</v>
@@ -1572,7 +1572,7 @@
         <v>0.411426245726465</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4059113991349649</v>
+        <v>0.4059113991349613</v>
       </c>
       <c r="D60" t="n">
         <v>0.1725251180885645</v>
@@ -1591,7 +1591,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1581035988513378</v>
+        <v>0.1581035988513375</v>
       </c>
       <c r="D61" t="n">
         <v>0.2140882031408577</v>
@@ -1610,7 +1610,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.02210518490967836</v>
+        <v>-0.02210518490967771</v>
       </c>
       <c r="D62" t="n">
         <v>0.1897306125471844</v>
@@ -1629,7 +1629,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C63" t="n">
-        <v>0.3015160448797636</v>
+        <v>0.3015160448797688</v>
       </c>
       <c r="D63" t="n">
         <v>0.2232627051638692</v>
@@ -1648,7 +1648,7 @@
         <v>0.3785116232537298</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4285229016361312</v>
+        <v>0.4285229016361284</v>
       </c>
       <c r="D64" t="n">
         <v>0.3656204504404776</v>
@@ -1667,7 +1667,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1690095442855267</v>
+        <v>0.1690095442855252</v>
       </c>
       <c r="D65" t="n">
         <v>-0.2273053283726058</v>
@@ -1686,7 +1686,7 @@
         <v>0.5260688116675876</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1389737357208093</v>
+        <v>0.1389737357208088</v>
       </c>
       <c r="D66" t="n">
         <v>0.2896895575846212</v>
@@ -1705,7 +1705,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C67" t="n">
-        <v>0.7258481332538003</v>
+        <v>0.7258481332538</v>
       </c>
       <c r="D67" t="n">
         <v>-2.680154086578462</v>
@@ -1724,7 +1724,7 @@
         <v>0.2986583155645152</v>
       </c>
       <c r="C68" t="n">
-        <v>0.2394377478143783</v>
+        <v>0.2264002375743627</v>
       </c>
       <c r="D68" t="n">
         <v>0.002730705504645724</v>
@@ -1743,7 +1743,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1844623698774704</v>
+        <v>0.1797551467297137</v>
       </c>
       <c r="D69" t="n">
         <v>-0.3210801577448648</v>
@@ -1762,7 +1762,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C70" t="n">
-        <v>0.02446246731423498</v>
+        <v>0.02446246731424128</v>
       </c>
       <c r="D70" t="n">
         <v>0.3008520313173466</v>
@@ -1781,7 +1781,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C71" t="n">
-        <v>0.130936371119001</v>
+        <v>0.1309363711190036</v>
       </c>
       <c r="D71" t="n">
         <v>-0.2461587180456118</v>
@@ -1800,7 +1800,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1663416012371483</v>
+        <v>0.1663416012371528</v>
       </c>
       <c r="D72" t="n">
         <v>-0.6546745052833318</v>
@@ -1819,7 +1819,7 @@
         <v>0.2868811477881615</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1973036590937633</v>
+        <v>0.2833166456173893</v>
       </c>
       <c r="D73" t="n">
         <v>0.01148640006212725</v>
@@ -1838,7 +1838,7 @@
         <v>0.3673710656485294</v>
       </c>
       <c r="C74" t="n">
-        <v>0.2511259733438673</v>
+        <v>0.2511259733438732</v>
       </c>
       <c r="D74" t="n">
         <v>0.1382741205822366</v>
@@ -1857,7 +1857,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C75" t="n">
-        <v>0.2010174172177605</v>
+        <v>0.2010174172177575</v>
       </c>
       <c r="D75" t="n">
         <v>0.163694308548731</v>
@@ -1876,7 +1876,7 @@
         <v>0.5058909297299573</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4344744455260122</v>
+        <v>1.541326809836652</v>
       </c>
       <c r="D76" t="n">
         <v>-0.1263863459326833</v>
@@ -1895,7 +1895,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2227934079207074</v>
+        <v>-0.6285473238262539</v>
       </c>
       <c r="D77" t="n">
         <v>0.3269893992872925</v>
@@ -1914,7 +1914,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.1009956071617851</v>
+        <v>-0.1009956071617858</v>
       </c>
       <c r="D78" t="n">
         <v>0.6096495340976863</v>
@@ -1933,7 +1933,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1266944772632311</v>
+        <v>0.1184827437253028</v>
       </c>
       <c r="D79" t="n">
         <v>-0.1016131001600332</v>
@@ -1952,7 +1952,7 @@
         <v>0.3673710656485294</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3715836650367002</v>
+        <v>0.3715836650366978</v>
       </c>
       <c r="D80" t="n">
         <v>0.5478002235443811</v>
@@ -1971,7 +1971,7 @@
         <v>0.3895668117627256</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4026630113520883</v>
+        <v>0.4026630113520922</v>
       </c>
       <c r="D81" t="n">
         <v>0.2951725773367661</v>
@@ -1990,7 +1990,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C82" t="n">
-        <v>0.2013420834275519</v>
+        <v>0.2115666400618262</v>
       </c>
       <c r="D82" t="n">
         <v>0.0005213709404151721</v>
@@ -2009,7 +2009,7 @@
         <v>0.4956951626240688</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4258522934405826</v>
+        <v>0.4258522934405859</v>
       </c>
       <c r="D83" t="n">
         <v>0.8215373147044971</v>
@@ -2028,7 +2028,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7550645376364669</v>
+        <v>0.7550645376364676</v>
       </c>
       <c r="D84" t="n">
         <v>-0.1098006328918181</v>
@@ -2047,7 +2047,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1063760600555011</v>
+        <v>0.1063760600555032</v>
       </c>
       <c r="D85" t="n">
         <v>0.5587667476663825</v>
@@ -2066,7 +2066,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C86" t="n">
-        <v>0.2772067530477009</v>
+        <v>0.2767831784583712</v>
       </c>
       <c r="D86" t="n">
         <v>0.2696048970821909</v>
@@ -2085,7 +2085,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4113597980637411</v>
+        <v>0.4113597980637367</v>
       </c>
       <c r="D87" t="n">
         <v>0.5360635212951963</v>
@@ -2104,7 +2104,7 @@
         <v>0.6040713236688608</v>
       </c>
       <c r="C88" t="n">
-        <v>0.2120901724991106</v>
+        <v>0.2120901724991045</v>
       </c>
       <c r="D88" t="n">
         <v>0.4001732897319344</v>
@@ -2123,7 +2123,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1666783615315499</v>
+        <v>0.1666783615315524</v>
       </c>
       <c r="D89" t="n">
         <v>0.3950148780899361</v>
@@ -2142,7 +2142,7 @@
         <v>0.3785116232537298</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4457021791576014</v>
+        <v>0.4457021791576049</v>
       </c>
       <c r="D90" t="n">
         <v>-0.1234660229768446</v>
@@ -2161,7 +2161,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1176446112528298</v>
+        <v>0.1184436227048462</v>
       </c>
       <c r="D91" t="n">
         <v>0.07273962873721365</v>
@@ -2180,7 +2180,7 @@
         <v>0.3103401206121505</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2437321982291484</v>
+        <v>0.242651041822962</v>
       </c>
       <c r="D92" t="n">
         <v>0.2110969899735794</v>
@@ -2215,7 +2215,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2159290341833172</v>
+        <v>0.211776489541083</v>
       </c>
       <c r="D94" t="n">
         <v>0.2109458169372179</v>
@@ -2234,7 +2234,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C95" t="n">
-        <v>0.2737232768432392</v>
+        <v>0.2737232768432402</v>
       </c>
       <c r="D95" t="n">
         <v>2.797855400533149</v>
@@ -2253,7 +2253,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.2323713562580068</v>
+        <v>-0.232371356258006</v>
       </c>
       <c r="D96" t="n">
         <v>-0.06505438165142807</v>
@@ -2272,7 +2272,7 @@
         <v>-0.2175914350726268</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.2041569636363509</v>
+        <v>-0.2089457435494343</v>
       </c>
       <c r="D97" t="n">
         <v>1.971593376498041</v>
@@ -2291,7 +2291,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C98" t="n">
-        <v>0.2400394743867618</v>
+        <v>0.240039474386767</v>
       </c>
       <c r="D98" t="n">
         <v>0.05814600320458359</v>
@@ -2310,7 +2310,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C99" t="n">
-        <v>0.09620710737886369</v>
+        <v>0.09811669738749521</v>
       </c>
       <c r="D99" t="n">
         <v>-0.09571705683546949</v>
@@ -2329,7 +2329,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C100" t="n">
-        <v>0.2195625605486027</v>
+        <v>0.2196319032230897</v>
       </c>
       <c r="D100" t="n">
         <v>0.3270615246385335</v>
@@ -2348,7 +2348,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1287144342350261</v>
+        <v>0.1289438066336003</v>
       </c>
       <c r="D101" t="n">
         <v>2.184883549136113</v>
@@ -2367,7 +2367,7 @@
         <v>0.6780719051126377</v>
       </c>
       <c r="C102" t="n">
-        <v>0.6197778467494759</v>
+        <v>0.6195553288125979</v>
       </c>
       <c r="D102" t="n">
         <v>0.8822706911113282</v>
@@ -2386,7 +2386,7 @@
         <v>0.3895668117627256</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4060935924485947</v>
+        <v>0.5913713364474752</v>
       </c>
       <c r="D103" t="n">
         <v>-0.1317426809705024</v>
@@ -2405,7 +2405,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C104" t="n">
-        <v>0.1611547918145803</v>
+        <v>0.16144627480191</v>
       </c>
       <c r="D104" t="n">
         <v>-0.5458642665040129</v>
@@ -2424,7 +2424,7 @@
         <v>0.3219280948873623</v>
       </c>
       <c r="C105" t="n">
-        <v>0.3613378070756093</v>
+        <v>0.3613378070756058</v>
       </c>
       <c r="D105" t="n">
         <v>0.3393879509240357</v>
@@ -2462,7 +2462,7 @@
         <v>0.4541758931858021</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4348874821675928</v>
+        <v>0.4348874821675933</v>
       </c>
       <c r="D107" t="n">
         <v>0.4788630575905438</v>
@@ -2481,7 +2481,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C108" t="n">
-        <v>0.2239214451996997</v>
+        <v>0.2239214451996999</v>
       </c>
       <c r="D108" t="n">
         <v>0.3053544524688996</v>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>0.05205764965112196</v>
+        <v>0.05205764965111918</v>
       </c>
       <c r="D109" t="n">
         <v>-0.4225613043224071</v>
@@ -2535,7 +2535,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C111" t="n">
-        <v>0.00311183719976961</v>
+        <v>0.00311183719976929</v>
       </c>
       <c r="D111" t="n">
         <v>0.21822492313071</v>
@@ -2554,7 +2554,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C112" t="n">
-        <v>0.131661779885893</v>
+        <v>0.1328709310250319</v>
       </c>
       <c r="D112" t="n">
         <v>2.697925455116225</v>
@@ -2573,7 +2573,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C113" t="n">
-        <v>0.2081169425325808</v>
+        <v>0.2081169425325816</v>
       </c>
       <c r="D113" t="n">
         <v>2.372559755101498</v>
@@ -2592,7 +2592,7 @@
         <v>0.4750848829487826</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5143502595040846</v>
+        <v>0.5143502595040879</v>
       </c>
       <c r="D114" t="n">
         <v>0.5427040752381683</v>
@@ -2630,7 +2630,7 @@
         <v>0.4436066514756148</v>
       </c>
       <c r="C116" t="n">
-        <v>0.3771946947817389</v>
+        <v>0.3771946947817404</v>
       </c>
       <c r="D116" t="n">
         <v>0.3641653181635341</v>
@@ -2649,7 +2649,7 @@
         <v>0.411426245726465</v>
       </c>
       <c r="C117" t="n">
-        <v>0.355407784640504</v>
+        <v>0.3554077846405</v>
       </c>
       <c r="D117" t="n">
         <v>0.06888968865721663</v>
@@ -2668,7 +2668,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0151306179805473</v>
+        <v>0.01513061798055015</v>
       </c>
       <c r="D118" t="n">
         <v>0.1375058072929876</v>
@@ -2687,7 +2687,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C119" t="n">
-        <v>0.05030334845240905</v>
+        <v>0.3930842506966902</v>
       </c>
       <c r="D119" t="n">
         <v>0.1088701117687757</v>
@@ -2706,7 +2706,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C120" t="n">
-        <v>0.2763901181655413</v>
+        <v>0.2763901181655424</v>
       </c>
       <c r="D120" t="n">
         <v>0.2079224795136327</v>
@@ -2725,7 +2725,7 @@
         <v>0.4541758931858021</v>
       </c>
       <c r="C121" t="n">
-        <v>0.2450177799793666</v>
+        <v>0.2450177799793704</v>
       </c>
       <c r="D121" t="n">
         <v>0.2847686319835542</v>
@@ -2744,7 +2744,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.004892497957317244</v>
+        <v>-0.005670076237602199</v>
       </c>
       <c r="D122" t="n">
         <v>0.003297327676347066</v>
@@ -2779,7 +2779,7 @@
         <v>0.2868811477881615</v>
       </c>
       <c r="C124" t="n">
-        <v>0.268670699704224</v>
+        <v>0.2686706997042291</v>
       </c>
       <c r="D124" t="n">
         <v>0.2438681518092609</v>
@@ -2798,7 +2798,7 @@
         <v>0.3219280948873623</v>
       </c>
       <c r="C125" t="n">
-        <v>0.4070719909172771</v>
+        <v>0.4070719909172789</v>
       </c>
       <c r="D125" t="n">
         <v>0.1874078822833225</v>
@@ -2817,7 +2817,7 @@
         <v>0.4005379295837288</v>
       </c>
       <c r="C126" t="n">
-        <v>0.3016779916069452</v>
+        <v>0.301677991606941</v>
       </c>
       <c r="D126" t="n">
         <v>-0.09848024110048595</v>
@@ -2836,7 +2836,7 @@
         <v>0.4854268271702417</v>
       </c>
       <c r="C127" t="n">
-        <v>0.4883059391126161</v>
+        <v>0.4883059391126124</v>
       </c>
       <c r="D127" t="n">
         <v>-0.02013126677026866</v>
@@ -2855,7 +2855,7 @@
         <v>0.5849625007211562</v>
       </c>
       <c r="C128" t="n">
-        <v>0.4401462583949948</v>
+        <v>0.440146258394997</v>
       </c>
       <c r="D128" t="n">
         <v>0.4829047197394181</v>
@@ -2874,7 +2874,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C129" t="n">
-        <v>0.1633231020488861</v>
+        <v>0.163323102048883</v>
       </c>
       <c r="D129" t="n">
         <v>-0.1060200077615998</v>
@@ -2893,7 +2893,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C130" t="n">
-        <v>0.08945841087941928</v>
+        <v>0.08945841087941506</v>
       </c>
       <c r="D130" t="n">
         <v>0.1068688648682526</v>
@@ -2912,7 +2912,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C131" t="n">
-        <v>0.1697044034605543</v>
+        <v>0.1697044034605574</v>
       </c>
       <c r="D131" t="n">
         <v>0.4624734755948717</v>
@@ -2931,7 +2931,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C132" t="n">
-        <v>0.01494523567432365</v>
+        <v>0.01494523567432682</v>
       </c>
       <c r="D132" t="n">
         <v>0.06539593811195141</v>
@@ -2950,7 +2950,7 @@
         <v>-0.1844245711374274</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.1471542536610067</v>
+        <v>-0.1378226186114495</v>
       </c>
       <c r="D133" t="n">
         <v>-0.2668711946115475</v>
@@ -2969,7 +2969,7 @@
         <v>0.3561438102252754</v>
       </c>
       <c r="C134" t="n">
-        <v>0.3569467696701395</v>
+        <v>0.3549943546237371</v>
       </c>
       <c r="D134" t="n">
         <v>0.4571791155799401</v>
@@ -2988,7 +2988,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C135" t="n">
-        <v>0.03248899706360181</v>
+        <v>0.03248899706360494</v>
       </c>
       <c r="D135" t="n">
         <v>-0.03441744967866939</v>
@@ -3007,7 +3007,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C136" t="n">
-        <v>0.1937175271715693</v>
+        <v>0.8295460786234776</v>
       </c>
       <c r="D136" t="n">
         <v>2.880990803421433</v>
@@ -3026,7 +3026,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C137" t="n">
-        <v>0.2993303273221907</v>
+        <v>0.2993303273221941</v>
       </c>
       <c r="D137" t="n">
         <v>-0.4552186892394866</v>
@@ -3045,7 +3045,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C138" t="n">
-        <v>0.2127462839989054</v>
+        <v>0.2127462839989013</v>
       </c>
       <c r="D138" t="n">
         <v>0.360454220375904</v>
@@ -3080,7 +3080,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C140" t="n">
-        <v>0.04494365514226643</v>
+        <v>0.0449436551422714</v>
       </c>
       <c r="D140" t="n">
         <v>0.1456350097387601</v>
@@ -3099,7 +3099,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C141" t="n">
-        <v>0.2325772883104202</v>
+        <v>0.2325772883104188</v>
       </c>
       <c r="D141" t="n">
         <v>-0.05108434879679492</v>
@@ -3118,7 +3118,7 @@
         <v>0.2868811477881615</v>
       </c>
       <c r="C142" t="n">
-        <v>0.226722632773199</v>
+        <v>0.2270173911848696</v>
       </c>
       <c r="D142" t="n">
         <v>2.935464318006388</v>
@@ -3137,7 +3137,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2899804146586418</v>
+        <v>0.2834093200025957</v>
       </c>
       <c r="D143" t="n">
         <v>-2.537200340006235</v>
@@ -3156,7 +3156,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C144" t="n">
-        <v>0.1196611146587611</v>
+        <v>0.1113582533952908</v>
       </c>
       <c r="D144" t="n">
         <v>-0.0280782067392516</v>
@@ -3175,7 +3175,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C145" t="n">
-        <v>0.2457188795367416</v>
+        <v>0.2476538441159146</v>
       </c>
       <c r="D145" t="n">
         <v>2.549995972946437</v>
@@ -3194,7 +3194,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C146" t="n">
-        <v>0.1542611938139604</v>
+        <v>0.1542611938139655</v>
       </c>
       <c r="D146" t="n">
         <v>0.05185740608553284</v>
@@ -3213,7 +3213,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.1024207298639758</v>
+        <v>0.5746645097031681</v>
       </c>
       <c r="D147" t="n">
         <v>-1.099189556776142</v>
@@ -3232,7 +3232,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C148" t="n">
-        <v>0.133094253968189</v>
+        <v>0.1330942539681908</v>
       </c>
       <c r="D148" t="n">
         <v>0.2237185842643614</v>
@@ -3267,7 +3267,7 @@
         <v>0.6135316529179271</v>
       </c>
       <c r="C150" t="n">
-        <v>0.08377230696642657</v>
+        <v>0.08377230696642567</v>
       </c>
       <c r="D150" t="n">
         <v>0.8427861611561906</v>
@@ -3305,7 +3305,7 @@
         <v>0.3103401206121505</v>
       </c>
       <c r="C152" t="n">
-        <v>0.4899504570634726</v>
+        <v>0.4960483187387942</v>
       </c>
       <c r="D152" t="n">
         <v>-12.2069350105864</v>
@@ -3324,7 +3324,7 @@
         <v>0.3103401206121505</v>
       </c>
       <c r="C153" t="n">
-        <v>0.2597159683197105</v>
+        <v>0.259715968319707</v>
       </c>
       <c r="D153" t="n">
         <v>-0.2159941344874762</v>
@@ -3343,7 +3343,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C154" t="n">
-        <v>0.2516106841984861</v>
+        <v>0.249102273186765</v>
       </c>
       <c r="D154" t="n">
         <v>-0.3127951148766878</v>
@@ -3362,7 +3362,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C155" t="n">
-        <v>0.1603050523377222</v>
+        <v>0.1603050523377225</v>
       </c>
       <c r="D155" t="n">
         <v>0.05728033509301279</v>
@@ -3381,7 +3381,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.120442005411059</v>
+        <v>-0.1204420054110599</v>
       </c>
       <c r="D156" t="n">
         <v>-0.1177477808382315</v>
@@ -3400,7 +3400,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.1121902816470668</v>
+        <v>0.2355330980146437</v>
       </c>
       <c r="D157" t="n">
         <v>-2.468257155086179</v>
@@ -3419,7 +3419,7 @@
         <v>-0.1520030934450499</v>
       </c>
       <c r="C158" t="n">
-        <v>0.05889368905356861</v>
+        <v>0.05889368905357323</v>
       </c>
       <c r="D158" t="n">
         <v>-0.1193530252205316</v>
@@ -3438,7 +3438,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C159" t="n">
-        <v>0.2528770741799579</v>
+        <v>0.252877074179963</v>
       </c>
       <c r="D159" t="n">
         <v>0.2561776100021407</v>
@@ -3457,7 +3457,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C160" t="n">
-        <v>0.1110182415982069</v>
+        <v>0.1110182415982099</v>
       </c>
       <c r="D160" t="n">
         <v>-0.1506212760892723</v>
@@ -3476,7 +3476,7 @@
         <v>0.3219280948873623</v>
       </c>
       <c r="C161" t="n">
-        <v>0.2093916359317685</v>
+        <v>-0.2957562396621607</v>
       </c>
       <c r="D161" t="n">
         <v>2.215184805162181</v>
@@ -3495,7 +3495,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.3203103918455028</v>
+        <v>-0.193976637204338</v>
       </c>
       <c r="E162" t="n">
         <v>-0.2473706386014921</v>
@@ -3511,7 +3511,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.1339853016233592</v>
+        <v>-0.1339853016233599</v>
       </c>
       <c r="D163" t="n">
         <v>-0.169918160731228</v>
@@ -3530,7 +3530,7 @@
         <v>0.3219280948873623</v>
       </c>
       <c r="C164" t="n">
-        <v>0.3663260848056118</v>
+        <v>0.3663260848056148</v>
       </c>
       <c r="D164" t="n">
         <v>0.294039898727686</v>
@@ -3568,7 +3568,7 @@
         <v>0.2868811477881615</v>
       </c>
       <c r="C166" t="n">
-        <v>0.1724702209967133</v>
+        <v>0.1724702209967116</v>
       </c>
       <c r="D166" t="n">
         <v>0.2016822136691053</v>
@@ -3587,7 +3587,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C167" t="n">
-        <v>0.1937999841048304</v>
+        <v>1.549606341228367</v>
       </c>
       <c r="D167" t="n">
         <v>0.1264630228603248</v>
@@ -3606,7 +3606,7 @@
         <v>0.4222330006830478</v>
       </c>
       <c r="C168" t="n">
-        <v>0.3566832363077941</v>
+        <v>0.3566832363077886</v>
       </c>
       <c r="D168" t="n">
         <v>0.2784553895552417</v>
@@ -3625,7 +3625,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.1249310095663671</v>
+        <v>-0.1249310095663666</v>
       </c>
       <c r="D169" t="n">
         <v>-0.3562224790217408</v>
@@ -3644,7 +3644,7 @@
         <v>0.4956951626240688</v>
       </c>
       <c r="C170" t="n">
-        <v>0.4987257495258569</v>
+        <v>0.498725749525859</v>
       </c>
       <c r="D170" t="n">
         <v>-0.5832676637158845</v>
@@ -3663,7 +3663,7 @@
         <v>0.4222330006830478</v>
       </c>
       <c r="C171" t="n">
-        <v>0.007532280358488998</v>
+        <v>0.007532280358493459</v>
       </c>
       <c r="D171" t="n">
         <v>0.221037071967569</v>
@@ -3698,7 +3698,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C173" t="n">
-        <v>0.2800951456610423</v>
+        <v>0.2800951456610378</v>
       </c>
       <c r="D173" t="n">
         <v>-0.2359720471958633</v>
@@ -3717,7 +3717,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C174" t="n">
-        <v>0.2040187181297035</v>
+        <v>0.1918625825041615</v>
       </c>
       <c r="D174" t="n">
         <v>0.2792671082248571</v>
@@ -3736,7 +3736,7 @@
         <v>0.5260688116675876</v>
       </c>
       <c r="C175" t="n">
-        <v>0.457333431325196</v>
+        <v>0.4573334313251991</v>
       </c>
       <c r="D175" t="n">
         <v>-0.01274909987186002</v>
@@ -3755,7 +3755,7 @@
         <v>0.3219280948873623</v>
       </c>
       <c r="C176" t="n">
-        <v>0.352739100420594</v>
+        <v>0.2311525936261015</v>
       </c>
       <c r="D176" t="n">
         <v>0.1198625355177022</v>
@@ -3774,7 +3774,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C177" t="n">
-        <v>0.1769580571043449</v>
+        <v>0.1769580571043421</v>
       </c>
       <c r="D177" t="n">
         <v>0.1426120147976245</v>
@@ -3793,7 +3793,7 @@
         <v>0.5260688116675876</v>
       </c>
       <c r="C178" t="n">
-        <v>0.7864361048064091</v>
+        <v>0.7864361048064126</v>
       </c>
       <c r="D178" t="n">
         <v>0.9824095991719063</v>
@@ -3812,7 +3812,7 @@
         <v>0.3785116232537298</v>
       </c>
       <c r="C179" t="n">
-        <v>0.2999477115902933</v>
+        <v>0.2999477115902914</v>
       </c>
       <c r="D179" t="n">
         <v>-0.561907296611762</v>
@@ -3831,7 +3831,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C180" t="n">
-        <v>0.227407135617642</v>
+        <v>0.2274071356176376</v>
       </c>
       <c r="D180" t="n">
         <v>-0.1645040492369247</v>
@@ -3850,7 +3850,7 @@
         <v>0.4646682670034443</v>
       </c>
       <c r="C181" t="n">
-        <v>0.3915323972223668</v>
+        <v>0.3915323972223661</v>
       </c>
       <c r="D181" t="n">
         <v>0.3572230182028087</v>
@@ -3869,7 +3869,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C182" t="n">
-        <v>0.2035900835178066</v>
+        <v>0.2035900835178005</v>
       </c>
       <c r="D182" t="n">
         <v>0.2607896737891557</v>
@@ -3888,7 +3888,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C183" t="n">
-        <v>0.102120992699842</v>
+        <v>0.102120992699836</v>
       </c>
       <c r="D183" t="n">
         <v>-0.0432144720150094</v>
@@ -3907,7 +3907,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C184" t="n">
-        <v>0.5668296753128105</v>
+        <v>0.1305850099505263</v>
       </c>
       <c r="D184" t="n">
         <v>0.1784224156387969</v>
@@ -3926,7 +3926,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C185" t="n">
-        <v>0.1589264888044535</v>
+        <v>0.1586914910100589</v>
       </c>
       <c r="D185" t="n">
         <v>0.7063887970491729</v>
@@ -3945,7 +3945,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C186" t="n">
-        <v>-0.2304957637996792</v>
+        <v>-0.0719326572205367</v>
       </c>
       <c r="D186" t="n">
         <v>-2.416050894024178</v>
@@ -3964,7 +3964,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C187" t="n">
-        <v>0.3618873733635127</v>
+        <v>0.3618873733635092</v>
       </c>
       <c r="D187" t="n">
         <v>0.1338393877359152</v>
@@ -3983,7 +3983,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C188" t="n">
-        <v>0.02059086994234524</v>
+        <v>0.0121138882176182</v>
       </c>
       <c r="D188" t="n">
         <v>-0.175703140566128</v>
@@ -4002,7 +4002,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C189" t="n">
-        <v>0.4639784605365691</v>
+        <v>0.463978460536567</v>
       </c>
       <c r="D189" t="n">
         <v>0.2514745610591944</v>
@@ -4021,7 +4021,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C190" t="n">
-        <v>0.3187046587366417</v>
+        <v>0.3120948313200806</v>
       </c>
       <c r="D190" t="n">
         <v>2.785825811163492</v>
@@ -4040,7 +4040,7 @@
         <v>0.4436066514756148</v>
       </c>
       <c r="C191" t="n">
-        <v>0.3417239274861849</v>
+        <v>0.3426820430346713</v>
       </c>
       <c r="D191" t="n">
         <v>0.1210282716927181</v>
@@ -4059,7 +4059,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C192" t="n">
-        <v>0.2226949048349643</v>
+        <v>0.2223924213364521</v>
       </c>
       <c r="D192" t="n">
         <v>0.7291429182380275</v>
@@ -4078,7 +4078,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C193" t="n">
-        <v>0.1274410118418342</v>
+        <v>0.1274410118418295</v>
       </c>
       <c r="D193" t="n">
         <v>0.1184131045143153</v>
@@ -4097,7 +4097,7 @@
         <v>-0.2175914350726268</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.1036125255493303</v>
+        <v>-0.1036125255493306</v>
       </c>
       <c r="D194" t="n">
         <v>0.5211872251616438</v>
@@ -4116,7 +4116,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C195" t="n">
-        <v>0.389117335558037</v>
+        <v>0.3891173355580408</v>
       </c>
       <c r="D195" t="n">
         <v>0.4998642385256316</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>0.0382943539072574</v>
+        <v>0.04196138795342677</v>
       </c>
       <c r="D196" t="n">
         <v>0.04783594137085927</v>
@@ -4154,7 +4154,7 @@
         <v>0.3673710656485294</v>
       </c>
       <c r="C197" t="n">
-        <v>0.3671206137782568</v>
+        <v>0.3671206137782518</v>
       </c>
       <c r="D197" t="n">
         <v>0.4214600201958167</v>
@@ -4173,7 +4173,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.05875307268003419</v>
+        <v>-0.050590421128196</v>
       </c>
       <c r="D198" t="n">
         <v>0.01153311907287985</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>-0.1491474192804593</v>
+        <v>-0.1491474192804585</v>
       </c>
       <c r="D199" t="n">
         <v>-0.1218960816596816</v>
@@ -4211,7 +4211,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C200" t="n">
-        <v>0.1882296562113743</v>
+        <v>0.1901656190707904</v>
       </c>
       <c r="D200" t="n">
         <v>0.2006827267502604</v>
@@ -4230,7 +4230,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C201" t="n">
-        <v>0.1130849711567185</v>
+        <v>0.1130849711567164</v>
       </c>
       <c r="D201" t="n">
         <v>-0.2937730950114688</v>
@@ -4249,7 +4249,7 @@
         <v>-0.234465253637023</v>
       </c>
       <c r="C202" t="n">
-        <v>-0.1074855643618061</v>
+        <v>-0.1074855643618065</v>
       </c>
       <c r="D202" t="n">
         <v>-0.1008904312674873</v>
@@ -4267,6 +4267,9 @@
       <c r="B203" t="n">
         <v>0.4854268271702417</v>
       </c>
+      <c r="C203" t="n">
+        <v>0.4139692318913555</v>
+      </c>
       <c r="D203" t="n">
         <v>0.008666099998482274</v>
       </c>
@@ -4284,7 +4287,7 @@
         <v>0.3103401206121505</v>
       </c>
       <c r="C204" t="n">
-        <v>0.2857012521639121</v>
+        <v>0.3161869695890175</v>
       </c>
       <c r="D204" t="n">
         <v>-3.029026168972923</v>
@@ -4303,7 +4306,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C205" t="n">
-        <v>0.214385864343184</v>
+        <v>0.3169344199067864</v>
       </c>
       <c r="D205" t="n">
         <v>0.2185077470411407</v>
@@ -4322,7 +4325,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C206" t="n">
-        <v>0.09706846234734511</v>
+        <v>0.09673179848589751</v>
       </c>
       <c r="D206" t="n">
         <v>0.1049152393320664</v>
@@ -4341,7 +4344,7 @@
         <v>0.4750848829487826</v>
       </c>
       <c r="C207" t="n">
-        <v>0.4071788539342851</v>
+        <v>0.4071788539342834</v>
       </c>
       <c r="D207" t="n">
         <v>0.5247676946058465</v>
@@ -4360,7 +4363,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C208" t="n">
-        <v>0.2381899044259951</v>
+        <v>0.2381899044259989</v>
       </c>
       <c r="D208" t="n">
         <v>0.2393418901873553</v>
@@ -4379,7 +4382,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C209" t="n">
-        <v>0.1135224224091581</v>
+        <v>0.1135224224091599</v>
       </c>
       <c r="D209" t="n">
         <v>0.2010406821061358</v>
@@ -4398,14 +4401,11 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C210" t="n">
-        <v>0.3192840887545921</v>
+        <v>0.7395473893726214</v>
       </c>
       <c r="D210" t="n">
         <v>0.3568941591943789</v>
       </c>
-      <c r="E210" t="n">
-        <v>0.2758592271539439</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -4436,7 +4436,7 @@
         <v>0.3561438102252754</v>
       </c>
       <c r="C212" t="n">
-        <v>0.3074452386236377</v>
+        <v>0.3084985753365265</v>
       </c>
       <c r="D212" t="n">
         <v>0.2242341104357583</v>
@@ -4455,7 +4455,7 @@
         <v>0.4854268271702417</v>
       </c>
       <c r="C213" t="n">
-        <v>0.405372357606071</v>
+        <v>0.4053723576060669</v>
       </c>
       <c r="D213" t="n">
         <v>0.8018496225096521</v>
@@ -4490,7 +4490,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C215" t="n">
-        <v>0.2790518987983328</v>
+        <v>0.2727425077713105</v>
       </c>
       <c r="D215" t="n">
         <v>-2.671008451619034</v>
@@ -4509,7 +4509,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C216" t="n">
-        <v>0.3387721278136281</v>
+        <v>0.731958905870812</v>
       </c>
       <c r="D216" t="n">
         <v>0.6866624202952478</v>
@@ -4528,7 +4528,7 @@
         <v>0.5753123306874368</v>
       </c>
       <c r="C217" t="n">
-        <v>0.3968796511142958</v>
+        <v>0.40056313191829</v>
       </c>
       <c r="D217" t="n">
         <v>0.7882148846915202</v>
@@ -4547,7 +4547,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C218" t="n">
-        <v>0.1978789513537636</v>
+        <v>-0.1839642816980689</v>
       </c>
       <c r="D218" t="n">
         <v>1.077110925336538</v>
@@ -4566,7 +4566,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C219" t="n">
-        <v>0.1225377829571932</v>
+        <v>0.1254187889218523</v>
       </c>
       <c r="D219" t="n">
         <v>-0.08434665282782454</v>
@@ -4585,7 +4585,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C220" t="n">
-        <v>0.1858374845773458</v>
+        <v>0.1858374845773441</v>
       </c>
       <c r="D220" t="n">
         <v>0.2752289273251634</v>
@@ -4604,7 +4604,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C221" t="n">
-        <v>-0.005186446715335274</v>
+        <v>-0.005186446715335917</v>
       </c>
       <c r="D221" t="n">
         <v>-0.5061846598398249</v>
@@ -4623,7 +4623,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C222" t="n">
-        <v>0.220093883616839</v>
+        <v>0.2200938836168355</v>
       </c>
       <c r="D222" t="n">
         <v>0.2952718640782137</v>
@@ -4642,7 +4642,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C223" t="n">
-        <v>0.06969390653445003</v>
+        <v>0.0713468014822957</v>
       </c>
       <c r="D223" t="n">
         <v>-0.3654851419632622</v>
@@ -4677,7 +4677,7 @@
         <v>0.4750848829487826</v>
       </c>
       <c r="C225" t="n">
-        <v>0.4399954577861018</v>
+        <v>0.4440616809990062</v>
       </c>
       <c r="D225" t="n">
         <v>0.4712219499655115</v>
@@ -4696,7 +4696,7 @@
         <v>0.3785116232537298</v>
       </c>
       <c r="C226" t="n">
-        <v>0.2396441441997711</v>
+        <v>0.2396441441997703</v>
       </c>
       <c r="D226" t="n">
         <v>0.5103247740173316</v>
@@ -4715,7 +4715,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C227" t="n">
-        <v>0.0382004138261898</v>
+        <v>0.03820041382618324</v>
       </c>
       <c r="D227" t="n">
         <v>-0.0515101029447298</v>
@@ -4734,7 +4734,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C228" t="n">
-        <v>0.1126980786663402</v>
+        <v>0.112698078666334</v>
       </c>
       <c r="D228" t="n">
         <v>0.7309514227227969</v>
@@ -4753,7 +4753,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C229" t="n">
-        <v>0.1571445526906476</v>
+        <v>0.157144552690654</v>
       </c>
       <c r="D229" t="n">
         <v>0.2383049386595287</v>
@@ -4772,7 +4772,7 @@
         <v>0.3673710656485294</v>
       </c>
       <c r="C230" t="n">
-        <v>0.4580132662674768</v>
+        <v>0.4580132662674822</v>
       </c>
       <c r="D230" t="n">
         <v>0.9912769103996365</v>
@@ -4791,7 +4791,7 @@
         <v>0.3103401206121505</v>
       </c>
       <c r="C231" t="n">
-        <v>0.2561469408771974</v>
+        <v>0.2561469408771952</v>
       </c>
       <c r="D231" t="n">
         <v>-0.1163502388048805</v>
@@ -4810,7 +4810,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C232" t="n">
-        <v>0.185857386534915</v>
+        <v>0.1857184855536398</v>
       </c>
       <c r="D232" t="n">
         <v>0.3230385401649996</v>
@@ -4829,7 +4829,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C233" t="n">
-        <v>0.2003921859364135</v>
+        <v>0.2003921859364133</v>
       </c>
       <c r="D233" t="n">
         <v>1.019558123569347</v>
@@ -4848,7 +4848,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C234" t="n">
-        <v>0.3202047878448411</v>
+        <v>0.3202047878448401</v>
       </c>
       <c r="D234" t="n">
         <v>0.549145556786869</v>
@@ -4867,7 +4867,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C235" t="n">
-        <v>0.09139881336379152</v>
+        <v>0.05196578739919711</v>
       </c>
       <c r="D235" t="n">
         <v>-0.3252572476570247</v>
@@ -4886,7 +4886,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C236" t="n">
-        <v>0.4799745113057915</v>
+        <v>0.4799745113057929</v>
       </c>
       <c r="D236" t="n">
         <v>0.7277145028912642</v>
@@ -4905,7 +4905,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C237" t="n">
-        <v>0.3327683854730816</v>
+        <v>0.3315651368287758</v>
       </c>
       <c r="D237" t="n">
         <v>0.6197787680519578</v>
@@ -4940,7 +4940,7 @@
         <v>-0.5994620704162712</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.5514490138787201</v>
+        <v>-0.5514490138787204</v>
       </c>
       <c r="D239" t="n">
         <v>-1.190685939121038</v>
@@ -4959,7 +4959,7 @@
         <v>-0.2688167584278</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.08127362600243651</v>
+        <v>-0.08127362600243566</v>
       </c>
       <c r="D240" t="n">
         <v>0.1144792898792387</v>
@@ -4978,7 +4978,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C241" t="n">
-        <v>0.1318994047627413</v>
+        <v>0.1318994047627443</v>
       </c>
       <c r="D241" t="n">
         <v>0.1505517190351444</v>
@@ -4997,7 +4997,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C242" t="n">
-        <v>0.2713704292210455</v>
+        <v>0.2741265234136699</v>
       </c>
       <c r="D242" t="n">
         <v>0.00607202674129633</v>
@@ -5016,7 +5016,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C243" t="n">
-        <v>0.129727604535459</v>
+        <v>0.129727604535457</v>
       </c>
       <c r="D243" t="n">
         <v>0.1289735525420213</v>
@@ -5035,7 +5035,7 @@
         <v>0.2986583155645152</v>
       </c>
       <c r="C244" t="n">
-        <v>0.4389267812318691</v>
+        <v>0.4296586329385212</v>
       </c>
       <c r="D244" t="n">
         <v>0.1526233084813646</v>
@@ -5054,7 +5054,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C245" t="n">
-        <v>0.374172804039214</v>
+        <v>0.3741728040392165</v>
       </c>
       <c r="D245" t="n">
         <v>0.4508719772764852</v>
@@ -5073,7 +5073,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C246" t="n">
-        <v>0.2342958068454425</v>
+        <v>0.2297128688377168</v>
       </c>
       <c r="D246" t="n">
         <v>2.968991564269849</v>
@@ -5092,7 +5092,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C247" t="n">
-        <v>0.09553605865277183</v>
+        <v>0.5390806407131888</v>
       </c>
       <c r="D247" t="n">
         <v>-2.343795963990639</v>
@@ -5111,7 +5111,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C248" t="n">
-        <v>-0.0882979758848836</v>
+        <v>-0.05551481473073049</v>
       </c>
       <c r="D248" t="n">
         <v>-3.361532931743271</v>
@@ -5130,7 +5130,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C249" t="n">
-        <v>0.1982093239884188</v>
+        <v>0.1982093239884222</v>
       </c>
       <c r="D249" t="n">
         <v>0.08477434289032801</v>
@@ -5149,7 +5149,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C250" t="n">
-        <v>0.2167703348977565</v>
+        <v>0.3131925183910975</v>
       </c>
       <c r="D250" t="n">
         <v>0.6633421619727512</v>
@@ -5168,7 +5168,7 @@
         <v>0.5058909297299573</v>
       </c>
       <c r="C251" t="n">
-        <v>0.3406392371757528</v>
+        <v>0.3406392371757488</v>
       </c>
       <c r="D251" t="n">
         <v>0.4226336211641682</v>
@@ -5187,7 +5187,7 @@
         <v>0.4436066514756148</v>
       </c>
       <c r="C252" t="n">
-        <v>0.3685850855714642</v>
+        <v>0.3685850855714615</v>
       </c>
       <c r="D252" t="n">
         <v>0.3887059472201301</v>
@@ -5206,7 +5206,7 @@
         <v>0.3673710656485294</v>
       </c>
       <c r="C253" t="n">
-        <v>0.4593893620436411</v>
+        <v>0.6797642162050891</v>
       </c>
       <c r="D253" t="n">
         <v>0.1097367664674401</v>
@@ -5225,7 +5225,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C254" t="n">
-        <v>0.1897570584748555</v>
+        <v>0.1897570584748605</v>
       </c>
       <c r="D254" t="n">
         <v>-0.01148706545898286</v>
@@ -5244,7 +5244,7 @@
         <v>0.5459683691052925</v>
       </c>
       <c r="C255" t="n">
-        <v>0.3417256846556463</v>
+        <v>0.3417256846556417</v>
       </c>
       <c r="D255" t="n">
         <v>0.3781810068870926</v>
@@ -5263,7 +5263,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C256" t="n">
-        <v>-0.03942547989057742</v>
+        <v>-0.03942547989057808</v>
       </c>
       <c r="D256" t="n">
         <v>-0.4627709948010168</v>
@@ -5282,7 +5282,7 @@
         <v>0.5655971758542251</v>
       </c>
       <c r="C257" t="n">
-        <v>0.6644821007109165</v>
+        <v>0.6644821007109201</v>
       </c>
       <c r="D257" t="n">
         <v>0.4245163932027163</v>
@@ -5301,7 +5301,7 @@
         <v>0.5753123306874368</v>
       </c>
       <c r="C258" t="n">
-        <v>0.02304079326964545</v>
+        <v>0.03539729231271906</v>
       </c>
       <c r="D258" t="n">
         <v>0.4854727405028859</v>
@@ -5320,7 +5320,7 @@
         <v>0.4646682670034443</v>
       </c>
       <c r="C259" t="n">
-        <v>0.5550806185386378</v>
+        <v>0.3528523218266302</v>
       </c>
       <c r="D259" t="n">
         <v>5.981795001357971</v>
@@ -5339,7 +5339,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C260" t="n">
-        <v>0.2186217178961961</v>
+        <v>0.2296835547081555</v>
       </c>
       <c r="D260" t="n">
         <v>0.1800064543095393</v>
@@ -5358,7 +5358,7 @@
         <v>0.2868811477881615</v>
       </c>
       <c r="C261" t="n">
-        <v>0.2391823503106053</v>
+        <v>0.2391823503105999</v>
       </c>
       <c r="D261" t="n">
         <v>0.2475693860324066</v>
@@ -5377,7 +5377,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C262" t="n">
-        <v>0.220524334628951</v>
+        <v>0.220524334628956</v>
       </c>
       <c r="D262" t="n">
         <v>0.0761145631480537</v>
@@ -5396,7 +5396,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C263" t="n">
-        <v>0.1582149223783129</v>
+        <v>0.1582149223783163</v>
       </c>
       <c r="D263" t="n">
         <v>0.1302757607653569</v>
@@ -5415,7 +5415,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C264" t="n">
-        <v>0.1645050829023195</v>
+        <v>0.1645050829023149</v>
       </c>
       <c r="D264" t="n">
         <v>0.1262713629021333</v>
@@ -5434,7 +5434,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C265" t="n">
-        <v>0.1851738285112606</v>
+        <v>0.1851738285112564</v>
       </c>
       <c r="D265" t="n">
         <v>0.8051920185903182</v>
@@ -5453,7 +5453,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C266" t="n">
-        <v>0.2351999648532899</v>
+        <v>0.3119671246256705</v>
       </c>
       <c r="D266" t="n">
         <v>3.213385202560215</v>
@@ -5472,7 +5472,7 @@
         <v>-0.5353317329965558</v>
       </c>
       <c r="C267" t="n">
-        <v>-0.01258807520770549</v>
+        <v>-0.01258807520770582</v>
       </c>
       <c r="D267" t="n">
         <v>-0.216718666419374</v>
@@ -5491,7 +5491,7 @@
         <v>0.4750848829487826</v>
       </c>
       <c r="C268" t="n">
-        <v>0.5890116053743011</v>
+        <v>0.5871234373406972</v>
       </c>
       <c r="D268" t="n">
         <v>0.8026995593802206</v>
@@ -5510,7 +5510,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C269" t="n">
-        <v>-0.2957262615369365</v>
+        <v>0.1020708349681488</v>
       </c>
       <c r="D269" t="n">
         <v>0.1281313214237431</v>
@@ -5529,7 +5529,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C270" t="n">
-        <v>0.111815488671537</v>
+        <v>0.2775216825740123</v>
       </c>
       <c r="D270" t="n">
         <v>0.1728129155087861</v>
@@ -5548,7 +5548,7 @@
         <v>0.4854268271702417</v>
       </c>
       <c r="C271" t="n">
-        <v>0.3990786018720328</v>
+        <v>0.3990786018720296</v>
       </c>
       <c r="D271" t="n">
         <v>0.4935129324974378</v>
@@ -5567,7 +5567,7 @@
         <v>0.3103401206121505</v>
       </c>
       <c r="C272" t="n">
-        <v>0.433138995584032</v>
+        <v>0.4331389955840356</v>
       </c>
       <c r="D272" t="n">
         <v>0.4025641362962156</v>
@@ -5624,7 +5624,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C275" t="n">
-        <v>0.3863162849424009</v>
+        <v>0.3863162849424019</v>
       </c>
       <c r="D275" t="n">
         <v>0.5174993001100169</v>
@@ -5643,7 +5643,7 @@
         <v>0.632268215499513</v>
       </c>
       <c r="C276" t="n">
-        <v>0.6326441994163917</v>
+        <v>0.6326441994163884</v>
       </c>
       <c r="D276" t="n">
         <v>0.7320043330456232</v>
@@ -5662,7 +5662,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C277" t="n">
-        <v>0.5977736075658014</v>
+        <v>0.5977736075658031</v>
       </c>
       <c r="D277" t="n">
         <v>-3.404564117979057</v>
@@ -5697,7 +5697,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C279" t="n">
-        <v>0.08920517880746355</v>
+        <v>0.08920517880746445</v>
       </c>
       <c r="D279" t="n">
         <v>0.1635898990564303</v>
@@ -5716,7 +5716,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C280" t="n">
-        <v>0.315922840367157</v>
+        <v>0.3159228403671516</v>
       </c>
       <c r="D280" t="n">
         <v>0.270847273153569</v>
@@ -5735,7 +5735,7 @@
         <v>0.3673710656485294</v>
       </c>
       <c r="C281" t="n">
-        <v>0.2570951478021802</v>
+        <v>0.2570951478021851</v>
       </c>
       <c r="D281" t="n">
         <v>0.3289734304709203</v>
@@ -5754,7 +5754,7 @@
         <v>0.4222330006830478</v>
       </c>
       <c r="C282" t="n">
-        <v>0.2062391865100702</v>
+        <v>0.2062391865100741</v>
       </c>
       <c r="D282" t="n">
         <v>0.2626510705441186</v>
@@ -5773,7 +5773,7 @@
         <v>0.2868811477881615</v>
       </c>
       <c r="C283" t="n">
-        <v>0.309483845723511</v>
+        <v>0.3094838457235076</v>
       </c>
       <c r="D283" t="n">
         <v>0.2614081842447242</v>
@@ -5792,7 +5792,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C284" t="n">
-        <v>0.2742683010690914</v>
+        <v>0.2742683010690964</v>
       </c>
       <c r="D284" t="n">
         <v>-0.1296959558040388</v>
@@ -5811,7 +5811,7 @@
         <v>0.3103401206121505</v>
       </c>
       <c r="C285" t="n">
-        <v>0.4037574216935221</v>
+        <v>0.4341425911471556</v>
       </c>
       <c r="D285" t="n">
         <v>-2.429098767092764</v>
@@ -5830,7 +5830,7 @@
         <v>0.3103401206121505</v>
       </c>
       <c r="C286" t="n">
-        <v>0.5784862689622519</v>
+        <v>0.496146242623814</v>
       </c>
       <c r="D286" t="n">
         <v>0.3298786007883642</v>
@@ -5849,7 +5849,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C287" t="n">
-        <v>0.1573529884794912</v>
+        <v>0.1573529884794952</v>
       </c>
       <c r="D287" t="n">
         <v>1.887522662744554</v>
@@ -5868,7 +5868,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C288" t="n">
-        <v>0.1279511860391113</v>
+        <v>0.1278417126512785</v>
       </c>
       <c r="D288" t="n">
         <v>0.1097341919594011</v>
@@ -5903,7 +5903,7 @@
         <v>0.2868811477881615</v>
       </c>
       <c r="C290" t="n">
-        <v>0.8721698977985524</v>
+        <v>0.8537606576673287</v>
       </c>
       <c r="D290" t="n">
         <v>0.3081921070369171</v>
@@ -5922,7 +5922,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C291" t="n">
-        <v>-0.01707785980126365</v>
+        <v>-0.0170778598012643</v>
       </c>
       <c r="D291" t="n">
         <v>0.6811576280840784</v>
@@ -5941,7 +5941,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C292" t="n">
-        <v>0.3866063624342963</v>
+        <v>0.5276713220587802</v>
       </c>
       <c r="D292" t="n">
         <v>2.473651818216674</v>
@@ -5960,7 +5960,7 @@
         <v>0.4956951626240688</v>
       </c>
       <c r="C293" t="n">
-        <v>0.4353766805586213</v>
+        <v>0.4353766805586247</v>
       </c>
       <c r="D293" t="n">
         <v>0.4483340282633898</v>
@@ -5979,7 +5979,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C294" t="n">
-        <v>0.2071404113355492</v>
+        <v>0.2078183779279622</v>
       </c>
       <c r="D294" t="n">
         <v>2.87779272466128</v>
@@ -5998,7 +5998,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C295" t="n">
-        <v>0.3412613411208414</v>
+        <v>0.3412613411208362</v>
       </c>
       <c r="D295" t="n">
         <v>0.08350132372045217</v>
@@ -6033,7 +6033,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C297" t="n">
-        <v>0.5106061611350462</v>
+        <v>0.5220986584831454</v>
       </c>
       <c r="D297" t="n">
         <v>1.924741485659236</v>
@@ -6052,7 +6052,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C298" t="n">
-        <v>0.2763528906975826</v>
+        <v>0.2763528906975837</v>
       </c>
       <c r="D298" t="n">
         <v>0.1624345707148325</v>
@@ -6071,7 +6071,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C299" t="n">
-        <v>0.1895196406705994</v>
+        <v>0.4574566764522399</v>
       </c>
       <c r="D299" t="n">
         <v>0.2590163962605829</v>
@@ -6090,7 +6090,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C300" t="n">
-        <v>0.0404576048844545</v>
+        <v>0.040457604884457</v>
       </c>
       <c r="D300" t="n">
         <v>-0.03944635850298391</v>
@@ -6128,7 +6128,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C302" t="n">
-        <v>0.07912662463066666</v>
+        <v>0.1683476757381629</v>
       </c>
       <c r="D302" t="n">
         <v>0.04854713841280931</v>
@@ -6147,7 +6147,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C303" t="n">
-        <v>-0.2841380738785063</v>
+        <v>-0.04143636571085751</v>
       </c>
       <c r="D303" t="n">
         <v>-0.3406782686502466</v>
@@ -6166,7 +6166,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C304" t="n">
-        <v>0.2634183712101345</v>
+        <v>0.2634183712101404</v>
       </c>
       <c r="D304" t="n">
         <v>0.172123558586495</v>
@@ -6185,7 +6185,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C305" t="n">
-        <v>0.1530518404028493</v>
+        <v>0.1548494122679965</v>
       </c>
       <c r="D305" t="n">
         <v>3.042151069750084</v>
@@ -6204,7 +6204,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C306" t="n">
-        <v>0.03569318565201983</v>
+        <v>0.03569318565201733</v>
       </c>
       <c r="D306" t="n">
         <v>0.2667233058522779</v>
@@ -6223,7 +6223,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C307" t="n">
-        <v>-0.2308099161720005</v>
+        <v>-0.1632986034996909</v>
       </c>
       <c r="D307" t="n">
         <v>0.05767738554778194</v>
@@ -6242,7 +6242,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C308" t="n">
-        <v>0.2916959413226947</v>
+        <v>0.3041274693878945</v>
       </c>
       <c r="D308" t="n">
         <v>-2.561045611272847</v>
@@ -6261,7 +6261,7 @@
         <v>0.3785116232537298</v>
       </c>
       <c r="C309" t="n">
-        <v>0.1012952819839873</v>
+        <v>0.1015440654025906</v>
       </c>
       <c r="D309" t="n">
         <v>0.1519136117570161</v>
@@ -6299,7 +6299,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C311" t="n">
-        <v>-0.1517151016203809</v>
+        <v>-0.1517151016203811</v>
       </c>
       <c r="D311" t="n">
         <v>-0.1138218724164444</v>
@@ -6318,7 +6318,7 @@
         <v>0.3673710656485294</v>
       </c>
       <c r="C312" t="n">
-        <v>0.3027899752000514</v>
+        <v>0.3027899752000472</v>
       </c>
       <c r="D312" t="n">
         <v>0.2695820750601306</v>
@@ -6337,7 +6337,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C313" t="n">
-        <v>-0.008117614228777673</v>
+        <v>-0.008117614228777029</v>
       </c>
       <c r="D313" t="n">
         <v>0.2362066421518808</v>
@@ -6356,7 +6356,7 @@
         <v>0.4436066514756148</v>
       </c>
       <c r="C314" t="n">
-        <v>0.3333119904018562</v>
+        <v>0.3333119904018514</v>
       </c>
       <c r="D314" t="n">
         <v>0.4239738204413048</v>
@@ -6375,7 +6375,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C315" t="n">
-        <v>0.2247189256649814</v>
+        <v>0.2247189256649866</v>
       </c>
       <c r="D315" t="n">
         <v>2.481228803377242</v>
@@ -6394,7 +6394,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C316" t="n">
-        <v>-0.03055123580682364</v>
+        <v>-0.03055123580682331</v>
       </c>
       <c r="D316" t="n">
         <v>0.1852103125216927</v>
@@ -6432,7 +6432,7 @@
         <v>0.4436066514756148</v>
       </c>
       <c r="C318" t="n">
-        <v>0.6544433908752588</v>
+        <v>0.6544433908752625</v>
       </c>
       <c r="D318" t="n">
         <v>0.2745641133848725</v>
@@ -6451,7 +6451,7 @@
         <v>0.4541758931858021</v>
       </c>
       <c r="C319" t="n">
-        <v>0.7270613236929001</v>
+        <v>0.8209867876453681</v>
       </c>
       <c r="D319" t="n">
         <v>1.208186468882045</v>
@@ -6470,7 +6470,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C320" t="n">
-        <v>0.3068976848774833</v>
+        <v>0.306897684877481</v>
       </c>
       <c r="D320" t="n">
         <v>0.24029900178492</v>
@@ -6489,7 +6489,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C321" t="n">
-        <v>0.1559581137587137</v>
+        <v>0.1559581137587163</v>
       </c>
       <c r="D321" t="n">
         <v>0.4824882506068233</v>
@@ -6527,7 +6527,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C323" t="n">
-        <v>0.2815540754884946</v>
+        <v>-0.4656917154487367</v>
       </c>
       <c r="D323" t="n">
         <v>-0.9129577399743511</v>
@@ -6546,7 +6546,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C324" t="n">
-        <v>-0.001818141438979406</v>
+        <v>-0.009810409710928367</v>
       </c>
       <c r="D324" t="n">
         <v>-0.6943216843719264</v>
@@ -6565,7 +6565,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C325" t="n">
-        <v>0.263199672463322</v>
+        <v>0.263199672463318</v>
       </c>
       <c r="D325" t="n">
         <v>-0.05217122441525472</v>
@@ -6584,7 +6584,7 @@
         <v>-0.1520030934450499</v>
       </c>
       <c r="C326" t="n">
-        <v>0.0311027534399786</v>
+        <v>0.03110275343997672</v>
       </c>
       <c r="D326" t="n">
         <v>0.09584117875950145</v>
@@ -6603,7 +6603,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C327" t="n">
-        <v>0.03700694573796647</v>
+        <v>0.0370069457379699</v>
       </c>
       <c r="D327" t="n">
         <v>0.1690699549793397</v>
@@ -6622,7 +6622,7 @@
         <v>-0.4739311883324124</v>
       </c>
       <c r="C328" t="n">
-        <v>-0.6233108391700016</v>
+        <v>-0.6233108391700009</v>
       </c>
       <c r="D328" t="n">
         <v>-0.6547399070319525</v>
@@ -6641,7 +6641,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C329" t="n">
-        <v>0.04466512580982541</v>
+        <v>0.04466512580982914</v>
       </c>
       <c r="D329" t="n">
         <v>0.0005667111295977002</v>
@@ -6660,7 +6660,7 @@
         <v>-0.3400754415976217</v>
       </c>
       <c r="C330" t="n">
-        <v>-0.2509381558018891</v>
+        <v>-0.255079177731527</v>
       </c>
       <c r="D330" t="n">
         <v>-0.315186638753932</v>
@@ -6679,7 +6679,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C331" t="n">
-        <v>1.752164105757741</v>
+        <v>0.1254161812958395</v>
       </c>
       <c r="D331" t="n">
         <v>0.2083240819190482</v>
@@ -6698,7 +6698,7 @@
         <v>0.4005379295837288</v>
       </c>
       <c r="C332" t="n">
-        <v>0.1778437591121279</v>
+        <v>0.2447692850263294</v>
       </c>
       <c r="D332" t="n">
         <v>0.01596781381915118</v>
@@ -6717,7 +6717,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C333" t="n">
-        <v>0.4720910548372071</v>
+        <v>0.4720910548372034</v>
       </c>
       <c r="D333" t="n">
         <v>0.5387526569806742</v>
@@ -6736,7 +6736,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C334" t="n">
-        <v>0.2952951733732938</v>
+        <v>0.2952951733732891</v>
       </c>
       <c r="D334" t="n">
         <v>0.3114368777695155</v>
@@ -6755,7 +6755,7 @@
         <v>0.4956951626240688</v>
       </c>
       <c r="C335" t="n">
-        <v>0.4824685408688497</v>
+        <v>0.4824685408688492</v>
       </c>
       <c r="D335" t="n">
         <v>-0.1315805551014423</v>
@@ -6774,7 +6774,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C336" t="n">
-        <v>0.2941746410878093</v>
+        <v>0.2941746410878139</v>
       </c>
       <c r="D336" t="n">
         <v>-0.2290029187390545</v>
@@ -6809,7 +6809,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C338" t="n">
-        <v>-0.6157350892884085</v>
+        <v>-0.6157350892884097</v>
       </c>
       <c r="D338" t="n">
         <v>-0.3854019717267448</v>
@@ -6828,7 +6828,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C339" t="n">
-        <v>0.1556094607085906</v>
+        <v>0.1566004588523016</v>
       </c>
       <c r="D339" t="n">
         <v>0.06296655393570143</v>
@@ -6847,7 +6847,7 @@
         <v>0.6780719051126377</v>
       </c>
       <c r="C340" t="n">
-        <v>0.6622077974283933</v>
+        <v>0.6622077974283951</v>
       </c>
       <c r="D340" t="n">
         <v>0.7680110325046989</v>
@@ -6866,7 +6866,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C341" t="n">
-        <v>0.2092294073373305</v>
+        <v>0.2092294073373344</v>
       </c>
       <c r="D341" t="n">
         <v>-3.070089404986202</v>
@@ -6904,7 +6904,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C343" t="n">
-        <v>0.4354159527273604</v>
+        <v>0.4354159527273599</v>
       </c>
       <c r="D343" t="n">
         <v>-0.1464200486128228</v>
@@ -6923,7 +6923,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C344" t="n">
-        <v>0.2873036925939739</v>
+        <v>0.2803122031524241</v>
       </c>
       <c r="D344" t="n">
         <v>0.5011004521528583</v>
@@ -6942,7 +6942,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C345" t="n">
-        <v>0.2217777357282422</v>
+        <v>0.2217777357282483</v>
       </c>
       <c r="D345" t="n">
         <v>0.1367246287026681</v>
@@ -6961,7 +6961,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C346" t="n">
-        <v>0.0520873411217106</v>
+        <v>0.05208734112170813</v>
       </c>
       <c r="D346" t="n">
         <v>2.365180541785338</v>
@@ -6980,7 +6980,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C347" t="n">
-        <v>0.1459605538766708</v>
+        <v>0.1459605538766664</v>
       </c>
       <c r="D347" t="n">
         <v>0.2001770996437804</v>
@@ -6999,7 +6999,7 @@
         <v>0.5160151470036647</v>
       </c>
       <c r="C348" t="n">
-        <v>0.3535726321478551</v>
+        <v>0.3535726321478577</v>
       </c>
       <c r="D348" t="n">
         <v>0.2938603919893663</v>
@@ -7018,7 +7018,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C349" t="n">
-        <v>0.2129278182593421</v>
+        <v>0.2129278182593412</v>
       </c>
       <c r="D349" t="n">
         <v>-0.2339642823084305</v>
@@ -7056,7 +7056,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C351" t="n">
-        <v>-0.04847987524405465</v>
+        <v>-0.04847987524405398</v>
       </c>
       <c r="D351" t="n">
         <v>0.007358028951628552</v>
@@ -7075,7 +7075,7 @@
         <v>0.5849625007211562</v>
       </c>
       <c r="C352" t="n">
-        <v>0.4555649887131648</v>
+        <v>0.4543121054030827</v>
       </c>
       <c r="D352" t="n">
         <v>0.4186251996394844</v>
@@ -7094,7 +7094,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C353" t="n">
-        <v>-0.1344561118633427</v>
+        <v>-0.14849122083126</v>
       </c>
       <c r="D353" t="n">
         <v>-0.04081517226464791</v>
@@ -7113,7 +7113,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C354" t="n">
-        <v>0.1205696866710885</v>
+        <v>0.1122981838602531</v>
       </c>
       <c r="D354" t="n">
         <v>0.3823248826784746</v>
@@ -7132,7 +7132,7 @@
         <v>0.6135316529179271</v>
       </c>
       <c r="C355" t="n">
-        <v>0.8312781275018437</v>
+        <v>0.8398532092494809</v>
       </c>
       <c r="D355" t="n">
         <v>0.5679592202426367</v>
@@ -7151,7 +7151,7 @@
         <v>-0.234465253637023</v>
       </c>
       <c r="C356" t="n">
-        <v>-0.1261398520466145</v>
+        <v>-0.1308877693176934</v>
       </c>
       <c r="D356" t="n">
         <v>-8.467321945397195</v>
@@ -7170,7 +7170,7 @@
         <v>0.3785116232537298</v>
       </c>
       <c r="C357" t="n">
-        <v>0.4426588454950768</v>
+        <v>0.4415971294842844</v>
       </c>
       <c r="D357" t="n">
         <v>0.2496660576016922</v>
@@ -7189,7 +7189,7 @@
         <v>0.411426245726465</v>
       </c>
       <c r="C358" t="n">
-        <v>0.4609128251748928</v>
+        <v>0.459542761893844</v>
       </c>
       <c r="D358" t="n">
         <v>0.3168879951505787</v>
@@ -7207,6 +7207,9 @@
       <c r="B359" t="n">
         <v>0.3895668117627256</v>
       </c>
+      <c r="C359" t="n">
+        <v>-0.6436726925882835</v>
+      </c>
       <c r="D359" t="n">
         <v>2.962770985515916</v>
       </c>
@@ -7224,7 +7227,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C360" t="n">
-        <v>0.02884861478497826</v>
+        <v>0.02777254430940657</v>
       </c>
       <c r="D360" t="n">
         <v>0.04182310836017916</v>
@@ -7259,7 +7262,7 @@
         <v>-0.3584539709124763</v>
       </c>
       <c r="C362" t="n">
-        <v>-0.2938342529593007</v>
+        <v>-0.2938342529593013</v>
       </c>
       <c r="D362" t="n">
         <v>-0.3013322896231959</v>
@@ -7278,7 +7281,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C363" t="n">
-        <v>0.1198323972118052</v>
+        <v>0.1198323972117995</v>
       </c>
       <c r="D363" t="n">
         <v>0.1316123850058591</v>
@@ -7329,7 +7332,7 @@
         <v>0.6870606883398924</v>
       </c>
       <c r="C366" t="n">
-        <v>0.06179755106683894</v>
+        <v>0.0617975510668331</v>
       </c>
       <c r="D366" t="n">
         <v>-0.1030515261728131</v>
@@ -7348,7 +7351,7 @@
         <v>0.3219280948873623</v>
       </c>
       <c r="C367" t="n">
-        <v>0.184453905833922</v>
+        <v>0.184453905833917</v>
       </c>
       <c r="D367" t="n">
         <v>0.1185784583210108</v>
@@ -7367,7 +7370,7 @@
         <v>0.4750848829487826</v>
       </c>
       <c r="C368" t="n">
-        <v>0.5349042781051178</v>
+        <v>0.5349042781051211</v>
       </c>
       <c r="D368" t="n">
         <v>0.4670946249435294</v>
@@ -7386,7 +7389,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C369" t="n">
-        <v>0.4879797240441056</v>
+        <v>0.4943817168064903</v>
       </c>
       <c r="D369" t="n">
         <v>0.3623289906286989</v>
@@ -7405,7 +7408,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C370" t="n">
-        <v>0.1550475419083616</v>
+        <v>0.1550475419083642</v>
       </c>
       <c r="D370" t="n">
         <v>-0.1100570762980099</v>
@@ -7424,7 +7427,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C371" t="n">
-        <v>0.708280588214676</v>
+        <v>0.708280588214675</v>
       </c>
       <c r="D371" t="n">
         <v>0.9834321377642642</v>
@@ -7443,7 +7446,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C372" t="n">
-        <v>0.202351541732552</v>
+        <v>0.2023515417325562</v>
       </c>
       <c r="D372" t="n">
         <v>0.5742681156664678</v>
@@ -7462,7 +7465,7 @@
         <v>0.2986583155645152</v>
       </c>
       <c r="C373" t="n">
-        <v>0.3702288994142952</v>
+        <v>0.370228899414292</v>
       </c>
       <c r="D373" t="n">
         <v>0.4558067795838401</v>
@@ -7513,7 +7516,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C376" t="n">
-        <v>0.03992898880169606</v>
+        <v>0.03992898880168982</v>
       </c>
       <c r="D376" t="n">
         <v>-2.207455703610711</v>
@@ -7532,7 +7535,7 @@
         <v>0.4956951626240688</v>
       </c>
       <c r="C377" t="n">
-        <v>0.525927281789629</v>
+        <v>0.5259272817896257</v>
       </c>
       <c r="D377" t="n">
         <v>0.2968724300735263</v>
@@ -7551,7 +7554,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C378" t="n">
-        <v>0.1939541419969761</v>
+        <v>0.1939541419969708</v>
       </c>
       <c r="D378" t="n">
         <v>-0.1438848509019293</v>
@@ -7589,7 +7592,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C380" t="n">
-        <v>0.2494743909276276</v>
+        <v>0.249474390927627</v>
       </c>
       <c r="D380" t="n">
         <v>0.3047551177995377</v>
@@ -7608,7 +7611,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C381" t="n">
-        <v>0.2238358382061168</v>
+        <v>0.223835838206111</v>
       </c>
       <c r="D381" t="n">
         <v>0.2966890243464781</v>
@@ -7627,7 +7630,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C382" t="n">
-        <v>0.06436446725601359</v>
+        <v>0.0643731715720447</v>
       </c>
       <c r="D382" t="n">
         <v>0.1476207613889034</v>
@@ -7646,7 +7649,7 @@
         <v>0.3561438102252754</v>
       </c>
       <c r="C383" t="n">
-        <v>0.4384124506101406</v>
+        <v>0.4384124506101419</v>
       </c>
       <c r="D383" t="n">
         <v>0.3177277143182258</v>
@@ -7665,7 +7668,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C384" t="n">
-        <v>0.06349674027388211</v>
+        <v>0.06624268869462831</v>
       </c>
       <c r="D384" t="n">
         <v>2.621940587882362</v>
@@ -7684,7 +7687,7 @@
         <v>0.411426245726465</v>
       </c>
       <c r="C385" t="n">
-        <v>0.4049726123504622</v>
+        <v>0.4049726123504613</v>
       </c>
       <c r="D385" t="n">
         <v>0.4468745740457554</v>
@@ -7703,7 +7706,7 @@
         <v>0.5459683691052925</v>
       </c>
       <c r="C386" t="n">
-        <v>0.4805000420598141</v>
+        <v>0.4805000420598116</v>
       </c>
       <c r="D386" t="n">
         <v>-0.09351979628986291</v>
@@ -7722,7 +7725,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C387" t="n">
-        <v>0.1553661772582798</v>
+        <v>0.1553661772582792</v>
       </c>
       <c r="D387" t="n">
         <v>0.1940731125103941</v>
@@ -7741,7 +7744,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C388" t="n">
-        <v>0.1388186805977736</v>
+        <v>0.1362765465508933</v>
       </c>
       <c r="D388" t="n">
         <v>0.1389867568779923</v>
@@ -7760,7 +7763,7 @@
         <v>0.3895668117627256</v>
       </c>
       <c r="C389" t="n">
-        <v>0.3163780052872586</v>
+        <v>0.3163780052872576</v>
       </c>
       <c r="D389" t="n">
         <v>-0.1200486956608705</v>
@@ -7779,7 +7782,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C390" t="n">
-        <v>0.1632862008987071</v>
+        <v>0.1632862008987045</v>
       </c>
       <c r="D390" t="n">
         <v>0.2393671012646182</v>
@@ -7798,7 +7801,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C391" t="n">
-        <v>0.1605044168038761</v>
+        <v>0.1605044168038824</v>
       </c>
       <c r="D391" t="n">
         <v>-0.01079740844517171</v>
@@ -7817,7 +7820,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C392" t="n">
-        <v>0.2484591233828285</v>
+        <v>0.2470868270357672</v>
       </c>
       <c r="D392" t="n">
         <v>0.2137788952727752</v>
@@ -7836,7 +7839,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C393" t="n">
-        <v>-0.4503457519143362</v>
+        <v>-0.4503457519143353</v>
       </c>
       <c r="D393" t="n">
         <v>-0.1155100185272536</v>
@@ -7874,7 +7877,7 @@
         <v>0.3895668117627256</v>
       </c>
       <c r="C395" t="n">
-        <v>0.6217591253925819</v>
+        <v>1.89216947394698</v>
       </c>
       <c r="D395" t="n">
         <v>-2.693410439537396</v>
@@ -7909,7 +7912,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C397" t="n">
-        <v>-0.2628877938769596</v>
+        <v>-0.2630873896959027</v>
       </c>
       <c r="D397" t="n">
         <v>0.1508727598711242</v>
@@ -7944,7 +7947,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C399" t="n">
-        <v>0.3438251491622186</v>
+        <v>0.3434238152585506</v>
       </c>
       <c r="D399" t="n">
         <v>0.2469107740139827</v>
@@ -7963,7 +7966,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C400" t="n">
-        <v>0.06428190739209472</v>
+        <v>0.06432940704901402</v>
       </c>
       <c r="D400" t="n">
         <v>0.3025978160265329</v>
@@ -8017,7 +8020,7 @@
         <v>-0.5777669993169522</v>
       </c>
       <c r="C403" t="n">
-        <v>-0.3005663343096149</v>
+        <v>-0.3005663343096145</v>
       </c>
       <c r="D403" t="n">
         <v>-0.1660445385693461</v>
@@ -8036,7 +8039,7 @@
         <v>-0.1520030934450499</v>
       </c>
       <c r="C404" t="n">
-        <v>-0.09950187609642752</v>
+        <v>-0.1119740987921345</v>
       </c>
       <c r="E404" t="n">
         <v>-0.1211142429703272</v>
@@ -8071,7 +8074,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C406" t="n">
-        <v>0.1510059671599507</v>
+        <v>0.1510059671599512</v>
       </c>
       <c r="D406" t="n">
         <v>0.1001585615648132</v>
@@ -8090,7 +8093,7 @@
         <v>0.4222330006830478</v>
       </c>
       <c r="C407" t="n">
-        <v>0.1383595532692483</v>
+        <v>0.1383595532692526</v>
       </c>
       <c r="D407" t="n">
         <v>0.2431994443108249</v>
@@ -8109,7 +8112,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C408" t="n">
-        <v>-0.03042121047076269</v>
+        <v>-0.5669301978781508</v>
       </c>
       <c r="D408" t="n">
         <v>0.1640126695285236</v>
@@ -8128,7 +8131,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C409" t="n">
-        <v>0.3054014800241869</v>
+        <v>0.3054014800241819</v>
       </c>
       <c r="D409" t="n">
         <v>0.4024415510767788</v>
@@ -8147,7 +8150,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C410" t="n">
-        <v>0.1561587229363612</v>
+        <v>0.1561587229363621</v>
       </c>
       <c r="D410" t="n">
         <v>0.1066675003232207</v>
@@ -8166,7 +8169,7 @@
         <v>0.5160151470036647</v>
       </c>
       <c r="C411" t="n">
-        <v>0.4365267451765056</v>
+        <v>0.4365267451765085</v>
       </c>
       <c r="D411" t="n">
         <v>-0.07699362727579206</v>
@@ -8185,7 +8188,7 @@
         <v>0.3785116232537298</v>
       </c>
       <c r="C412" t="n">
-        <v>0.2212904175756011</v>
+        <v>0.2212904175755992</v>
       </c>
       <c r="D412" t="n">
         <v>0.5345870902988797</v>
@@ -8220,7 +8223,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C414" t="n">
-        <v>0.1914214756103658</v>
+        <v>0.1914214756103655</v>
       </c>
       <c r="D414" t="n">
         <v>0.225781400807347</v>
@@ -8239,14 +8242,11 @@
         <v>0.4222330006830478</v>
       </c>
       <c r="C415" t="n">
-        <v>0.7022596128394628</v>
+        <v>0.7022596128394651</v>
       </c>
       <c r="D415" t="n">
         <v>0.2715458995115724</v>
       </c>
-      <c r="E415" t="n">
-        <v>-0.2620044041582557</v>
-      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -8258,7 +8258,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C416" t="n">
-        <v>0.01761067909907497</v>
+        <v>0.01510799101346618</v>
       </c>
       <c r="D416" t="n">
         <v>-0.230403599100289</v>
@@ -8277,7 +8277,7 @@
         <v>0.4854268271702417</v>
       </c>
       <c r="C417" t="n">
-        <v>0.4756936933951811</v>
+        <v>0.4756936933951805</v>
       </c>
       <c r="D417" t="n">
         <v>0.5189891493954092</v>
@@ -8296,7 +8296,7 @@
         <v>0.4541758931858021</v>
       </c>
       <c r="C418" t="n">
-        <v>0.1486455751027348</v>
+        <v>0.1486455751027328</v>
       </c>
       <c r="D418" t="n">
         <v>0.1575986226465871</v>
@@ -8315,7 +8315,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C419" t="n">
-        <v>0.1255538474381766</v>
+        <v>0.1255538474381737</v>
       </c>
       <c r="D419" t="n">
         <v>-0.04267296965801928</v>
@@ -8334,7 +8334,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C420" t="n">
-        <v>0.2000746908986226</v>
+        <v>0.2000746908986271</v>
       </c>
       <c r="D420" t="n">
         <v>-0.2775430945625682</v>
@@ -8369,7 +8369,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C422" t="n">
-        <v>-0.01349136416049983</v>
+        <v>-0.01349136416049935</v>
       </c>
       <c r="D422" t="n">
         <v>0.3435750024801786</v>
@@ -8388,7 +8388,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C423" t="n">
-        <v>0.2399280622983208</v>
+        <v>0.2399280622983188</v>
       </c>
       <c r="D423" t="n">
         <v>0.1351792531666487</v>
@@ -8407,7 +8407,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C424" t="n">
-        <v>-0.05842455108812604</v>
+        <v>-0.03426990208474626</v>
       </c>
       <c r="D424" t="n">
         <v>0.004038793444638799</v>
@@ -8426,7 +8426,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C425" t="n">
-        <v>-0.03361692008719896</v>
+        <v>-0.03361692008719912</v>
       </c>
       <c r="D425" t="n">
         <v>-0.7175872619259011</v>
@@ -8445,7 +8445,7 @@
         <v>0.3673710656485294</v>
       </c>
       <c r="C426" t="n">
-        <v>0.2613388060420564</v>
+        <v>0.2613388060420612</v>
       </c>
       <c r="D426" t="n">
         <v>-0.1363266396562171</v>
@@ -8464,7 +8464,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C427" t="n">
-        <v>0.3868971620456595</v>
+        <v>0.3868971620456563</v>
       </c>
       <c r="D427" t="n">
         <v>0.4935510142623702</v>
@@ -8499,7 +8499,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C429" t="n">
-        <v>0.3213675054272844</v>
+        <v>0.316729775650328</v>
       </c>
       <c r="D429" t="n">
         <v>0.2385395596221375</v>
@@ -8518,7 +8518,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C430" t="n">
-        <v>-0.08267156943197984</v>
+        <v>-0.08267156943198019</v>
       </c>
       <c r="D430" t="n">
         <v>-0.08064143076077458</v>
@@ -8537,7 +8537,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C431" t="n">
-        <v>0.2868035097331502</v>
+        <v>0.3184532097630312</v>
       </c>
       <c r="D431" t="n">
         <v>1.481382101652813</v>
@@ -8556,7 +8556,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C432" t="n">
-        <v>0.2038129306423017</v>
+        <v>0.2038129306423011</v>
       </c>
       <c r="D432" t="n">
         <v>-0.06519225687774836</v>
@@ -8575,7 +8575,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C433" t="n">
-        <v>0.2495351707274206</v>
+        <v>0.2495351707274198</v>
       </c>
       <c r="D433" t="n">
         <v>0.2127251155743459</v>
@@ -8594,7 +8594,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C434" t="n">
-        <v>0.2094883075358584</v>
+        <v>0.2094883075358525</v>
       </c>
       <c r="D434" t="n">
         <v>-0.2016005839075216</v>
@@ -8613,7 +8613,7 @@
         <v>0.3219280948873623</v>
       </c>
       <c r="C435" t="n">
-        <v>0.2306052022668994</v>
+        <v>0.2306052022668936</v>
       </c>
       <c r="D435" t="n">
         <v>0.139125882205079</v>
@@ -8632,7 +8632,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C436" t="n">
-        <v>0.1542771221784067</v>
+        <v>0.1542771221784004</v>
       </c>
       <c r="D436" t="n">
         <v>0.3621295269843339</v>
@@ -8651,7 +8651,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C437" t="n">
-        <v>0.08398598003831513</v>
+        <v>0.08398598003831634</v>
       </c>
       <c r="D437" t="n">
         <v>0.6511903967435589</v>
@@ -8670,7 +8670,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C438" t="n">
-        <v>0.3115680369378561</v>
+        <v>-1.243664901648797</v>
       </c>
       <c r="D438" t="n">
         <v>5.37825886292423</v>
@@ -8689,7 +8689,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C439" t="n">
-        <v>0.2195630518457733</v>
+        <v>0.2009946629065015</v>
       </c>
       <c r="D439" t="n">
         <v>0.3846571107040753</v>
@@ -8708,7 +8708,7 @@
         <v>-0.2009126939259964</v>
       </c>
       <c r="C440" t="n">
-        <v>0.0144888960147852</v>
+        <v>0.01448889601478869</v>
       </c>
       <c r="D440" t="n">
         <v>0.1606384472707293</v>
@@ -8727,7 +8727,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C441" t="n">
-        <v>0.03358895142823021</v>
+        <v>0.0335889514282274</v>
       </c>
       <c r="D441" t="n">
         <v>-0.06859183205948029</v>
@@ -8746,14 +8746,11 @@
         <v>0.5058909297299573</v>
       </c>
       <c r="C442" t="n">
-        <v>0.6567582167476779</v>
+        <v>0.7480746410660145</v>
       </c>
       <c r="D442" t="n">
         <v>0.3268862931657339</v>
       </c>
-      <c r="E442" t="n">
-        <v>-0.1671030683518593</v>
-      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -8781,7 +8778,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C444" t="n">
-        <v>0.2952321674171546</v>
+        <v>0.2952321674171552</v>
       </c>
       <c r="D444" t="n">
         <v>-0.1204490309170398</v>
@@ -8800,7 +8797,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C445" t="n">
-        <v>0.3843604160767147</v>
+        <v>0.1834884653140272</v>
       </c>
       <c r="D445" t="n">
         <v>0.2565517189006601</v>
@@ -8819,7 +8816,7 @@
         <v>0.6415460290875237</v>
       </c>
       <c r="C446" t="n">
-        <v>0.0392990317297599</v>
+        <v>0.2546712933607523</v>
       </c>
       <c r="D446" t="n">
         <v>0.4358823596492779</v>
@@ -8838,7 +8835,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C447" t="n">
-        <v>0.100163557284369</v>
+        <v>0.09491756768414701</v>
       </c>
       <c r="D447" t="n">
         <v>0.2012115238740212</v>
@@ -8857,7 +8854,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C448" t="n">
-        <v>0.1116900909323222</v>
+        <v>0.111690090932321</v>
       </c>
       <c r="D448" t="n">
         <v>0.1160886791824026</v>
@@ -8876,7 +8873,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C449" t="n">
-        <v>0.5056016785892856</v>
+        <v>0.5104591357057028</v>
       </c>
       <c r="D449" t="n">
         <v>1.162724860054717</v>
@@ -8895,7 +8892,7 @@
         <v>-0.2009126939259964</v>
       </c>
       <c r="C450" t="n">
-        <v>0.09286469316353681</v>
+        <v>0.09286469316354042</v>
       </c>
       <c r="D450" t="n">
         <v>0.8902682918472601</v>
@@ -8914,7 +8911,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C451" t="n">
-        <v>0.05846346664280759</v>
+        <v>0.0584634666428039</v>
       </c>
       <c r="D451" t="n">
         <v>-0.005368633531580637</v>
@@ -8933,7 +8930,7 @@
         <v>-0.1844245711374274</v>
       </c>
       <c r="C452" t="n">
-        <v>-0.06617727158963543</v>
+        <v>-0.06617727158963578</v>
       </c>
       <c r="D452" t="n">
         <v>-0.4771983746985873</v>
@@ -8952,7 +8949,7 @@
         <v>0.4956951626240688</v>
       </c>
       <c r="C453" t="n">
-        <v>0.2489497438277776</v>
+        <v>0.248949743827773</v>
       </c>
       <c r="D453" t="n">
         <v>2.1169896800971</v>
@@ -8971,7 +8968,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C454" t="n">
-        <v>0.4179897094761451</v>
+        <v>0.0942580201034878</v>
       </c>
       <c r="D454" t="n">
         <v>0.1214923682903169</v>
@@ -9006,7 +9003,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C456" t="n">
-        <v>0.3365794712897137</v>
+        <v>0.3365794712897125</v>
       </c>
       <c r="D456" t="n">
         <v>-0.1303999909735161</v>
@@ -9025,7 +9022,7 @@
         <v>-0.1520030934450499</v>
       </c>
       <c r="C457" t="n">
-        <v>-0.09486993155575141</v>
+        <v>-0.09486993155575175</v>
       </c>
       <c r="D457" t="n">
         <v>2.008188597511192</v>
@@ -9044,7 +9041,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C458" t="n">
-        <v>0.1901814264009901</v>
+        <v>0.1901814264009865</v>
       </c>
       <c r="D458" t="n">
         <v>0.5017766076263248</v>
@@ -9063,7 +9060,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C459" t="n">
-        <v>-0.06287047753951522</v>
+        <v>0.4222512435175573</v>
       </c>
       <c r="D459" t="n">
         <v>0.8416840127751447</v>
@@ -9082,7 +9079,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C460" t="n">
-        <v>0.3229978214003775</v>
+        <v>0.3229978214003829</v>
       </c>
       <c r="D460" t="n">
         <v>0.6985164143448662</v>
@@ -9101,7 +9098,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C461" t="n">
-        <v>-0.07151679379012026</v>
+        <v>-0.06846453851572398</v>
       </c>
       <c r="D461" t="n">
         <v>2.608103467142708</v>
@@ -9120,7 +9117,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C462" t="n">
-        <v>0.02062750173772529</v>
+        <v>0.02062750173772592</v>
       </c>
       <c r="D462" t="n">
         <v>0.1141294489989954</v>
@@ -9139,7 +9136,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C463" t="n">
-        <v>0.114483856880604</v>
+        <v>0.1100293088234334</v>
       </c>
       <c r="D463" t="n">
         <v>0.4796723880839126</v>
@@ -9158,7 +9155,7 @@
         <v>0.3895668117627256</v>
       </c>
       <c r="C464" t="n">
-        <v>0.263480439240002</v>
+        <v>0.2634804392399964</v>
       </c>
       <c r="D464" t="n">
         <v>0.6862024824014459</v>
@@ -9177,7 +9174,7 @@
         <v>0.4222330006830478</v>
       </c>
       <c r="C465" t="n">
-        <v>0.3970785587914447</v>
+        <v>0.3970785587914466</v>
       </c>
       <c r="D465" t="n">
         <v>0.3254895095502291</v>
@@ -9215,7 +9212,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C467" t="n">
-        <v>0.1983424535205047</v>
+        <v>0.1933947246419757</v>
       </c>
       <c r="D467" t="n">
         <v>0.1746172087263595</v>
@@ -9233,12 +9230,12 @@
       <c r="B468" t="n">
         <v>0.1110313123887439</v>
       </c>
+      <c r="C468" t="n">
+        <v>0.3230718982302666</v>
+      </c>
       <c r="D468" t="n">
         <v>0.4279902833364834</v>
       </c>
-      <c r="E468" t="n">
-        <v>0.509607278153821</v>
-      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -9250,7 +9247,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C469" t="n">
-        <v>0.2087095760760534</v>
+        <v>0.3111861500652965</v>
       </c>
       <c r="D469" t="n">
         <v>0.9488755074354595</v>
@@ -9269,7 +9266,7 @@
         <v>0.3785116232537298</v>
       </c>
       <c r="C470" t="n">
-        <v>0.1951278464442349</v>
+        <v>0.1951278464442293</v>
       </c>
       <c r="D470" t="n">
         <v>0.4465132145161714</v>
@@ -9288,7 +9285,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C471" t="n">
-        <v>0.2176247532800599</v>
+        <v>0.2176247532800615</v>
       </c>
       <c r="D471" t="n">
         <v>0.4607239550709523</v>
@@ -9307,7 +9304,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C472" t="n">
-        <v>0.1789498120913486</v>
+        <v>0.1789498120913429</v>
       </c>
       <c r="D472" t="n">
         <v>0.2914151624099539</v>
@@ -9326,7 +9323,7 @@
         <v>-0.234465253637023</v>
       </c>
       <c r="C473" t="n">
-        <v>-0.2000101656230818</v>
+        <v>-0.2000101656230827</v>
       </c>
       <c r="D473" t="n">
         <v>-0.5385316091349849</v>
@@ -9345,7 +9342,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C474" t="n">
-        <v>0.09376582134717015</v>
+        <v>0.09376582134716925</v>
       </c>
       <c r="D474" t="n">
         <v>0.0144898652700304</v>
@@ -9364,7 +9361,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C475" t="n">
-        <v>-0.3429418438851066</v>
+        <v>-0.342941843885106</v>
       </c>
       <c r="D475" t="n">
         <v>0.4619344326947112</v>
@@ -9402,7 +9399,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C477" t="n">
-        <v>-0.03007350857740671</v>
+        <v>-0.03155425903162039</v>
       </c>
       <c r="D477" t="n">
         <v>2.619113381991384</v>
@@ -9421,7 +9418,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C478" t="n">
-        <v>0.05835832400676457</v>
+        <v>0.05835832400676857</v>
       </c>
       <c r="D478" t="n">
         <v>0.2559445126450286</v>
@@ -9440,7 +9437,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C479" t="n">
-        <v>0.1072357956915448</v>
+        <v>0.1072357956915463</v>
       </c>
       <c r="D479" t="n">
         <v>-0.005426230391407431</v>
@@ -9459,7 +9456,7 @@
         <v>-0.2009126939259964</v>
       </c>
       <c r="C480" t="n">
-        <v>-0.1377985419696046</v>
+        <v>-0.1560933751695634</v>
       </c>
       <c r="D480" t="n">
         <v>-1.072624515863497</v>
@@ -9478,7 +9475,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C481" t="n">
-        <v>0.09981910426643203</v>
+        <v>-0.008217038583784479</v>
       </c>
       <c r="D481" t="n">
         <v>-0.6861749515878135</v>
@@ -9497,7 +9494,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C482" t="n">
-        <v>-0.1312526029676796</v>
+        <v>-0.1312526029676793</v>
       </c>
       <c r="D482" t="n">
         <v>0.2393804011839398</v>
@@ -9516,7 +9513,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C483" t="n">
-        <v>0.1034385822475139</v>
+        <v>0.1034385822475198</v>
       </c>
       <c r="D483" t="n">
         <v>0.02626528552567504</v>
@@ -9554,7 +9551,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C485" t="n">
-        <v>0.2555809005910674</v>
+        <v>0.2728516436097954</v>
       </c>
       <c r="D485" t="n">
         <v>0.2393594279891968</v>
@@ -9573,7 +9570,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C486" t="n">
-        <v>0.3496476469335091</v>
+        <v>0.3496476469335114</v>
       </c>
       <c r="D486" t="n">
         <v>0.352980237902835</v>
@@ -9592,7 +9589,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C487" t="n">
-        <v>0.1205537446728801</v>
+        <v>0.1205537446728778</v>
       </c>
       <c r="D487" t="n">
         <v>-0.002608343841480666</v>
@@ -9611,7 +9608,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C488" t="n">
-        <v>0.3016518469669049</v>
+        <v>0.3004026123001051</v>
       </c>
       <c r="D488" t="n">
         <v>0.4476044288059557</v>
@@ -9630,7 +9627,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C489" t="n">
-        <v>0.05070641724447961</v>
+        <v>0.05070641724448517</v>
       </c>
       <c r="D489" t="n">
         <v>-0.6835907730712283</v>
@@ -9649,7 +9646,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C490" t="n">
-        <v>0.03430865776567636</v>
+        <v>0.03430865776568011</v>
       </c>
       <c r="D490" t="n">
         <v>0.1100667735141141</v>
@@ -9668,7 +9665,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C491" t="n">
-        <v>0.13900706262406</v>
+        <v>0.1390070626240588</v>
       </c>
       <c r="D491" t="n">
         <v>0.3446369854769397</v>
@@ -9687,7 +9684,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C492" t="n">
-        <v>0.03465907197866024</v>
+        <v>-0.4218219184612477</v>
       </c>
       <c r="D492" t="n">
         <v>-0.6686357642990609</v>
@@ -9706,7 +9703,7 @@
         <v>-0.2688167584278</v>
       </c>
       <c r="C493" t="n">
-        <v>-0.1897116816026416</v>
+        <v>-0.1897116816026418</v>
       </c>
       <c r="D493" t="n">
         <v>0.1469124525374958</v>
@@ -9725,7 +9722,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C494" t="n">
-        <v>0.1703958127870447</v>
+        <v>0.1694236462806614</v>
       </c>
       <c r="D494" t="n">
         <v>0.04709066040423576</v>
@@ -9744,7 +9741,7 @@
         <v>-0.1681227588083269</v>
       </c>
       <c r="C495" t="n">
-        <v>-0.0714046265952278</v>
+        <v>-0.0702216856003102</v>
       </c>
       <c r="D495" t="n">
         <v>-0.1401918602610738</v>
@@ -9763,7 +9760,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C496" t="n">
-        <v>0.2399170084773978</v>
+        <v>0.2399170084773953</v>
       </c>
       <c r="D496" t="n">
         <v>0.1770372615757033</v>
@@ -9782,7 +9779,7 @@
         <v>0.3219280948873623</v>
       </c>
       <c r="C497" t="n">
-        <v>0.2246835432376224</v>
+        <v>0.2246835432376229</v>
       </c>
       <c r="D497" t="n">
         <v>0.3411620703112623</v>
@@ -9801,7 +9798,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C498" t="n">
-        <v>0.2565515458898421</v>
+        <v>0.2565515458898467</v>
       </c>
       <c r="D498" t="n">
         <v>0.6171441353510314</v>
@@ -9820,7 +9817,7 @@
         <v>-0.2175914350726268</v>
       </c>
       <c r="C499" t="n">
-        <v>0.2064769530182995</v>
+        <v>-0.7887024365523024</v>
       </c>
       <c r="D499" t="n">
         <v>-0.04154917797717427</v>
@@ -9839,7 +9836,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C500" t="n">
-        <v>-0.1207927160850143</v>
+        <v>-0.122295210535427</v>
       </c>
       <c r="D500" t="n">
         <v>-0.3217299195977074</v>
@@ -9858,7 +9855,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C501" t="n">
-        <v>-0.06434689240992628</v>
+        <v>-0.06434689240992594</v>
       </c>
       <c r="D501" t="n">
         <v>-0.0665066883763714</v>
@@ -9877,7 +9874,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C502" t="n">
-        <v>-0.1421894618144269</v>
+        <v>-0.1421894618144263</v>
       </c>
       <c r="D502" t="n">
         <v>-0.2202502196249615</v>
@@ -9896,7 +9893,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C503" t="n">
-        <v>-0.2977148651218012</v>
+        <v>-0.301625184984505</v>
       </c>
       <c r="D503" t="n">
         <v>0.1216360001232652</v>
@@ -9915,7 +9912,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C504" t="n">
-        <v>0.2764526282698238</v>
+        <v>0.2562001443658312</v>
       </c>
       <c r="D504" t="n">
         <v>0.09937200065636843</v>
@@ -9934,7 +9931,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C505" t="n">
-        <v>0.3674641133004607</v>
+        <v>0.3674641133004621</v>
       </c>
       <c r="D505" t="n">
         <v>0.6237509345100752</v>
@@ -9953,7 +9950,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C506" t="n">
-        <v>0.2511052571091702</v>
+        <v>0.2511052571091645</v>
       </c>
       <c r="D506" t="n">
         <v>0.002003451009939225</v>
@@ -9972,7 +9969,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C507" t="n">
-        <v>0.3964094035145396</v>
+        <v>0.3964094035145386</v>
       </c>
       <c r="D507" t="n">
         <v>0.3190831540231682</v>
@@ -9991,7 +9988,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C508" t="n">
-        <v>0.1375156912554142</v>
+        <v>0.137515691255413</v>
       </c>
       <c r="D508" t="n">
         <v>0.1073110391907377</v>
@@ -10010,7 +10007,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C509" t="n">
-        <v>0.167789387740116</v>
+        <v>0.1677893877401118</v>
       </c>
       <c r="D509" t="n">
         <v>0.1816611647405318</v>
@@ -10029,7 +10026,7 @@
         <v>0.4005379295837288</v>
       </c>
       <c r="C510" t="n">
-        <v>0.333045097484214</v>
+        <v>0.3330450974842087</v>
       </c>
       <c r="D510" t="n">
         <v>0.3049648049261945</v>
@@ -10048,7 +10045,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C511" t="n">
-        <v>0.1389357507780539</v>
+        <v>0.1394671627949552</v>
       </c>
       <c r="D511" t="n">
         <v>2.776762430129974</v>
@@ -10083,7 +10080,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C513" t="n">
-        <v>0.1305412480028557</v>
+        <v>0.1305412480028583</v>
       </c>
       <c r="D513" t="n">
         <v>0.1872365126741834</v>
@@ -10102,7 +10099,7 @@
         <v>0.2986583155645152</v>
       </c>
       <c r="C514" t="n">
-        <v>0.3110189691010556</v>
+        <v>0.3110189691010518</v>
       </c>
       <c r="D514" t="n">
         <v>0.23682723880642</v>
@@ -10121,7 +10118,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C515" t="n">
-        <v>0.2982310153845893</v>
+        <v>0.2982310153845836</v>
       </c>
       <c r="D515" t="n">
         <v>0.2412328175310109</v>
@@ -10140,7 +10137,7 @@
         <v>0.4222330006830478</v>
       </c>
       <c r="C516" t="n">
-        <v>0.3493659384716166</v>
+        <v>-0.5301657726670089</v>
       </c>
       <c r="D516" t="n">
         <v>2.102207116855465</v>
@@ -10175,7 +10172,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C518" t="n">
-        <v>0.002747866765027745</v>
+        <v>0.003796051383570111</v>
       </c>
       <c r="D518" t="n">
         <v>-2.04526233245191</v>
@@ -10194,7 +10191,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C519" t="n">
-        <v>0.3977165593228684</v>
+        <v>-0.5361582448160841</v>
       </c>
       <c r="D519" t="n">
         <v>2.534948539933034</v>
@@ -10213,7 +10210,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C520" t="n">
-        <v>-0.06527564937529691</v>
+        <v>-0.06527564937529742</v>
       </c>
       <c r="D520" t="n">
         <v>-0.2681810160702457</v>
@@ -10232,7 +10229,7 @@
         <v>0.4646682670034443</v>
       </c>
       <c r="C521" t="n">
-        <v>0.3183564342527956</v>
+        <v>0.3183564342527984</v>
       </c>
       <c r="D521" t="n">
         <v>0.2244035833581123</v>
@@ -10251,7 +10248,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C522" t="n">
-        <v>0.06543009064942336</v>
+        <v>0.06543009064942305</v>
       </c>
       <c r="D522" t="n">
         <v>0.08207046812542011</v>
@@ -10270,7 +10267,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C523" t="n">
-        <v>0.02969277190883588</v>
+        <v>0.02950373024429653</v>
       </c>
       <c r="D523" t="n">
         <v>0.001686927748251494</v>
@@ -10289,7 +10286,7 @@
         <v>0.3785116232537298</v>
       </c>
       <c r="C524" t="n">
-        <v>0.3203019590641344</v>
+        <v>0.3203019590641334</v>
       </c>
       <c r="D524" t="n">
         <v>0.3358019063027612</v>
@@ -10308,7 +10305,7 @@
         <v>0.4005379295837288</v>
       </c>
       <c r="C525" t="n">
-        <v>0.4613798714987813</v>
+        <v>0.461379871498786</v>
       </c>
       <c r="D525" t="n">
         <v>-0.1080818271391279</v>
@@ -10343,7 +10340,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C527" t="n">
-        <v>0.08401161264559165</v>
+        <v>0.08401161264558621</v>
       </c>
       <c r="D527" t="n">
         <v>0.002281001224570806</v>
@@ -10381,7 +10378,7 @@
         <v>0.3561438102252754</v>
       </c>
       <c r="C529" t="n">
-        <v>-0.221822783554981</v>
+        <v>0.6024991417083465</v>
       </c>
       <c r="D529" t="n">
         <v>0.1469913384241226</v>
@@ -10400,7 +10397,7 @@
         <v>0.3673710656485294</v>
       </c>
       <c r="C530" t="n">
-        <v>0.2807428616401096</v>
+        <v>0.2807428616401059</v>
       </c>
       <c r="D530" t="n">
         <v>0.1493935040887253</v>
@@ -10419,7 +10416,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C531" t="n">
-        <v>0.2619458279686622</v>
+        <v>0.2645684024841365</v>
       </c>
       <c r="D531" t="n">
         <v>0.3246968979804667</v>
@@ -10438,7 +10435,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C532" t="n">
-        <v>-0.1391136855900071</v>
+        <v>0.2743070453663662</v>
       </c>
       <c r="D532" t="n">
         <v>-2.849223792488253</v>
@@ -10457,7 +10454,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C533" t="n">
-        <v>-0.3368821746003419</v>
+        <v>-0.1685508228375798</v>
       </c>
       <c r="D533" t="n">
         <v>-0.4540857425644675</v>
@@ -10476,7 +10473,7 @@
         <v>0.3785116232537298</v>
       </c>
       <c r="C534" t="n">
-        <v>0.3448827237269224</v>
+        <v>0.3448827237269226</v>
       </c>
       <c r="D534" t="n">
         <v>0.3528226042284279</v>
@@ -10495,7 +10492,7 @@
         <v>0.5655971758542251</v>
       </c>
       <c r="C535" t="n">
-        <v>0.4849638113919539</v>
+        <v>0.4849638113919553</v>
       </c>
       <c r="D535" t="n">
         <v>0.5661675397043846</v>
@@ -10514,7 +10511,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C536" t="n">
-        <v>0.108301284832347</v>
+        <v>0.1083012848323435</v>
       </c>
       <c r="D536" t="n">
         <v>-0.2010980316681142</v>
@@ -10533,7 +10530,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C537" t="n">
-        <v>0.2448707391361937</v>
+        <v>0.2526271827706327</v>
       </c>
       <c r="D537" t="n">
         <v>0.2331890601053508</v>
@@ -10552,7 +10549,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C538" t="n">
-        <v>0.006854419608555079</v>
+        <v>0.006854419608549021</v>
       </c>
       <c r="D538" t="n">
         <v>0.01973046954123041</v>
@@ -10571,7 +10568,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C539" t="n">
-        <v>0.172437003046236</v>
+        <v>0.1724370030462413</v>
       </c>
       <c r="D539" t="n">
         <v>-0.1687411622471919</v>
@@ -10590,7 +10587,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C540" t="n">
-        <v>0.1587499258856349</v>
+        <v>0.1584419350555095</v>
       </c>
       <c r="D540" t="n">
         <v>0.1458782081777909</v>
@@ -10609,7 +10606,7 @@
         <v>0.4854268271702417</v>
       </c>
       <c r="C541" t="n">
-        <v>0.4158205695331113</v>
+        <v>0.4158205695331139</v>
       </c>
       <c r="D541" t="n">
         <v>0.4407515825475427</v>
@@ -10647,7 +10644,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C543" t="n">
-        <v>0.1009467948673677</v>
+        <v>-1.224647789733148</v>
       </c>
       <c r="D543" t="n">
         <v>2.939482846602663</v>
@@ -10666,7 +10663,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C544" t="n">
-        <v>0.007269956147586378</v>
+        <v>0.009395246465584886</v>
       </c>
       <c r="D544" t="n">
         <v>1.83100627127066</v>
@@ -10685,7 +10682,7 @@
         <v>0.4956951626240688</v>
       </c>
       <c r="C545" t="n">
-        <v>0.4118698724911235</v>
+        <v>0.4118698724911259</v>
       </c>
       <c r="D545" t="n">
         <v>-0.04503025567384226</v>
@@ -10704,7 +10701,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C546" t="n">
-        <v>0.1498017901687027</v>
+        <v>0.1498017901686969</v>
       </c>
       <c r="D546" t="n">
         <v>0.1249744053929784</v>
@@ -10723,7 +10720,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C547" t="n">
-        <v>-0.06229959295182055</v>
+        <v>-0.05656052656335991</v>
       </c>
       <c r="D547" t="n">
         <v>2.437768781517135</v>
@@ -10742,7 +10739,7 @@
         <v>0.2868811477881615</v>
       </c>
       <c r="C548" t="n">
-        <v>0.2965385717805755</v>
+        <v>0.2965385717805732</v>
       </c>
       <c r="D548" t="n">
         <v>0.4127157302766413</v>
@@ -10761,7 +10758,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C549" t="n">
-        <v>0.2190793965665128</v>
+        <v>0.2218854788123621</v>
       </c>
       <c r="D549" t="n">
         <v>0.1671643065650858</v>
@@ -10793,7 +10790,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C551" t="n">
-        <v>-0.01432140134025084</v>
+        <v>-0.01432140134025148</v>
       </c>
       <c r="D551" t="n">
         <v>0.284045292685929</v>
@@ -10812,7 +10809,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C552" t="n">
-        <v>-0.2651458849243621</v>
+        <v>-0.2651458849243623</v>
       </c>
       <c r="D552" t="n">
         <v>-0.4583028224495181</v>
@@ -10831,7 +10828,7 @@
         <v>0.4222330006830478</v>
       </c>
       <c r="C553" t="n">
-        <v>0.6713562279992333</v>
+        <v>0.6713562279992352</v>
       </c>
       <c r="D553" t="n">
         <v>0.322151236450947</v>
@@ -10850,7 +10847,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C554" t="n">
-        <v>-0.04066407631400332</v>
+        <v>-0.04044314292293054</v>
       </c>
       <c r="D554" t="n">
         <v>-0.0613706882617059</v>
@@ -10869,7 +10866,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C555" t="n">
-        <v>0.2256100307903699</v>
+        <v>0.2256100307903701</v>
       </c>
       <c r="D555" t="n">
         <v>0.8793312655970266</v>
@@ -10888,7 +10885,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C556" t="n">
-        <v>0.1470505065874453</v>
+        <v>0.1470505065874395</v>
       </c>
       <c r="D556" t="n">
         <v>0.1507605144789888</v>
@@ -10907,7 +10904,7 @@
         <v>-0.2515387669959644</v>
       </c>
       <c r="C557" t="n">
-        <v>0.01110898565861678</v>
+        <v>0.01110898565861582</v>
       </c>
       <c r="D557" t="n">
         <v>-0.1063445418497761</v>
@@ -10961,7 +10958,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C560" t="n">
-        <v>0.01933502344062882</v>
+        <v>0.01933502344062218</v>
       </c>
       <c r="D560" t="n">
         <v>0.0291026376108138</v>
@@ -10980,7 +10977,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C561" t="n">
-        <v>0.1587735387559815</v>
+        <v>0.1587735387559873</v>
       </c>
       <c r="D561" t="n">
         <v>0.05838585143585323</v>
@@ -10999,7 +10996,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C562" t="n">
-        <v>0.2438954858486363</v>
+        <v>0.2438954858486393</v>
       </c>
       <c r="D562" t="n">
         <v>0.2876181739004684</v>
@@ -11018,7 +11015,7 @@
         <v>0.2986583155645152</v>
       </c>
       <c r="C563" t="n">
-        <v>0.2324481196193227</v>
+        <v>0.2324481196193238</v>
       </c>
       <c r="D563" t="n">
         <v>0.3284222290163735</v>
@@ -11075,7 +11072,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C566" t="n">
-        <v>-0.2332299608249697</v>
+        <v>0.4568939755156533</v>
       </c>
       <c r="D566" t="n">
         <v>-2.69641151367619</v>
@@ -11094,7 +11091,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C567" t="n">
-        <v>0.302416298351921</v>
+        <v>0.3024162983519169</v>
       </c>
       <c r="D567" t="n">
         <v>0.2589682090844223</v>
@@ -11113,7 +11110,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C568" t="n">
-        <v>0.04874543507683164</v>
+        <v>0.04874543507683814</v>
       </c>
       <c r="D568" t="n">
         <v>0.185148885619119</v>
@@ -11132,7 +11129,7 @@
         <v>0.4222330006830478</v>
       </c>
       <c r="C569" t="n">
-        <v>0.3889505716803616</v>
+        <v>0.3889505716803623</v>
       </c>
       <c r="D569" t="n">
         <v>0.1797174105799565</v>
@@ -11151,7 +11148,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C570" t="n">
-        <v>0.1521048098790393</v>
+        <v>0.1536314175918236</v>
       </c>
       <c r="D570" t="n">
         <v>0.1558256974388852</v>
@@ -11170,7 +11167,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C571" t="n">
-        <v>-0.0001302835636310632</v>
+        <v>-0.000130283563631704</v>
       </c>
       <c r="D571" t="n">
         <v>-0.2347136133226091</v>
@@ -11202,7 +11199,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C573" t="n">
-        <v>0.2940270201671636</v>
+        <v>0.2940270201671689</v>
       </c>
       <c r="D573" t="n">
         <v>0.3079121881464028</v>
@@ -11221,7 +11218,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C574" t="n">
-        <v>0.2174084584739529</v>
+        <v>0.2174084584739573</v>
       </c>
       <c r="D574" t="n">
         <v>0.001474407311426331</v>
@@ -11240,7 +11237,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C575" t="n">
-        <v>0.1169288357659033</v>
+        <v>0.1226266288850103</v>
       </c>
       <c r="D575" t="n">
         <v>2.829885999580809</v>
@@ -11259,7 +11256,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C576" t="n">
-        <v>0.1993628275831646</v>
+        <v>0.2013178884352979</v>
       </c>
       <c r="D576" t="n">
         <v>-2.232196070765968</v>
@@ -11294,7 +11291,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C578" t="n">
-        <v>0.1408905750951548</v>
+        <v>0.1408905750951575</v>
       </c>
       <c r="D578" t="n">
         <v>0.4518770853150897</v>
@@ -11313,7 +11310,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C579" t="n">
-        <v>0.05598160192645836</v>
+        <v>0.2248566201071871</v>
       </c>
       <c r="D579" t="n">
         <v>0.724526811636839</v>
@@ -11332,7 +11329,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C580" t="n">
-        <v>0.1759073555770088</v>
+        <v>0.1767744963177577</v>
       </c>
       <c r="D580" t="n">
         <v>0.2762169143789413</v>
@@ -11351,7 +11348,7 @@
         <v>0.7136958148433589</v>
       </c>
       <c r="C581" t="n">
-        <v>1.157602971870946</v>
+        <v>0.7841631662408628</v>
       </c>
       <c r="D581" t="n">
         <v>0.7055801291648502</v>
@@ -11370,7 +11367,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C582" t="n">
-        <v>0.104519987223444</v>
+        <v>0.1058345158254535</v>
       </c>
       <c r="D582" t="n">
         <v>0.02145654605746146</v>
@@ -11389,7 +11386,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C583" t="n">
-        <v>0.05005927639437206</v>
+        <v>0.05077087502816428</v>
       </c>
       <c r="D583" t="n">
         <v>-0.3458188279319128</v>
@@ -11408,7 +11405,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C584" t="n">
-        <v>0.04719548188475504</v>
+        <v>0.0471954818847566</v>
       </c>
       <c r="D584" t="n">
         <v>0.1089193124054506</v>
@@ -11427,7 +11424,7 @@
         <v>0.4541758931858021</v>
       </c>
       <c r="C585" t="n">
-        <v>0.4993627833169684</v>
+        <v>0.4993627833169711</v>
       </c>
       <c r="D585" t="n">
         <v>0.4903393469367669</v>
@@ -11446,7 +11443,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C586" t="n">
-        <v>0.06775227417096795</v>
+        <v>0.067752274170971</v>
       </c>
       <c r="D586" t="n">
         <v>0.1436448741274264</v>
@@ -11465,7 +11462,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C587" t="n">
-        <v>-0.774515575682874</v>
+        <v>-0.7786233965086218</v>
       </c>
       <c r="D587" t="n">
         <v>0.05852885478617848</v>
@@ -11484,7 +11481,7 @@
         <v>0.5160151470036647</v>
       </c>
       <c r="C588" t="n">
-        <v>0.4907311441355673</v>
+        <v>0.4907311441355678</v>
       </c>
       <c r="D588" t="n">
         <v>0.6345113912741893</v>
@@ -11503,7 +11500,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C589" t="n">
-        <v>-0.01436226421904403</v>
+        <v>-0.01436226421904338</v>
       </c>
       <c r="D589" t="n">
         <v>0.2751866625612814</v>
@@ -11522,7 +11519,7 @@
         <v>0.4541758931858021</v>
       </c>
       <c r="C590" t="n">
-        <v>0.1435128183390395</v>
+        <v>0.7852306515225125</v>
       </c>
       <c r="D590" t="n">
         <v>-0.3250406108568334</v>
@@ -11541,7 +11538,7 @@
         <v>0.3219280948873623</v>
       </c>
       <c r="C591" t="n">
-        <v>-0.1020296575553642</v>
+        <v>-0.09006651761771868</v>
       </c>
       <c r="D591" t="n">
         <v>0.273003551469895</v>
@@ -11560,7 +11557,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C592" t="n">
-        <v>0.6717052677511172</v>
+        <v>0.3454482610877169</v>
       </c>
       <c r="D592" t="n">
         <v>0.7684920252109685</v>
@@ -11579,7 +11576,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C593" t="n">
-        <v>0.4472373016420851</v>
+        <v>0.04287637104153547</v>
       </c>
       <c r="D593" t="n">
         <v>-0.004159497745350942</v>
@@ -11598,7 +11595,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C594" t="n">
-        <v>0.3495204875295672</v>
+        <v>0.3495204875295702</v>
       </c>
       <c r="D594" t="n">
         <v>0.5593768634901261</v>
@@ -11617,7 +11614,7 @@
         <v>0.2868811477881615</v>
       </c>
       <c r="C595" t="n">
-        <v>0.2789182459404356</v>
+        <v>0.2789182459404393</v>
       </c>
       <c r="D595" t="n">
         <v>0.3168872443939089</v>
@@ -11636,7 +11633,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C596" t="n">
-        <v>0.1897262324161259</v>
+        <v>0.1897262324161233</v>
       </c>
       <c r="D596" t="n">
         <v>0.1261408542116071</v>
@@ -11655,7 +11652,7 @@
         <v>0.4436066514756148</v>
       </c>
       <c r="C597" t="n">
-        <v>-0.4889292572526289</v>
+        <v>-0.4889292572526286</v>
       </c>
       <c r="D597" t="n">
         <v>0.480091772577493</v>
@@ -11674,7 +11671,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C598" t="n">
-        <v>-0.0112546736161013</v>
+        <v>-0.0125324822863548</v>
       </c>
       <c r="D598" t="n">
         <v>-0.01839562199384644</v>
@@ -11709,7 +11706,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C600" t="n">
-        <v>0.1586504251485039</v>
+        <v>0.1586504251485024</v>
       </c>
       <c r="D600" t="n">
         <v>0.075436515422314</v>
@@ -11728,7 +11725,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C601" t="n">
-        <v>0.01621434109123301</v>
+        <v>0.01621434109123523</v>
       </c>
       <c r="D601" t="n">
         <v>-0.001141630467892068</v>
@@ -11747,7 +11744,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C602" t="n">
-        <v>-0.1092837051188308</v>
+        <v>0.05796261768153156</v>
       </c>
       <c r="D602" t="n">
         <v>-0.01058392365689378</v>
@@ -11766,7 +11763,7 @@
         <v>0.4222330006830478</v>
       </c>
       <c r="C603" t="n">
-        <v>0.4724108044515136</v>
+        <v>0.4724108044515185</v>
       </c>
       <c r="D603" t="n">
         <v>0.06803885958509276</v>
@@ -11785,7 +11782,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C604" t="n">
-        <v>-0.2879373850061599</v>
+        <v>0.1517899028105431</v>
       </c>
       <c r="D604" t="n">
         <v>0.2479784841107692</v>
@@ -11804,7 +11801,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C605" t="n">
-        <v>0.1360733426753011</v>
+        <v>0.136073342675302</v>
       </c>
       <c r="D605" t="n">
         <v>0.5380139581785305</v>
@@ -11823,7 +11820,7 @@
         <v>-0.2175914350726268</v>
       </c>
       <c r="C606" t="n">
-        <v>-0.04660141981917792</v>
+        <v>-0.04660141981917842</v>
       </c>
       <c r="D606" t="n">
         <v>0.02590934849636132</v>
@@ -11842,7 +11839,7 @@
         <v>0.4005379295837288</v>
       </c>
       <c r="C607" t="n">
-        <v>0.3549310959496212</v>
+        <v>0.3549310959496254</v>
       </c>
       <c r="D607" t="n">
         <v>0.02559965849075143</v>
@@ -11861,7 +11858,7 @@
         <v>0.3219280948873623</v>
       </c>
       <c r="C608" t="n">
-        <v>-0.3267622886681714</v>
+        <v>-0.3267622886681711</v>
       </c>
       <c r="D608" t="n">
         <v>-0.2388296815558438</v>
@@ -11880,7 +11877,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C609" t="n">
-        <v>-0.1007997098005691</v>
+        <v>-0.1007997098005696</v>
       </c>
       <c r="D609" t="n">
         <v>-0.5269875826091223</v>
@@ -11899,7 +11896,7 @@
         <v>0.2868811477881615</v>
       </c>
       <c r="C610" t="n">
-        <v>0.2511471682268892</v>
+        <v>0.2511471682268925</v>
       </c>
       <c r="D610" t="n">
         <v>0.1224973259187558</v>
@@ -11918,7 +11915,7 @@
         <v>0.4956951626240688</v>
       </c>
       <c r="C611" t="n">
-        <v>0.4131275415506702</v>
+        <v>0.4131275415506666</v>
       </c>
       <c r="D611" t="n">
         <v>0.5598081424821464</v>
@@ -11937,7 +11934,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C612" t="n">
-        <v>0.3483703992786887</v>
+        <v>0.3220017437370269</v>
       </c>
       <c r="D612" t="n">
         <v>0.03234979015217718</v>
@@ -11972,7 +11969,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C614" t="n">
-        <v>0.2619159998341909</v>
+        <v>0.261915999834187</v>
       </c>
       <c r="D614" t="n">
         <v>0.2643217641541135</v>
@@ -11991,7 +11988,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C615" t="n">
-        <v>0.2496517104206825</v>
+        <v>0.2496517104206804</v>
       </c>
       <c r="D615" t="n">
         <v>-0.00697328491931249</v>
@@ -12010,7 +12007,7 @@
         <v>0.7484612330040356</v>
       </c>
       <c r="C616" t="n">
-        <v>0.9989739740404688</v>
+        <v>0.9989739740404703</v>
       </c>
       <c r="D616" t="n">
         <v>1.552289866266173</v>
@@ -12029,7 +12026,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C617" t="n">
-        <v>0.1279336498446239</v>
+        <v>0.1278573228313553</v>
       </c>
       <c r="D617" t="n">
         <v>0.03331240730164393</v>
@@ -12048,7 +12045,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C618" t="n">
-        <v>0.1308834758926757</v>
+        <v>0.1308834758926777</v>
       </c>
       <c r="D618" t="n">
         <v>0.2863011795059594</v>
@@ -12067,7 +12064,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C619" t="n">
-        <v>-0.0605517482747956</v>
+        <v>-0.06055174827479493</v>
       </c>
       <c r="D619" t="n">
         <v>-0.6106439109809548</v>
@@ -12086,7 +12083,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C620" t="n">
-        <v>0.1195799764485061</v>
+        <v>0.07898740922169015</v>
       </c>
       <c r="D620" t="n">
         <v>0.02814848071562853</v>
@@ -12105,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="C621" t="n">
-        <v>-0.05876186987115803</v>
+        <v>-0.05876186987115736</v>
       </c>
       <c r="D621" t="n">
         <v>-0.3193899806533413</v>
@@ -12124,7 +12121,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C622" t="n">
-        <v>0.06919346994167319</v>
+        <v>0.06837365840866082</v>
       </c>
       <c r="D622" t="n">
         <v>-0.3690150714490182</v>
@@ -12143,7 +12140,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C623" t="n">
-        <v>0.01658132194884935</v>
+        <v>0.016581321948856</v>
       </c>
       <c r="D623" t="n">
         <v>-0.2826622554093832</v>
@@ -12162,7 +12159,7 @@
         <v>-0.2515387669959644</v>
       </c>
       <c r="C624" t="n">
-        <v>0.07323082369768801</v>
+        <v>0.07323082369768343</v>
       </c>
       <c r="D624" t="n">
         <v>-0.5249443133822896</v>
@@ -12181,7 +12178,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C625" t="n">
-        <v>0.5426819371735282</v>
+        <v>0.5481733303419863</v>
       </c>
       <c r="D625" t="n">
         <v>0.2130359500856504</v>
@@ -12200,7 +12197,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C626" t="n">
-        <v>0.1829292753193346</v>
+        <v>0.1829292753193287</v>
       </c>
       <c r="D626" t="n">
         <v>0.4245641592063981</v>
@@ -12219,7 +12216,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C627" t="n">
-        <v>0.1753537395232848</v>
+        <v>0.1753537395232888</v>
       </c>
       <c r="D627" t="n">
         <v>0.2524212524270695</v>
@@ -12238,7 +12235,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C628" t="n">
-        <v>0.277719554525847</v>
+        <v>0.2777195545258506</v>
       </c>
       <c r="D628" t="n">
         <v>-0.2133735301393462</v>
@@ -12257,7 +12254,7 @@
         <v>0.5160151470036647</v>
       </c>
       <c r="C629" t="n">
-        <v>0.9442349639842946</v>
+        <v>0.9129432657307747</v>
       </c>
       <c r="D629" t="n">
         <v>0.9556808223110419</v>
@@ -12276,7 +12273,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C630" t="n">
-        <v>0.1342750700815228</v>
+        <v>0.1338356928766942</v>
       </c>
       <c r="D630" t="n">
         <v>-0.308780060636653</v>
@@ -12295,7 +12292,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C631" t="n">
-        <v>0.1771170631826036</v>
+        <v>0.1771170631825974</v>
       </c>
       <c r="D631" t="n">
         <v>0.3111703201270402</v>
@@ -12314,7 +12311,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C632" t="n">
-        <v>0.3349197259867465</v>
+        <v>0.3349197259867467</v>
       </c>
       <c r="D632" t="n">
         <v>0.5008369392431119</v>
@@ -12333,7 +12330,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C633" t="n">
-        <v>0.277372214744163</v>
+        <v>0.2773722147441643</v>
       </c>
       <c r="D633" t="n">
         <v>-0.1568542199166782</v>
@@ -12352,7 +12349,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C634" t="n">
-        <v>0.1736176631536639</v>
+        <v>0.2395287493265467</v>
       </c>
       <c r="D634" t="n">
         <v>2.855775073355127</v>
@@ -12371,7 +12368,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C635" t="n">
-        <v>0.2410522598074724</v>
+        <v>0.2422009024166267</v>
       </c>
       <c r="D635" t="n">
         <v>1.065073603961911</v>
@@ -12390,14 +12387,11 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C636" t="n">
-        <v>-0.9205428614400779</v>
+        <v>0.9972829666806006</v>
       </c>
       <c r="D636" t="n">
         <v>-1.677476912869116</v>
       </c>
-      <c r="E636" t="n">
-        <v>0.2171840940741082</v>
-      </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
@@ -12409,7 +12403,7 @@
         <v>0.2868811477881615</v>
       </c>
       <c r="C637" t="n">
-        <v>0.2472980984094184</v>
+        <v>0.2472980984094135</v>
       </c>
       <c r="D637" t="n">
         <v>0.1975679834680404</v>
@@ -12428,7 +12422,7 @@
         <v>-0.2688167584278</v>
       </c>
       <c r="C638" t="n">
-        <v>0.1805618366242424</v>
+        <v>0.1805618366242384</v>
       </c>
       <c r="D638" t="n">
         <v>-0.03723936220929883</v>
@@ -12447,7 +12441,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C639" t="n">
-        <v>0.2527762513907383</v>
+        <v>0.2526395289644772</v>
       </c>
       <c r="D639" t="n">
         <v>0.2368816348775326</v>
@@ -12466,7 +12460,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C640" t="n">
-        <v>0.2199902621777141</v>
+        <v>0.2203958635333232</v>
       </c>
       <c r="D640" t="n">
         <v>0.5240966473207538</v>
@@ -12485,10 +12479,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C641" t="n">
-        <v>0.2228500246999578</v>
-      </c>
-      <c r="E641" t="n">
-        <v>0.3840503484855048</v>
+        <v>0.1945720771827149</v>
       </c>
     </row>
     <row r="642">
@@ -12501,7 +12492,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C642" t="n">
-        <v>0.2251273890576868</v>
+        <v>0.2251273890576871</v>
       </c>
       <c r="D642" t="n">
         <v>0.1820305956259209</v>
@@ -12536,7 +12527,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C644" t="n">
-        <v>0.08305393719355611</v>
+        <v>0.08442932433545623</v>
       </c>
       <c r="D644" t="n">
         <v>-0.2540000295158431</v>
@@ -12555,7 +12546,7 @@
         <v>0.411426245726465</v>
       </c>
       <c r="C645" t="n">
-        <v>0.3000456050396524</v>
+        <v>0.3166808652726824</v>
       </c>
       <c r="D645" t="n">
         <v>0.3984355610796549</v>
@@ -12574,7 +12565,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C646" t="n">
-        <v>-0.0288977830352853</v>
+        <v>-0.02775054982997908</v>
       </c>
       <c r="D646" t="n">
         <v>-0.3204084502296136</v>
@@ -12593,7 +12584,7 @@
         <v>0</v>
       </c>
       <c r="C647" t="n">
-        <v>0.0311242342183737</v>
+        <v>0.03112423421837151</v>
       </c>
       <c r="D647" t="n">
         <v>0.6389983047797267</v>
@@ -12612,7 +12603,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C648" t="n">
-        <v>0.2115693958524649</v>
+        <v>0.2115693958524627</v>
       </c>
       <c r="D648" t="n">
         <v>0.4363496769193614</v>
@@ -12631,7 +12622,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C649" t="n">
-        <v>0.1066906634356165</v>
+        <v>0.1068702930244492</v>
       </c>
       <c r="D649" t="n">
         <v>0.09548967472587298</v>
@@ -12650,7 +12641,7 @@
         <v>0.4222330006830478</v>
       </c>
       <c r="C650" t="n">
-        <v>0.3417745361322812</v>
+        <v>0.341774536132284</v>
       </c>
       <c r="D650" t="n">
         <v>0.3978216540806726</v>
@@ -12688,7 +12679,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C652" t="n">
-        <v>0.1303697094974055</v>
+        <v>0.1303697094973999</v>
       </c>
       <c r="D652" t="n">
         <v>0.2532495765860687</v>
@@ -12707,7 +12698,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C653" t="n">
-        <v>0.2035847675398116</v>
+        <v>0.2103248214336904</v>
       </c>
       <c r="D653" t="n">
         <v>-0.112023298218627</v>
@@ -12726,7 +12717,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C654" t="n">
-        <v>0.132090727933438</v>
+        <v>0.1341566534426661</v>
       </c>
       <c r="D654" t="n">
         <v>-0.3253852795857432</v>
@@ -12745,7 +12736,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C655" t="n">
-        <v>0.1791799355101895</v>
+        <v>0.1791799355101861</v>
       </c>
       <c r="D655" t="n">
         <v>0.1739115485117483</v>
@@ -12764,7 +12755,7 @@
         <v>0.3219280948873623</v>
       </c>
       <c r="C656" t="n">
-        <v>0.2950587006708112</v>
+        <v>0.2950587006708164</v>
       </c>
       <c r="D656" t="n">
         <v>0.4790713800341654</v>
@@ -12783,7 +12774,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C657" t="n">
-        <v>0.1145380787615179</v>
+        <v>0.1141572952814889</v>
       </c>
       <c r="D657" t="n">
         <v>-0.03854002008084613</v>
@@ -12802,7 +12793,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C658" t="n">
-        <v>0.2628187104683719</v>
+        <v>0.2628187104683741</v>
       </c>
       <c r="D658" t="n">
         <v>0.2582657278153956</v>
@@ -12821,7 +12812,7 @@
         <v>0.3673710656485294</v>
       </c>
       <c r="C659" t="n">
-        <v>1.008113242166019</v>
+        <v>0.1346028397408012</v>
       </c>
       <c r="D659" t="n">
         <v>0.469766171099077</v>
@@ -12840,7 +12831,7 @@
         <v>0.4854268271702417</v>
       </c>
       <c r="C660" t="n">
-        <v>0.3092666236945834</v>
+        <v>0.3772887135035546</v>
       </c>
       <c r="D660" t="n">
         <v>0.1753557359239747</v>
@@ -12859,7 +12850,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C661" t="n">
-        <v>0.2575414074730335</v>
+        <v>0.2575414074730324</v>
       </c>
       <c r="D661" t="n">
         <v>0.07530100248419877</v>
@@ -12878,7 +12869,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C662" t="n">
-        <v>0.1330744736943412</v>
+        <v>0.1330744736943403</v>
       </c>
       <c r="D662" t="n">
         <v>-0.08188528712421893</v>
@@ -12897,7 +12888,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C663" t="n">
-        <v>0.08707538156997499</v>
+        <v>0.08707538156998011</v>
       </c>
       <c r="D663" t="n">
         <v>0.0836853883722241</v>
@@ -12916,7 +12907,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C664" t="n">
-        <v>0.2459949381592138</v>
+        <v>0.2459949381592127</v>
       </c>
       <c r="D664" t="n">
         <v>0.1012853226816099</v>
@@ -12935,7 +12926,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C665" t="n">
-        <v>0.228181135583167</v>
+        <v>0.2281811355831675</v>
       </c>
       <c r="D665" t="n">
         <v>0.3220479049523584</v>
@@ -12954,7 +12945,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C666" t="n">
-        <v>0.07942319977569899</v>
+        <v>0.07967561776966985</v>
       </c>
       <c r="D666" t="n">
         <v>-0.1096476906591859</v>
@@ -12973,7 +12964,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C667" t="n">
-        <v>0.09535765706023513</v>
+        <v>0.09805176622950063</v>
       </c>
       <c r="D667" t="n">
         <v>-6.494100893930442</v>
@@ -12992,7 +12983,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C668" t="n">
-        <v>0.4589146480467949</v>
+        <v>0.458441827054147</v>
       </c>
       <c r="D668" t="n">
         <v>0.3494245035378565</v>
@@ -13011,7 +13002,7 @@
         <v>-0.5563933485243852</v>
       </c>
       <c r="C669" t="n">
-        <v>-0.5704638960397692</v>
+        <v>-0.5704638960397699</v>
       </c>
       <c r="D669" t="n">
         <v>-1.043504026710154</v>
@@ -13030,7 +13021,7 @@
         <v>0.4329594072761063</v>
       </c>
       <c r="C670" t="n">
-        <v>0.4897508011015133</v>
+        <v>0.1428539570828743</v>
       </c>
       <c r="D670" t="n">
         <v>1.901046129355477</v>
@@ -13049,7 +13040,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C671" t="n">
-        <v>0.2986833041907001</v>
+        <v>-0.1493057628079747</v>
       </c>
       <c r="D671" t="n">
         <v>0.3511604621705532</v>
@@ -13068,7 +13059,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C672" t="n">
-        <v>0.0234157285774317</v>
+        <v>0.02341572857743737</v>
       </c>
       <c r="D672" t="n">
         <v>0.05592702127314727</v>
@@ -13087,7 +13078,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C673" t="n">
-        <v>0.1819807564175774</v>
+        <v>0.1819807564175771</v>
       </c>
       <c r="D673" t="n">
         <v>0.1582910302927597</v>
@@ -13106,7 +13097,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C674" t="n">
-        <v>0.03290864926040567</v>
+        <v>0.0329086492604063</v>
       </c>
       <c r="D674" t="n">
         <v>0.1352183208853412</v>
@@ -13125,7 +13116,7 @@
         <v>0.7484612330040356</v>
       </c>
       <c r="C675" t="n">
-        <v>0.5040772582531721</v>
+        <v>0.5040772582531738</v>
       </c>
       <c r="D675" t="n">
         <v>0.6109119894133307</v>
@@ -13144,7 +13135,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C676" t="n">
-        <v>0.1745943859475091</v>
+        <v>0.1745943859475054</v>
       </c>
       <c r="D676" t="n">
         <v>0.2059802725007717</v>
@@ -13163,7 +13154,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C677" t="n">
-        <v>0.2338279981693</v>
+        <v>0.2330830747647215</v>
       </c>
       <c r="D677" t="n">
         <v>0.6869743091728721</v>
@@ -13182,7 +13173,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C678" t="n">
-        <v>-0.004088888067878432</v>
+        <v>-0.004088888067878111</v>
       </c>
       <c r="D678" t="n">
         <v>0.3557594870579072</v>
@@ -13201,7 +13192,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C679" t="n">
-        <v>0.0526325375687764</v>
+        <v>0.05263253756877547</v>
       </c>
       <c r="D679" t="n">
         <v>0.0003561744828478363</v>
@@ -13220,7 +13211,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C680" t="n">
-        <v>0.02010841762256687</v>
+        <v>0.0201084176225656</v>
       </c>
       <c r="D680" t="n">
         <v>0.8516747063280673</v>
@@ -13239,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="C681" t="n">
-        <v>0.1141569579473835</v>
+        <v>0.1163522843272043</v>
       </c>
       <c r="D681" t="n">
         <v>-1.986608380733244</v>
@@ -13258,7 +13249,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C682" t="n">
-        <v>-0.07027775032157099</v>
+        <v>0.1871953181029884</v>
       </c>
       <c r="D682" t="n">
         <v>-2.890191024998139</v>
@@ -13277,7 +13268,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C683" t="n">
-        <v>0.2772447032774923</v>
+        <v>0.2772447032774928</v>
       </c>
       <c r="D683" t="n">
         <v>0.3083732531205268</v>
@@ -13296,7 +13287,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C684" t="n">
-        <v>0.373619220138445</v>
+        <v>0.3736192201384492</v>
       </c>
       <c r="D684" t="n">
         <v>0.7922134823223352</v>
@@ -13315,7 +13306,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C685" t="n">
-        <v>0.421793545516791</v>
+        <v>0.4242306585817803</v>
       </c>
       <c r="D685" t="n">
         <v>-0.5666039142376864</v>
@@ -13369,7 +13360,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C688" t="n">
-        <v>0.3303054524153644</v>
+        <v>0.3303054524153692</v>
       </c>
       <c r="D688" t="n">
         <v>0.2272969070181436</v>
@@ -13388,7 +13379,7 @@
         <v>0.3561438102252754</v>
       </c>
       <c r="C689" t="n">
-        <v>0.3570728391924757</v>
+        <v>0.8105816240986414</v>
       </c>
       <c r="D689" t="n">
         <v>0.128316391768908</v>
@@ -13407,7 +13398,7 @@
         <v>0.3103401206121505</v>
       </c>
       <c r="C690" t="n">
-        <v>0.2004720249780048</v>
+        <v>0.2004720249780004</v>
       </c>
       <c r="D690" t="n">
         <v>0.1090056532984058</v>
@@ -13426,7 +13417,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C691" t="n">
-        <v>0.08012846844452695</v>
+        <v>0.07789613189836984</v>
       </c>
       <c r="D691" t="n">
         <v>0.4904975264922842</v>
@@ -13445,7 +13436,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C692" t="n">
-        <v>-0.3950896833872489</v>
+        <v>-0.3950896833872498</v>
       </c>
       <c r="D692" t="n">
         <v>0.004339287591342359</v>
@@ -13464,7 +13455,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C693" t="n">
-        <v>0.2467281901004418</v>
+        <v>0.2467281901004456</v>
       </c>
       <c r="D693" t="n">
         <v>-0.1590185323533</v>
@@ -13483,7 +13474,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C694" t="n">
-        <v>0.1544135425963197</v>
+        <v>-0.2418187836570224</v>
       </c>
       <c r="D694" t="n">
         <v>0.5782425740933536</v>
@@ -13502,7 +13493,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C695" t="n">
-        <v>0.143566226466492</v>
+        <v>0.1691369601119298</v>
       </c>
       <c r="D695" t="n">
         <v>0.5230749639512311</v>
@@ -13521,7 +13512,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C696" t="n">
-        <v>0.1778958905160422</v>
+        <v>0.1778958905160359</v>
       </c>
       <c r="D696" t="n">
         <v>0.09366167086333095</v>
@@ -13540,7 +13531,7 @@
         <v>-0.1844245711374274</v>
       </c>
       <c r="C697" t="n">
-        <v>-0.107169282887538</v>
+        <v>-0.1062682554568415</v>
       </c>
       <c r="D697" t="n">
         <v>-0.1951756411729454</v>
@@ -13559,7 +13550,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C698" t="n">
-        <v>0.09908116046807584</v>
+        <v>0.103868565785637</v>
       </c>
       <c r="D698" t="n">
         <v>-1.374750731427376</v>
@@ -13597,7 +13588,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C700" t="n">
-        <v>0.1470631764935176</v>
+        <v>0.1470631764935112</v>
       </c>
       <c r="D700" t="n">
         <v>0.02278225290638992</v>
@@ -13616,7 +13607,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C701" t="n">
-        <v>0.05706461826283819</v>
+        <v>0.05706461826283758</v>
       </c>
       <c r="D701" t="n">
         <v>0.2344939764951904</v>
@@ -13634,6 +13625,9 @@
       <c r="B702" t="n">
         <v>0.09761079662642233</v>
       </c>
+      <c r="C702" t="n">
+        <v>0.3917646430303741</v>
+      </c>
       <c r="D702" t="n">
         <v>0.6566397573250229</v>
       </c>
@@ -13651,7 +13645,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C703" t="n">
-        <v>0.1318260489128418</v>
+        <v>0.1204765533237815</v>
       </c>
       <c r="D703" t="n">
         <v>-0.1871673585159248</v>
@@ -13670,7 +13664,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C704" t="n">
-        <v>0.09616900135691953</v>
+        <v>0.1099594373301715</v>
       </c>
       <c r="D704" t="n">
         <v>0.1231576376846829</v>
@@ -13689,7 +13683,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C705" t="n">
-        <v>0.3644615845352011</v>
+        <v>0.7520472160722342</v>
       </c>
       <c r="D705" t="n">
         <v>0.2655871133972009</v>
@@ -13727,7 +13721,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C707" t="n">
-        <v>0.08945265747982119</v>
+        <v>0.08945265747982148</v>
       </c>
       <c r="D707" t="n">
         <v>0.5715224833700152</v>
@@ -13746,7 +13740,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C708" t="n">
-        <v>-0.03381752388157749</v>
+        <v>-0.03381752388157848</v>
       </c>
       <c r="D708" t="n">
         <v>0.3618175533124557</v>
@@ -13765,7 +13759,7 @@
         <v>0.6507645591169023</v>
       </c>
       <c r="C709" t="n">
-        <v>0.556217934208297</v>
+        <v>0.5562179342082938</v>
       </c>
       <c r="D709" t="n">
         <v>0.4884245673614337</v>
@@ -13784,7 +13778,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C710" t="n">
-        <v>0.2266083940780251</v>
+        <v>0.4483876739843034</v>
       </c>
       <c r="D710" t="n">
         <v>2.107086902183827</v>
@@ -13819,7 +13813,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C712" t="n">
-        <v>0.4603051851434845</v>
+        <v>0.4603051851434803</v>
       </c>
       <c r="D712" t="n">
         <v>0.4020692610649708</v>
@@ -13838,7 +13832,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C713" t="n">
-        <v>0.6613103017733506</v>
+        <v>0.6800157345544028</v>
       </c>
       <c r="D713" t="n">
         <v>0.4718952204554816</v>
@@ -13857,7 +13851,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C714" t="n">
-        <v>0.3079032218098476</v>
+        <v>0.731334736865132</v>
       </c>
       <c r="D714" t="n">
         <v>-0.0124963341557975</v>
@@ -13876,7 +13870,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C715" t="n">
-        <v>0.1550638205473572</v>
+        <v>0.1663771072827263</v>
       </c>
       <c r="D715" t="n">
         <v>-2.436030989829632</v>
@@ -13895,7 +13889,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C716" t="n">
-        <v>0.07818975340853003</v>
+        <v>0.07826803630110203</v>
       </c>
       <c r="D716" t="n">
         <v>0.4822799906518648</v>
@@ -13930,7 +13924,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C718" t="n">
-        <v>0.1161383666717359</v>
+        <v>0.11745544925283</v>
       </c>
       <c r="D718" t="n">
         <v>-0.2005238113265704</v>
@@ -13949,7 +13943,7 @@
         <v>0.3785116232537298</v>
       </c>
       <c r="C719" t="n">
-        <v>0.2354649548662081</v>
+        <v>0.236273300616943</v>
       </c>
       <c r="D719" t="n">
         <v>0.4470814204871985</v>
@@ -13968,7 +13962,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C720" t="n">
-        <v>0.1103908073814159</v>
+        <v>0.1103908073814126</v>
       </c>
       <c r="D720" t="n">
         <v>0.775284117204516</v>
@@ -13987,7 +13981,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C721" t="n">
-        <v>0.008182624081553038</v>
+        <v>0.2968293781017037</v>
       </c>
       <c r="D721" t="n">
         <v>1.946076564921471</v>
@@ -14006,7 +14000,7 @@
         <v>0.2868811477881615</v>
       </c>
       <c r="C722" t="n">
-        <v>0.1966973671098744</v>
+        <v>0.1966973671098795</v>
       </c>
       <c r="D722" t="n">
         <v>0.2523513303536142</v>
@@ -14025,7 +14019,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C723" t="n">
-        <v>0.2641203637630433</v>
+        <v>0.264120363763042</v>
       </c>
       <c r="D723" t="n">
         <v>0.1497560407285729</v>
@@ -14044,7 +14038,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C724" t="n">
-        <v>0.2743869356473976</v>
+        <v>0.2743869356473966</v>
       </c>
       <c r="D724" t="n">
         <v>0.3595146626732019</v>
@@ -14063,7 +14057,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C725" t="n">
-        <v>0.07345522102326212</v>
+        <v>0.07345522102325663</v>
       </c>
       <c r="D725" t="n">
         <v>0.2590618823501044</v>
@@ -14101,7 +14095,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C727" t="n">
-        <v>0.2243201641695306</v>
+        <v>0.2243201641695314</v>
       </c>
       <c r="D727" t="n">
         <v>0.10133574639456</v>
@@ -14120,7 +14114,7 @@
         <v>0.3219280948873623</v>
       </c>
       <c r="C728" t="n">
-        <v>0.3185666672477288</v>
+        <v>0.3185666672477308</v>
       </c>
       <c r="D728" t="n">
         <v>0.2391509607863638</v>
@@ -14139,7 +14133,7 @@
         <v>0.3219280948873623</v>
       </c>
       <c r="C729" t="n">
-        <v>0.408639728080693</v>
+        <v>0.3936321356755676</v>
       </c>
       <c r="D729" t="n">
         <v>0.1114986205779315</v>
@@ -14158,7 +14152,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C730" t="n">
-        <v>0.1004207834459015</v>
+        <v>0.1004207834458994</v>
       </c>
       <c r="D730" t="n">
         <v>-0.2288882608803839</v>
@@ -14177,7 +14171,7 @@
         <v>-0.1520030934450499</v>
       </c>
       <c r="C731" t="n">
-        <v>-0.08163879632302266</v>
+        <v>-0.08523357429419522</v>
       </c>
       <c r="D731" t="n">
         <v>-0.3530338702632989</v>
@@ -14196,7 +14190,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C732" t="n">
-        <v>-0.1134265189114459</v>
+        <v>-0.1134265189114462</v>
       </c>
       <c r="D732" t="n">
         <v>2.779914748223521</v>
@@ -14215,7 +14209,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C733" t="n">
-        <v>0.320533812323215</v>
+        <v>0.3204098108584502</v>
       </c>
       <c r="D733" t="n">
         <v>0.7409482613334616</v>
@@ -14234,7 +14228,7 @@
         <v>0.4854268271702417</v>
       </c>
       <c r="C734" t="n">
-        <v>0.5221412106977816</v>
+        <v>0.132303062288787</v>
       </c>
       <c r="D734" t="n">
         <v>0.6202073890099837</v>
@@ -14253,7 +14247,7 @@
         <v>0.3785116232537298</v>
       </c>
       <c r="C735" t="n">
-        <v>0.2655742310323072</v>
+        <v>0.2655742310323114</v>
       </c>
       <c r="D735" t="n">
         <v>0.1228545514845318</v>
@@ -14272,7 +14266,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C736" t="n">
-        <v>0.162298155372403</v>
+        <v>0.1622981553724062</v>
       </c>
       <c r="D736" t="n">
         <v>0.3431971001155452</v>
@@ -14291,7 +14285,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C737" t="n">
-        <v>0.0885896755926818</v>
+        <v>0.0885896755926836</v>
       </c>
       <c r="D737" t="n">
         <v>-0.02613174014310049</v>
@@ -14310,7 +14304,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C738" t="n">
-        <v>0.09282978523353869</v>
+        <v>0.09282978523353418</v>
       </c>
       <c r="D738" t="n">
         <v>-0.2591921668960073</v>
@@ -14329,7 +14323,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C739" t="n">
-        <v>0.1151865468264298</v>
+        <v>0.1196707545166435</v>
       </c>
       <c r="D739" t="n">
         <v>0.1109399975714454</v>
@@ -14348,7 +14342,7 @@
         <v>0.4222330006830478</v>
       </c>
       <c r="C740" t="n">
-        <v>0.3395231898521702</v>
+        <v>0.3476982866467309</v>
       </c>
       <c r="D740" t="n">
         <v>-0.08817239314991693</v>
@@ -14367,7 +14361,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C741" t="n">
-        <v>0.1185805798319762</v>
+        <v>0.1185805798319821</v>
       </c>
       <c r="D741" t="n">
         <v>0.1313656537845961</v>
@@ -14386,7 +14380,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C742" t="n">
-        <v>0.3878408615700746</v>
+        <v>0.3878408615700754</v>
       </c>
       <c r="D742" t="n">
         <v>0.1843747028085519</v>
@@ -14405,7 +14399,7 @@
         <v>-0.1681227588083269</v>
       </c>
       <c r="C743" t="n">
-        <v>-0.2571270617940025</v>
+        <v>-0.2544861293887074</v>
       </c>
       <c r="D743" t="n">
         <v>-0.4338521776516562</v>
@@ -14443,7 +14437,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C745" t="n">
-        <v>0.1561118241200893</v>
+        <v>0.1561118241200959</v>
       </c>
       <c r="D745" t="n">
         <v>0.07129809913991184</v>
@@ -14462,7 +14456,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C746" t="n">
-        <v>0.1452615783200226</v>
+        <v>0.14526157832002</v>
       </c>
       <c r="D746" t="n">
         <v>-0.02087936233061225</v>
@@ -14481,7 +14475,7 @@
         <v>-0.5145731728297583</v>
       </c>
       <c r="C747" t="n">
-        <v>-0.07561581607779648</v>
+        <v>-0.4935536003549365</v>
       </c>
       <c r="D747" t="n">
         <v>-0.5906933551003988</v>
@@ -14500,7 +14494,7 @@
         <v>0.4436066514756148</v>
       </c>
       <c r="C748" t="n">
-        <v>0.3894343131538868</v>
+        <v>0.3894343131538872</v>
       </c>
       <c r="D748" t="n">
         <v>0.4392058946225639</v>
@@ -14519,7 +14513,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C749" t="n">
-        <v>0.2228142366016078</v>
+        <v>0.1006312311357304</v>
       </c>
       <c r="D749" t="n">
         <v>-0.6439080680742592</v>
@@ -14538,7 +14532,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C750" t="n">
-        <v>0.1614943508796066</v>
+        <v>0.1614943508796071</v>
       </c>
       <c r="D750" t="n">
         <v>0.2632146330576324</v>
@@ -14557,7 +14551,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C751" t="n">
-        <v>0.3337921095376822</v>
+        <v>0.3337921095376771</v>
       </c>
       <c r="D751" t="n">
         <v>0.2618184955376324</v>
@@ -14576,7 +14570,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C752" t="n">
-        <v>-0.2259154879001451</v>
+        <v>-0.2259154879001457</v>
       </c>
       <c r="D752" t="n">
         <v>0.07024426050881757</v>
@@ -14595,7 +14589,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C753" t="n">
-        <v>0.3950740982013974</v>
+        <v>0.3953565365423378</v>
       </c>
       <c r="D753" t="n">
         <v>0.3346192865327127</v>
@@ -14614,7 +14608,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C754" t="n">
-        <v>0.05364616819170523</v>
+        <v>0.05364616819170399</v>
       </c>
       <c r="D754" t="n">
         <v>-0.06536959141421379</v>
@@ -14633,7 +14627,7 @@
         <v>-0.5563933485243852</v>
       </c>
       <c r="C755" t="n">
-        <v>-0.6399621202348769</v>
+        <v>-0.6399621202348771</v>
       </c>
       <c r="D755" t="n">
         <v>-1.016444818250007</v>
@@ -14652,7 +14646,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C756" t="n">
-        <v>0.1575467965703801</v>
+        <v>0.1575467965703766</v>
       </c>
       <c r="D756" t="n">
         <v>0.1466553466871869</v>
@@ -14671,7 +14665,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C757" t="n">
-        <v>0.00923422862268517</v>
+        <v>0.009234228622683896</v>
       </c>
       <c r="D757" t="n">
         <v>0.1734102871573689</v>
@@ -14690,7 +14684,7 @@
         <v>0.4222330006830478</v>
       </c>
       <c r="C758" t="n">
-        <v>0.4784094666668182</v>
+        <v>0.4725557392246033</v>
       </c>
       <c r="D758" t="n">
         <v>0.1785645770964881</v>
@@ -14709,7 +14703,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C759" t="n">
-        <v>-0.08847597709184209</v>
+        <v>-0.09111553696865018</v>
       </c>
       <c r="D759" t="n">
         <v>-0.1552718616569878</v>
@@ -14728,7 +14722,7 @@
         <v>0.411426245726465</v>
       </c>
       <c r="C760" t="n">
-        <v>0.4452931837403387</v>
+        <v>0.5853102637795816</v>
       </c>
       <c r="D760" t="n">
         <v>0.2289720697612393</v>
@@ -14763,7 +14757,7 @@
         <v>0.411426245726465</v>
       </c>
       <c r="C762" t="n">
-        <v>0.4202241235730702</v>
+        <v>0.4202241235730649</v>
       </c>
       <c r="D762" t="n">
         <v>0.5383377097728467</v>
@@ -14782,7 +14776,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C763" t="n">
-        <v>0.06788616190090348</v>
+        <v>0.06788616190090746</v>
       </c>
       <c r="D763" t="n">
         <v>0.06925889012154812</v>
@@ -14801,7 +14795,7 @@
         <v>0.4541758931858021</v>
       </c>
       <c r="C764" t="n">
-        <v>0.6294537234526589</v>
+        <v>-0.1661693546268606</v>
       </c>
       <c r="D764" t="n">
         <v>-0.05486942160956862</v>
@@ -14820,7 +14814,7 @@
         <v>-0.3770696490798233</v>
       </c>
       <c r="C765" t="n">
-        <v>-0.7486339018915084</v>
+        <v>-0.7486339018915075</v>
       </c>
       <c r="D765" t="n">
         <v>-0.2372508154711666</v>
@@ -14839,7 +14833,7 @@
         <v>0.2868811477881615</v>
       </c>
       <c r="C766" t="n">
-        <v>0.5796067968273396</v>
+        <v>0.579606796827344</v>
       </c>
       <c r="D766" t="n">
         <v>0.4451960356149307</v>
@@ -14858,7 +14852,7 @@
         <v>0.5058909297299573</v>
       </c>
       <c r="C767" t="n">
-        <v>0.5747979073722008</v>
+        <v>0.5747979073721963</v>
       </c>
       <c r="D767" t="n">
         <v>0.3649431816108945</v>
@@ -14893,7 +14887,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C769" t="n">
-        <v>0.1790283295468923</v>
+        <v>0.1791226942681741</v>
       </c>
       <c r="D769" t="n">
         <v>0.04123534210450541</v>
@@ -14912,7 +14906,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C770" t="n">
-        <v>0.9866044066309572</v>
+        <v>0.9866044066309561</v>
       </c>
       <c r="D770" t="n">
         <v>0.627441753967116</v>
@@ -14931,7 +14925,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C771" t="n">
-        <v>0.07635534918240182</v>
+        <v>0.07635534918239757</v>
       </c>
       <c r="D771" t="n">
         <v>-0.2559692110537903</v>
@@ -14950,7 +14944,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C772" t="n">
-        <v>-0.06723077256587591</v>
+        <v>-0.06723077256587624</v>
       </c>
       <c r="D772" t="n">
         <v>-0.6639173499515738</v>
@@ -14969,7 +14963,7 @@
         <v>0.3103401206121505</v>
       </c>
       <c r="C773" t="n">
-        <v>0.2292331461682771</v>
+        <v>0.229233146168276</v>
       </c>
       <c r="D773" t="n">
         <v>0.1710786581886967</v>
@@ -14988,7 +14982,7 @@
         <v>0.411426245726465</v>
       </c>
       <c r="C774" t="n">
-        <v>0.4493377871874214</v>
+        <v>0.4493377871874188</v>
       </c>
       <c r="D774" t="n">
         <v>0.6764777083723562</v>
@@ -15007,7 +15001,7 @@
         <v>0.5360529002402097</v>
       </c>
       <c r="C775" t="n">
-        <v>0.5166636345899748</v>
+        <v>0.5166636345899737</v>
       </c>
       <c r="D775" t="n">
         <v>0.4692183968380342</v>
@@ -15026,7 +15020,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C776" t="n">
-        <v>0.1976726392319926</v>
+        <v>0.1976726392319881</v>
       </c>
       <c r="D776" t="n">
         <v>-0.2862854802295491</v>
@@ -15061,7 +15055,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C778" t="n">
-        <v>0.2435066141722113</v>
+        <v>0.2435066141722059</v>
       </c>
       <c r="D778" t="n">
         <v>0.06102216386199916</v>
@@ -15080,7 +15074,7 @@
         <v>-0.2688167584278</v>
       </c>
       <c r="C779" t="n">
-        <v>-0.5370017125414429</v>
+        <v>-0.08685392930913143</v>
       </c>
       <c r="D779" t="n">
         <v>0.05110912269540377</v>
@@ -15099,7 +15093,7 @@
         <v>-0.234465253637023</v>
       </c>
       <c r="C780" t="n">
-        <v>-0.715765203809658</v>
+        <v>-0.7157652038096575</v>
       </c>
       <c r="D780" t="n">
         <v>-0.2176068666399065</v>
@@ -15118,7 +15112,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C781" t="n">
-        <v>0.04170477086241248</v>
+        <v>0.04961208250638285</v>
       </c>
       <c r="D781" t="n">
         <v>0.1813759376050565</v>
@@ -15156,7 +15150,7 @@
         <v>0.3895668117627256</v>
       </c>
       <c r="C783" t="n">
-        <v>0.2794335401035454</v>
+        <v>0.2793614504075415</v>
       </c>
       <c r="D783" t="n">
         <v>0.1396567312924396</v>
@@ -15175,7 +15169,7 @@
         <v>-0.2175914350726268</v>
       </c>
       <c r="C784" t="n">
-        <v>-0.3259469899879804</v>
+        <v>-0.317327187908979</v>
       </c>
       <c r="D784" t="n">
         <v>-0.3519422355910399</v>
@@ -15194,7 +15188,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C785" t="n">
-        <v>0.004011693936847946</v>
+        <v>0.00401169393685082</v>
       </c>
       <c r="D785" t="n">
         <v>0.3411966083358669</v>
@@ -15213,7 +15207,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C786" t="n">
-        <v>0.001346687546010396</v>
+        <v>0.1880076639699088</v>
       </c>
       <c r="D786" t="n">
         <v>2.864428030962315</v>
@@ -15232,7 +15226,7 @@
         <v>0.4005379295837288</v>
       </c>
       <c r="C787" t="n">
-        <v>0.4759564231603841</v>
+        <v>0.4759564231603846</v>
       </c>
       <c r="D787" t="n">
         <v>2.388630196021325</v>
@@ -15251,7 +15245,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C788" t="n">
-        <v>-0.004071345006865438</v>
+        <v>0.07561212961242743</v>
       </c>
       <c r="D788" t="n">
         <v>-2.93064899323884</v>
@@ -15270,7 +15264,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C789" t="n">
-        <v>0.2077776306295777</v>
+        <v>0.2044371189146126</v>
       </c>
       <c r="D789" t="n">
         <v>0.06700692820255677</v>
@@ -15289,7 +15283,7 @@
         <v>0.5655971758542251</v>
       </c>
       <c r="C790" t="n">
-        <v>0.440599403042893</v>
+        <v>0.4405994030428982</v>
       </c>
       <c r="D790" t="n">
         <v>0.3293107666107969</v>
@@ -15308,7 +15302,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C791" t="n">
-        <v>0.4825866422017147</v>
+        <v>0.4825866422017192</v>
       </c>
       <c r="D791" t="n">
         <v>-0.4881184277089178</v>
@@ -15327,7 +15321,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C792" t="n">
-        <v>0.4629388662179905</v>
+        <v>0.4633610772367717</v>
       </c>
       <c r="D792" t="n">
         <v>0.6682491484527139</v>
@@ -15346,7 +15340,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C793" t="n">
-        <v>-0.0506672242089738</v>
+        <v>-0.0506672242089743</v>
       </c>
       <c r="D793" t="n">
         <v>-0.2914090361003029</v>
@@ -15365,7 +15359,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C794" t="n">
-        <v>0.00115978356643374</v>
+        <v>-0.006206017579749471</v>
       </c>
       <c r="D794" t="n">
         <v>-0.04242656784574193</v>
@@ -15384,7 +15378,7 @@
         <v>0.3785116232537298</v>
       </c>
       <c r="C795" t="n">
-        <v>0.3123286177695775</v>
+        <v>0.3123286177695791</v>
       </c>
       <c r="D795" t="n">
         <v>0.1542270209084525</v>
@@ -15403,7 +15397,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C796" t="n">
-        <v>0.1375233683849174</v>
+        <v>0.1375233683849169</v>
       </c>
       <c r="D796" t="n">
         <v>0.2282326161983675</v>
@@ -15422,7 +15416,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C797" t="n">
-        <v>0.6267333237111749</v>
+        <v>0.6259276488721706</v>
       </c>
       <c r="D797" t="n">
         <v>0.4016877953771379</v>
@@ -15441,7 +15435,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C798" t="n">
-        <v>0.1541657989490254</v>
+        <v>0.1541657989490229</v>
       </c>
       <c r="D798" t="n">
         <v>0.1087452575800535</v>
@@ -15460,7 +15454,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C799" t="n">
-        <v>0.02113260931765715</v>
+        <v>0.1093516196931673</v>
       </c>
       <c r="D799" t="n">
         <v>0.2035058723741721</v>
@@ -15479,7 +15473,7 @@
         <v>0.3895668117627256</v>
       </c>
       <c r="C800" t="n">
-        <v>0.2620354448575855</v>
+        <v>0.2649476794217976</v>
       </c>
       <c r="D800" t="n">
         <v>2.881864116213987</v>
@@ -15498,7 +15492,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C801" t="n">
-        <v>0.4302610747464226</v>
+        <v>0.4319449909468046</v>
       </c>
       <c r="D801" t="n">
         <v>0.7787501212438159</v>
@@ -15517,7 +15511,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C802" t="n">
-        <v>0.2815360279794384</v>
+        <v>0.2815360279794371</v>
       </c>
       <c r="D802" t="n">
         <v>0.3272626241710157</v>
@@ -15536,7 +15530,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C803" t="n">
-        <v>-0.3283330164019377</v>
+        <v>0.1095605199030138</v>
       </c>
       <c r="D803" t="n">
         <v>0.01092532679952414</v>
@@ -15555,7 +15549,7 @@
         <v>-0.5563933485243852</v>
       </c>
       <c r="C804" t="n">
-        <v>-0.9925154097970544</v>
+        <v>-0.9925154097970531</v>
       </c>
       <c r="D804" t="n">
         <v>-1.153599856060536</v>
@@ -15574,7 +15568,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C805" t="n">
-        <v>0.2471748516607184</v>
+        <v>0.2463827003908859</v>
       </c>
       <c r="D805" t="n">
         <v>0.0850410056454623</v>
@@ -15593,7 +15587,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C806" t="n">
-        <v>0.327607589880564</v>
+        <v>0.3276075898805668</v>
       </c>
       <c r="D806" t="n">
         <v>0.2502191303854063</v>
@@ -15612,7 +15606,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C807" t="n">
-        <v>0.2055467498985248</v>
+        <v>0.2055467498985276</v>
       </c>
       <c r="D807" t="n">
         <v>0.3759666189703675</v>
@@ -15631,7 +15625,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C808" t="n">
-        <v>0.3309004944170011</v>
+        <v>0.330900494416997</v>
       </c>
       <c r="D808" t="n">
         <v>-0.017020918215992</v>
@@ -15650,7 +15644,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C809" t="n">
-        <v>0.002119384491587634</v>
+        <v>0.002119384491585075</v>
       </c>
       <c r="D809" t="n">
         <v>-0.06106097204525796</v>
@@ -15669,7 +15663,7 @@
         <v>0.2986583155645152</v>
       </c>
       <c r="C810" t="n">
-        <v>0.327386455755509</v>
+        <v>0.3273864557555038</v>
       </c>
       <c r="D810" t="n">
         <v>3.02329443974154</v>
@@ -15688,7 +15682,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C811" t="n">
-        <v>0.05316026800750197</v>
+        <v>0.05316026800749857</v>
       </c>
       <c r="D811" t="n">
         <v>0.06060584924421405</v>
@@ -15726,7 +15720,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C813" t="n">
-        <v>0.1608754974490021</v>
+        <v>0.1608754974490046</v>
       </c>
       <c r="D813" t="n">
         <v>-0.1077914529827092</v>
@@ -15745,7 +15739,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C814" t="n">
-        <v>0.04410710154374182</v>
+        <v>0.04353289455471688</v>
       </c>
       <c r="D814" t="n">
         <v>0.04841665636217434</v>
@@ -15780,7 +15774,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C816" t="n">
-        <v>-0.02319850586596851</v>
+        <v>-0.02319850586596819</v>
       </c>
       <c r="D816" t="n">
         <v>0.5557755423456863</v>
@@ -15799,7 +15793,7 @@
         <v>0.5360529002402097</v>
       </c>
       <c r="C817" t="n">
-        <v>0.7321066275984328</v>
+        <v>0.7321066275984298</v>
       </c>
       <c r="D817" t="n">
         <v>0.8334553361323591</v>
@@ -15818,7 +15812,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C818" t="n">
-        <v>0.3948544981117154</v>
+        <v>0.3948544981117198</v>
       </c>
       <c r="D818" t="n">
         <v>0.3912543989940492</v>
@@ -15837,7 +15831,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C819" t="n">
-        <v>0.2740835465875306</v>
+        <v>0.2740835465875251</v>
       </c>
       <c r="D819" t="n">
         <v>0.4383543941932663</v>
@@ -15856,7 +15850,7 @@
         <v>0.2868811477881615</v>
       </c>
       <c r="C820" t="n">
-        <v>0.3169782222023673</v>
+        <v>0.316745597212116</v>
       </c>
       <c r="D820" t="n">
         <v>0.5072781897711895</v>
@@ -15875,7 +15869,7 @@
         <v>0.3103401206121505</v>
       </c>
       <c r="C821" t="n">
-        <v>0.3002505855316359</v>
+        <v>0.486734235283915</v>
       </c>
       <c r="D821" t="n">
         <v>2.888970726693834</v>
@@ -15894,7 +15888,7 @@
         <v>0.4541758931858021</v>
       </c>
       <c r="C822" t="n">
-        <v>0.4892370758871298</v>
+        <v>0.4883861793476392</v>
       </c>
       <c r="D822" t="n">
         <v>-0.06341802968538485</v>
@@ -15913,7 +15907,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C823" t="n">
-        <v>-0.07608675899931033</v>
+        <v>0.1360765335009574</v>
       </c>
       <c r="D823" t="n">
         <v>-2.275451961776704</v>
@@ -15932,7 +15926,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C824" t="n">
-        <v>-0.08589381560935822</v>
+        <v>-0.08589381560935788</v>
       </c>
       <c r="D824" t="n">
         <v>-0.4420284811846478</v>
@@ -15951,7 +15945,7 @@
         <v>0.3103401206121505</v>
       </c>
       <c r="C825" t="n">
-        <v>0.3514462012990284</v>
+        <v>0.3514462012990319</v>
       </c>
       <c r="D825" t="n">
         <v>0.1101168171609684</v>
@@ -15970,7 +15964,7 @@
         <v>0.4956951626240688</v>
       </c>
       <c r="C826" t="n">
-        <v>0.8009112232225293</v>
+        <v>0.3726845064490588</v>
       </c>
       <c r="D826" t="n">
         <v>0.09359894108035126</v>
@@ -16005,7 +15999,7 @@
         <v>0.4436066514756148</v>
       </c>
       <c r="C828" t="n">
-        <v>0.3112556676349305</v>
+        <v>0.3112556676349269</v>
       </c>
       <c r="D828" t="n">
         <v>0.6725618757300367</v>
@@ -16024,7 +16018,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C829" t="n">
-        <v>0.07108203007527619</v>
+        <v>0.07108203007526978</v>
       </c>
       <c r="D829" t="n">
         <v>-0.02339778011813236</v>
@@ -16043,7 +16037,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C830" t="n">
-        <v>-0.4278094902964366</v>
+        <v>-0.4278094902964363</v>
       </c>
       <c r="D830" t="n">
         <v>-0.1008933549620817</v>
@@ -16062,7 +16056,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C831" t="n">
-        <v>0.1786504329401555</v>
+        <v>0.1786504329401501</v>
       </c>
       <c r="D831" t="n">
         <v>0.2123721966805492</v>
@@ -16081,7 +16075,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C832" t="n">
-        <v>0.1826307851128726</v>
+        <v>0.1468305729157979</v>
       </c>
       <c r="D832" t="n">
         <v>-0.2899604866689484</v>
@@ -16100,7 +16094,7 @@
         <v>-0.2009126939259964</v>
       </c>
       <c r="C833" t="n">
-        <v>0.1208406223265853</v>
+        <v>0.122163386821038</v>
       </c>
       <c r="D833" t="n">
         <v>2.204333919669282</v>
@@ -16119,7 +16113,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C834" t="n">
-        <v>-0.3523916942467044</v>
+        <v>-0.3464048626122204</v>
       </c>
       <c r="D834" t="n">
         <v>0.4077014406802</v>
@@ -16138,7 +16132,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C835" t="n">
-        <v>0.1245006575359759</v>
+        <v>0.1245006575359694</v>
       </c>
       <c r="D835" t="n">
         <v>0.1307595947345521</v>
@@ -16157,7 +16151,7 @@
         <v>0.5260688116675876</v>
       </c>
       <c r="C836" t="n">
-        <v>0.4848156898290195</v>
+        <v>0.4848156898290181</v>
       </c>
       <c r="D836" t="n">
         <v>2.950411203468502</v>
@@ -16176,7 +16170,7 @@
         <v>-0.1844245711374274</v>
       </c>
       <c r="C837" t="n">
-        <v>-0.06105771980076941</v>
+        <v>-0.06100443564937617</v>
       </c>
       <c r="D837" t="n">
         <v>-0.1083299977315398</v>
@@ -16195,7 +16189,7 @@
         <v>-0.3770696490798233</v>
       </c>
       <c r="C838" t="n">
-        <v>-0.4741136039912087</v>
+        <v>-0.4741136039912085</v>
       </c>
       <c r="D838" t="n">
         <v>0.2440834019070159</v>
@@ -16214,7 +16208,7 @@
         <v>0.3561438102252754</v>
       </c>
       <c r="C839" t="n">
-        <v>0.3455458714881943</v>
+        <v>0.3802206215386683</v>
       </c>
       <c r="D839" t="n">
         <v>0.7129520139928218</v>
@@ -16233,7 +16227,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C840" t="n">
-        <v>0.2555170705696034</v>
+        <v>0.255517070569599</v>
       </c>
       <c r="D840" t="n">
         <v>0.1459201365451594</v>
@@ -16252,7 +16246,7 @@
         <v>0</v>
       </c>
       <c r="C841" t="n">
-        <v>-0.004117176344604039</v>
+        <v>-0.004117176344603397</v>
       </c>
       <c r="D841" t="n">
         <v>-0.4037392583353376</v>
@@ -16271,7 +16265,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C842" t="n">
-        <v>0.07238343242201918</v>
+        <v>0.07238343242202346</v>
       </c>
       <c r="D842" t="n">
         <v>-1.850889455837227</v>
@@ -16290,7 +16284,7 @@
         <v>0.5160151470036647</v>
       </c>
       <c r="C843" t="n">
-        <v>0.501983457255857</v>
+        <v>0.5019834572558542</v>
       </c>
       <c r="D843" t="n">
         <v>0.569621081383016</v>
@@ -16309,7 +16303,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C844" t="n">
-        <v>0.3136463116393106</v>
+        <v>0.3136463116393128</v>
       </c>
       <c r="D844" t="n">
         <v>0.4443244883782415</v>
@@ -16328,7 +16322,7 @@
         <v>0.3103401206121505</v>
       </c>
       <c r="C845" t="n">
-        <v>0.3023376622800418</v>
+        <v>0.3023376622800426</v>
       </c>
       <c r="D845" t="n">
         <v>-0.07144413470873444</v>
@@ -16347,7 +16341,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C846" t="n">
-        <v>0.1144928166174363</v>
+        <v>0.1144928166174426</v>
       </c>
       <c r="D846" t="n">
         <v>2.472637162683094</v>
@@ -16366,7 +16360,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C847" t="n">
-        <v>0.1839173321236474</v>
+        <v>0.1839173321236503</v>
       </c>
       <c r="D847" t="n">
         <v>0.08513791003399142</v>
@@ -16385,7 +16379,7 @@
         <v>0.4329594072761063</v>
       </c>
       <c r="C848" t="n">
-        <v>0.470384227435446</v>
+        <v>0.4657478173147257</v>
       </c>
       <c r="D848" t="n">
         <v>-0.03649012942248546</v>
@@ -16404,7 +16398,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C849" t="n">
-        <v>0.3205005134711395</v>
+        <v>0.3205005134711444</v>
       </c>
       <c r="D849" t="n">
         <v>0.3127072421734339</v>
@@ -16423,7 +16417,7 @@
         <v>-0.234465253637023</v>
       </c>
       <c r="C850" t="n">
-        <v>-0.5248706512082723</v>
+        <v>-0.5248706512082725</v>
       </c>
       <c r="D850" t="n">
         <v>-0.9580463572304825</v>
@@ -16442,7 +16436,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C851" t="n">
-        <v>0.09633499225000564</v>
+        <v>0.09633499225000593</v>
       </c>
       <c r="D851" t="n">
         <v>-0.07839753453254987</v>
@@ -16477,7 +16471,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C853" t="n">
-        <v>0.04146236226876528</v>
+        <v>0.04194873228294489</v>
       </c>
       <c r="D853" t="n">
         <v>-0.1458179079826993</v>
@@ -16496,7 +16490,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C854" t="n">
-        <v>0.2783605657120468</v>
+        <v>0.2843576658046119</v>
       </c>
       <c r="D854" t="n">
         <v>3.05848169230979</v>
@@ -16515,7 +16509,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C855" t="n">
-        <v>0.1027318926010628</v>
+        <v>0.1027318926010619</v>
       </c>
       <c r="D855" t="n">
         <v>0.1145377227118384</v>
@@ -16534,7 +16528,7 @@
         <v>0.3785116232537298</v>
       </c>
       <c r="C856" t="n">
-        <v>0.4801519382608537</v>
+        <v>0.4801519382608572</v>
       </c>
       <c r="D856" t="n">
         <v>0.430571019298814</v>
@@ -16572,7 +16566,7 @@
         <v>0.4541758931858021</v>
       </c>
       <c r="C858" t="n">
-        <v>0.5500632451840833</v>
+        <v>0.5500632451840873</v>
       </c>
       <c r="D858" t="n">
         <v>0.6694082091891462</v>
@@ -16591,7 +16585,7 @@
         <v>0.411426245726465</v>
       </c>
       <c r="C859" t="n">
-        <v>0.5658209074968793</v>
+        <v>0.5667266759724152</v>
       </c>
       <c r="D859" t="n">
         <v>0.3889056047520448</v>
@@ -16610,7 +16604,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C860" t="n">
-        <v>0.219194999299531</v>
+        <v>0.2182909133912697</v>
       </c>
       <c r="D860" t="n">
         <v>0.1844854637457604</v>
@@ -16629,7 +16623,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C861" t="n">
-        <v>0.3866209341049112</v>
+        <v>0.3866209341049063</v>
       </c>
       <c r="D861" t="n">
         <v>0.2083957016002809</v>
@@ -16648,7 +16642,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C862" t="n">
-        <v>0.1693428503875062</v>
+        <v>0.1693428503875011</v>
       </c>
       <c r="D862" t="n">
         <v>0.2037121576916699</v>
@@ -16667,7 +16661,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C863" t="n">
-        <v>0.07361116726154258</v>
+        <v>0.07361116726154929</v>
       </c>
       <c r="D863" t="n">
         <v>0.0187835599868527</v>
@@ -16686,7 +16680,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C864" t="n">
-        <v>0.03594038527470621</v>
+        <v>0.2259628390044937</v>
       </c>
       <c r="D864" t="n">
         <v>1.864306254311741</v>
@@ -16705,7 +16699,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C865" t="n">
-        <v>0.2033067554266631</v>
+        <v>0.2033067554266615</v>
       </c>
       <c r="D865" t="n">
         <v>0.4047217791167856</v>
@@ -16724,7 +16718,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C866" t="n">
-        <v>0.2793029431405001</v>
+        <v>0.2793029431405014</v>
       </c>
       <c r="D866" t="n">
         <v>0.3577813374753039</v>
@@ -16743,7 +16737,7 @@
         <v>0.4750848829487826</v>
       </c>
       <c r="C867" t="n">
-        <v>0.5716047944757243</v>
+        <v>0.571604794475729</v>
       </c>
       <c r="D867" t="n">
         <v>7.756869615751139</v>
@@ -16762,7 +16756,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C868" t="n">
-        <v>0.2876528970999396</v>
+        <v>0.2876528970999417</v>
       </c>
       <c r="D868" t="n">
         <v>0.1356703590364078</v>
@@ -16827,7 +16821,7 @@
         <v>-4.058893689053568</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.043513580990266</v>
+        <v>-4.043513580990265</v>
       </c>
       <c r="D2" t="n">
         <v>-4.477501769906842</v>
@@ -16865,7 +16859,7 @@
         <v>-3.473931188332412</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.758790435582583</v>
+        <v>-3.758291448965973</v>
       </c>
       <c r="D4" t="n">
         <v>-4.002286811112971</v>
@@ -16884,14 +16878,11 @@
         <v>-4.643856189774724</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.005296391473204</v>
+        <v>-4.948083367094798</v>
       </c>
       <c r="D5" t="n">
         <v>-5.499383842058592</v>
       </c>
-      <c r="E5" t="n">
-        <v>-4.284005470087514</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -16903,7 +16894,7 @@
         <v>-3.321928094887362</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.607538249810058</v>
+        <v>-3.607538249810056</v>
       </c>
       <c r="D6" t="n">
         <v>-3.726569411780398</v>
@@ -16922,7 +16913,7 @@
         <v>-4.058893689053568</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.195207408446646</v>
+        <v>-4.216431288889613</v>
       </c>
       <c r="D7" t="n">
         <v>-4.054145187320429</v>
@@ -16957,7 +16948,7 @@
         <v>-4.321928094887363</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.786737988543689</v>
+        <v>-4.785995555920834</v>
       </c>
       <c r="D9" t="n">
         <v>-3.925908536198017</v>
@@ -17130,7 +17121,7 @@
         <v>-1.286304185156641</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.502778670731277</v>
+        <v>-1.461558149621918</v>
       </c>
       <c r="D4" t="n">
         <v>0.6743793341741197</v>
@@ -17149,7 +17140,7 @@
         <v>-1.089267338097087</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.528827400872869</v>
+        <v>-1.528827400872868</v>
       </c>
       <c r="D5" t="n">
         <v>-1.457063614293449</v>
@@ -17168,7 +17159,7 @@
         <v>-0.9434164716336325</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.9291606424931766</v>
+        <v>-0.9315031393649084</v>
       </c>
       <c r="D6" t="n">
         <v>1.770154863294558</v>
@@ -17187,7 +17178,7 @@
         <v>-0.9714308478032291</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.00781370296603</v>
+        <v>-1.006118354271123</v>
       </c>
       <c r="D7" t="n">
         <v>1.777875779443087</v>
@@ -17206,7 +17197,7 @@
         <v>-1.029146345659516</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.9725886405057823</v>
+        <v>-0.9725886405057826</v>
       </c>
       <c r="D8" t="n">
         <v>-1.00822751159155</v>
@@ -17225,7 +17216,7 @@
         <v>-0.862496476250065</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.9994437655965944</v>
+        <v>-2.16081662535989</v>
       </c>
       <c r="D9" t="n">
         <v>-1.85276674162481</v>
@@ -17244,7 +17235,7 @@
         <v>-0.888968687611256</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.8441901829031413</v>
+        <v>-0.8441901829031401</v>
       </c>
       <c r="D10" t="n">
         <v>-0.8162856257981305</v>
@@ -17263,7 +17254,7 @@
         <v>-1.120294233717712</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.981522082161322</v>
+        <v>-0.9815220821613226</v>
       </c>
       <c r="D11" t="n">
         <v>-1.376864837171842</v>
@@ -17282,7 +17273,7 @@
         <v>-0.862496476250065</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.9488320505672568</v>
+        <v>-0.8447331211954457</v>
       </c>
       <c r="D12" t="n">
         <v>0.9127594576002974</v>
@@ -17301,7 +17292,7 @@
         <v>-0.888968687611256</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.9375121834022732</v>
+        <v>-1.625581448149209</v>
       </c>
       <c r="D13" t="n">
         <v>-0.9106464456017654</v>
@@ -17320,7 +17311,7 @@
         <v>-0.888968687611256</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.960001932068081</v>
+        <v>-0.960001932068082</v>
       </c>
       <c r="D14" t="n">
         <v>-0.9375445312526238</v>
@@ -17339,7 +17330,7 @@
         <v>-0.6438561897747247</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3168974238250361</v>
+        <v>-0.2734978622083414</v>
       </c>
       <c r="D15" t="n">
         <v>0.1248392864565059</v>
@@ -17358,7 +17349,7 @@
         <v>-0.7858751946471527</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.7936265639583358</v>
+        <v>-0.793626563958336</v>
       </c>
       <c r="D16" t="n">
         <v>-0.9036553689439252</v>
@@ -17393,7 +17384,7 @@
         <v>-1.089267338097087</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.7070805258503</v>
+        <v>-0.7070805258502989</v>
       </c>
       <c r="D18" t="n">
         <v>-0.8581495571820674</v>
@@ -17412,7 +17403,7 @@
         <v>-0.862496476250065</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.9166055316426027</v>
+        <v>-0.676285777177224</v>
       </c>
       <c r="D19" t="n">
         <v>-0.9433376658183646</v>
@@ -17431,7 +17422,7 @@
         <v>-0.888968687611256</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.8707443487827036</v>
+        <v>-0.8707443487827048</v>
       </c>
       <c r="D20" t="n">
         <v>-0.9527771728961336</v>
@@ -17450,7 +17441,7 @@
         <v>-0.6665762662748083</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.4298351206891163</v>
+        <v>-0.4298351206891172</v>
       </c>
       <c r="D21" t="n">
         <v>-0.7125853292903552</v>
@@ -17515,7 +17506,7 @@
         <v>-2.736965594166206</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.574329163576672</v>
+        <v>-2.574329163576675</v>
       </c>
       <c r="D2" t="n">
         <v>-2.278645654205825</v>
@@ -17533,6 +17524,9 @@
       <c r="B3" t="n">
         <v>-1.514573172829758</v>
       </c>
+      <c r="C3" t="n">
+        <v>-2.171676648408317</v>
+      </c>
       <c r="D3" t="n">
         <v>-1.764586466929774</v>
       </c>
@@ -17550,7 +17544,7 @@
         <v>-2.836501267717121</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.812994257532348</v>
+        <v>-3.328740957551231</v>
       </c>
       <c r="D4" t="n">
         <v>-3.441214069652605</v>
@@ -17569,7 +17563,7 @@
         <v>-1.83650126771712</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.181833114814939</v>
+        <v>-1.898859668082339</v>
       </c>
       <c r="D5" t="n">
         <v>1.036447412172766</v>
@@ -17588,7 +17582,7 @@
         <v>-1.83650126771712</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.882171266986062</v>
+        <v>-1.882900637598608</v>
       </c>
       <c r="D6" t="n">
         <v>-1.977968755391253</v>
@@ -17607,7 +17601,7 @@
         <v>-1.888968687611256</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.959776314738548</v>
+        <v>-1.951117945272063</v>
       </c>
       <c r="D7" t="n">
         <v>-1.705716619790252</v>
@@ -17626,7 +17620,7 @@
         <v>-1.83650126771712</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.711277177693657</v>
+        <v>-1.705736993541285</v>
       </c>
       <c r="D8" t="n">
         <v>-2.007357164521415</v>
@@ -17645,7 +17639,7 @@
         <v>-1.888968687611256</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.852891813596455</v>
+        <v>-1.850882768513554</v>
       </c>
       <c r="D9" t="n">
         <v>-1.910873989957196</v>
@@ -17664,7 +17658,7 @@
         <v>-1.83650126771712</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.786886730220435</v>
+        <v>-1.779220802768324</v>
       </c>
       <c r="D10" t="n">
         <v>1.025198556097587</v>
@@ -17683,7 +17677,7 @@
         <v>-1.888968687611256</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.896309809019676</v>
+        <v>-1.800257977629264</v>
       </c>
       <c r="D11" t="n">
         <v>-4.81985185660954</v>
@@ -17702,7 +17696,7 @@
         <v>-2.836501267717121</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.800624867577112</v>
+        <v>-2.800624867577108</v>
       </c>
       <c r="D12" t="n">
         <v>-2.622029346442857</v>
@@ -17721,7 +17715,7 @@
         <v>-1.83650126771712</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.015031061838677</v>
+        <v>-2.002689087527641</v>
       </c>
       <c r="D13" t="n">
         <v>-1.414042622253517</v>
@@ -17756,7 +17750,7 @@
         <v>-2.836501267717121</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.65099498672955</v>
+        <v>-2.650994986729553</v>
       </c>
       <c r="D15" t="n">
         <v>-2.690726911729479</v>
@@ -17821,7 +17815,7 @@
         <v>3.663344619366085</v>
       </c>
       <c r="C2" t="n">
-        <v>3.777173293578728</v>
+        <v>3.776793186860445</v>
       </c>
       <c r="D2" t="n">
         <v>3.45150715222048</v>
@@ -17840,7 +17834,7 @@
         <v>4.211012193485511</v>
       </c>
       <c r="C3" t="n">
-        <v>3.837329562530382</v>
+        <v>4.263071620004356</v>
       </c>
       <c r="D3" t="n">
         <v>3.899008382814834</v>
@@ -17859,7 +17853,7 @@
         <v>3.904002316283692</v>
       </c>
       <c r="C4" t="n">
-        <v>3.952330388280795</v>
+        <v>3.952330388280791</v>
       </c>
       <c r="D4" t="n">
         <v>3.81204780597007</v>
@@ -17878,7 +17872,7 @@
         <v>4.053980168187652</v>
       </c>
       <c r="C5" t="n">
-        <v>4.141946381729734</v>
+        <v>4.133199247782254</v>
       </c>
       <c r="D5" t="n">
         <v>4.02731530591124</v>
@@ -17897,7 +17891,7 @@
         <v>3.927896453728821</v>
       </c>
       <c r="C6" t="n">
-        <v>4.274706029920732</v>
+        <v>4.274579533205097</v>
       </c>
       <c r="D6" t="n">
         <v>4.38208789713932</v>
@@ -17932,14 +17926,11 @@
         <v>3.035623909730721</v>
       </c>
       <c r="C8" t="n">
-        <v>2.662302680174562</v>
+        <v>3.417799187524338</v>
       </c>
       <c r="D8" t="n">
         <v>0.2747889229621991</v>
       </c>
-      <c r="E8" t="n">
-        <v>1.907270463563572</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -17951,7 +17942,7 @@
         <v>4.269781238274379</v>
       </c>
       <c r="C9" t="n">
-        <v>4.379422982622497</v>
+        <v>5.176920872081694</v>
       </c>
       <c r="D9" t="n">
         <v>4.67526879128736</v>
@@ -17970,7 +17961,7 @@
         <v>4.013462259806563</v>
       </c>
       <c r="C10" t="n">
-        <v>5.693292842007018</v>
+        <v>3.931913038425677</v>
       </c>
       <c r="D10" t="n">
         <v>3.219314199251099</v>
@@ -17991,9 +17982,6 @@
       <c r="D11" t="n">
         <v>0.2425929027738938</v>
       </c>
-      <c r="E11" t="n">
-        <v>1.873106316797839</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -18024,7 +18012,7 @@
         <v>4.20945336562895</v>
       </c>
       <c r="C13" t="n">
-        <v>5.501036820499954</v>
+        <v>5.501036820499955</v>
       </c>
       <c r="D13" t="n">
         <v>4.736818741414652</v>
@@ -18043,7 +18031,7 @@
         <v>3.995484518877507</v>
       </c>
       <c r="C14" t="n">
-        <v>4.077168288136593</v>
+        <v>2.956357703850262</v>
       </c>
       <c r="D14" t="n">
         <v>6.053690635829903</v>
@@ -18108,7 +18096,7 @@
         <v>0.9335726382610239</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9772929273716251</v>
+        <v>0.977292927371624</v>
       </c>
       <c r="D2" t="n">
         <v>0.546904210017337</v>
@@ -18127,7 +18115,7 @@
         <v>0.4436066514756148</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5628846506776671</v>
+        <v>0.5628846506776718</v>
       </c>
       <c r="D3" t="n">
         <v>0.4292778239102725</v>
@@ -18146,7 +18134,7 @@
         <v>1.042644337408494</v>
       </c>
       <c r="C4" t="n">
-        <v>1.171293934405706</v>
+        <v>1.171293934405705</v>
       </c>
       <c r="D4" t="n">
         <v>1.182982958014674</v>
@@ -18165,7 +18153,7 @@
         <v>0.8797057662822882</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8253762331208196</v>
+        <v>0.825376233120823</v>
       </c>
       <c r="D5" t="n">
         <v>0.7286361984785681</v>
@@ -18184,7 +18172,7 @@
         <v>0.8797057662822882</v>
       </c>
       <c r="C6" t="n">
-        <v>1.424348423025864</v>
+        <v>1.551138746719829</v>
       </c>
       <c r="D6" t="n">
         <v>2.45624553074077</v>
@@ -18203,7 +18191,7 @@
         <v>0.9411063109464314</v>
       </c>
       <c r="C7" t="n">
-        <v>1.826840993825047</v>
+        <v>1.826840993825046</v>
       </c>
       <c r="D7" t="n">
         <v>3.678091029852699</v>
@@ -18222,7 +18210,7 @@
         <v>0.7907720378619999</v>
       </c>
       <c r="C8" t="n">
-        <v>1.116967224226234</v>
+        <v>1.116967224226238</v>
       </c>
       <c r="D8" t="n">
         <v>3.08988781269762</v>
@@ -18241,7 +18229,7 @@
         <v>0.8399595874895318</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6443973223038455</v>
+        <v>0.6585160324872651</v>
       </c>
       <c r="D9" t="n">
         <v>0.7950070022316167</v>
@@ -18260,7 +18248,7 @@
         <v>0.8639384504239717</v>
       </c>
       <c r="C10" t="n">
-        <v>1.10714251020123</v>
+        <v>1.107142510201231</v>
       </c>
       <c r="D10" t="n">
         <v>1.042908928186904</v>
@@ -18279,7 +18267,7 @@
         <v>0.4750848829487826</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.067628453946033</v>
+        <v>0.420662619947653</v>
       </c>
       <c r="D11" t="n">
         <v>0.5147116560550844</v>
@@ -18298,7 +18286,7 @@
         <v>0.9107326619029126</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8656252092747848</v>
+        <v>0.8656252092747873</v>
       </c>
       <c r="D12" t="n">
         <v>1.207614024340169</v>
@@ -18317,7 +18305,7 @@
         <v>0.4436066514756148</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2082862767012399</v>
+        <v>0.2082862767012408</v>
       </c>
       <c r="E13" t="n">
         <v>0.2476216048386622</v>
@@ -18333,7 +18321,7 @@
         <v>1.028569152196771</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6721445087809524</v>
+        <v>0.851813174022185</v>
       </c>
       <c r="D14" t="n">
         <v>0.3583473432244177</v>
@@ -18352,7 +18340,7 @@
         <v>0.8718436485093178</v>
       </c>
       <c r="C15" t="n">
-        <v>1.087926987092841</v>
+        <v>0.6924001743172209</v>
       </c>
       <c r="D15" t="n">
         <v>-0.2356481546172921</v>
@@ -18371,7 +18359,7 @@
         <v>0.9335726382610239</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7023289770854727</v>
+        <v>0.6727986039954884</v>
       </c>
       <c r="D16" t="n">
         <v>0.9761480300792781</v>
@@ -18390,7 +18378,7 @@
         <v>0.8479969065549501</v>
       </c>
       <c r="C17" t="n">
-        <v>0.729079954978711</v>
+        <v>0.4687244742459797</v>
       </c>
       <c r="D17" t="n">
         <v>0.4318568299090256</v>
@@ -18409,7 +18397,7 @@
         <v>0.6690267655096307</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1359219508729932</v>
+        <v>0.172050174971117</v>
       </c>
       <c r="D18" t="n">
         <v>-0.5260898290127356</v>
@@ -18428,7 +18416,7 @@
         <v>0.9781956296816515</v>
       </c>
       <c r="C19" t="n">
-        <v>1.020033951893961</v>
+        <v>1.025861407569961</v>
       </c>
       <c r="D19" t="n">
         <v>3.74548426297752</v>
@@ -18447,7 +18435,7 @@
         <v>0.8155754288625726</v>
       </c>
       <c r="C20" t="n">
-        <v>1.528515649446539</v>
+        <v>1.528515649446538</v>
       </c>
       <c r="D20" t="n">
         <v>4.93515370427089</v>
@@ -18466,7 +18454,7 @@
         <v>0.9560566524124029</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8837039999015096</v>
+        <v>0.8837039999015068</v>
       </c>
       <c r="D21" t="n">
         <v>0.8006717020461991</v>
@@ -18485,7 +18473,7 @@
         <v>0.8479969065549501</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8113234623513672</v>
+        <v>0.8151971814818166</v>
       </c>
       <c r="D22" t="n">
         <v>2.893891347176111</v>
@@ -18504,7 +18492,7 @@
         <v>1.395062799517578</v>
       </c>
       <c r="C23" t="n">
-        <v>1.344128815220284</v>
+        <v>1.344128815220285</v>
       </c>
       <c r="D23" t="n">
         <v>1.558163328375671</v>
@@ -18542,7 +18530,7 @@
         <v>1.214124805352847</v>
       </c>
       <c r="C25" t="n">
-        <v>1.190713440866443</v>
+        <v>1.19071344086644</v>
       </c>
       <c r="D25" t="n">
         <v>1.244384190933982</v>
@@ -18561,7 +18549,7 @@
         <v>1.042644337408494</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5558830833851361</v>
+        <v>1.043610822790613</v>
       </c>
       <c r="D26" t="n">
         <v>1.180096159607446</v>
@@ -18580,7 +18568,7 @@
         <v>0.6780719051126377</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4284605040835973</v>
+        <v>0.431469995328419</v>
       </c>
       <c r="D27" t="n">
         <v>0.3254535317306254</v>
@@ -18645,7 +18633,7 @@
         <v>1.510961919277379</v>
       </c>
       <c r="C2" t="n">
-        <v>1.436944577360453</v>
+        <v>1.436944577360455</v>
       </c>
       <c r="D2" t="n">
         <v>-0.08168673510796468</v>
@@ -18664,7 +18652,7 @@
         <v>1.967168607532628</v>
       </c>
       <c r="C3" t="n">
-        <v>2.11101254153618</v>
+        <v>2.112306360116813</v>
       </c>
       <c r="D3" t="n">
         <v>3.588020717597719</v>
@@ -18683,7 +18671,7 @@
         <v>2.192194165283345</v>
       </c>
       <c r="C4" t="n">
-        <v>2.055724450239067</v>
+        <v>2.099036580602797</v>
       </c>
       <c r="D4" t="n">
         <v>-0.6999862027386201</v>
@@ -18702,7 +18690,7 @@
         <v>2.025028794491523</v>
       </c>
       <c r="C5" t="n">
-        <v>1.977079384858083</v>
+        <v>1.981026292485864</v>
       </c>
       <c r="D5" t="n">
         <v>4.807804914434469</v>
@@ -18721,7 +18709,7 @@
         <v>1.490570130446201</v>
       </c>
       <c r="C6" t="n">
-        <v>1.76714544837949</v>
+        <v>1.462548594517495</v>
       </c>
       <c r="D6" t="n">
         <v>0.7498115948056135</v>
@@ -18740,7 +18728,7 @@
         <v>1.700439718141092</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4482882415662028</v>
+        <v>1.180947320099352</v>
       </c>
       <c r="D7" t="n">
         <v>0.314782041963056</v>
@@ -18759,7 +18747,7 @@
         <v>1.613531652917927</v>
       </c>
       <c r="C8" t="n">
-        <v>2.046359620633575</v>
+        <v>2.046359620633576</v>
       </c>
       <c r="D8" t="n">
         <v>0.2652639017584824</v>
@@ -18778,7 +18766,7 @@
         <v>1.443606651475615</v>
       </c>
       <c r="C9" t="n">
-        <v>1.268536175429471</v>
+        <v>1.268536175429472</v>
       </c>
       <c r="D9" t="n">
         <v>0.9630566695042406</v>
@@ -18797,7 +18785,7 @@
         <v>2.250961573533219</v>
       </c>
       <c r="C10" t="n">
-        <v>1.87621571320699</v>
+        <v>1.875398425327359</v>
       </c>
       <c r="D10" t="n">
         <v>0.5790200421221012</v>
@@ -18816,7 +18804,7 @@
         <v>1.55581615506164</v>
       </c>
       <c r="C11" t="n">
-        <v>1.486299722828052</v>
+        <v>1.398784438819248</v>
       </c>
       <c r="D11" t="n">
         <v>1.522737357608982</v>
@@ -18854,7 +18842,7 @@
         <v>1.922197848396367</v>
       </c>
       <c r="C13" t="n">
-        <v>2.159194534356682</v>
+        <v>2.159194534356683</v>
       </c>
       <c r="D13" t="n">
         <v>2.062827325286798</v>
@@ -18873,7 +18861,7 @@
         <v>1.959770155211467</v>
       </c>
       <c r="C14" t="n">
-        <v>2.021730235108905</v>
+        <v>2.023193332351663</v>
       </c>
       <c r="D14" t="n">
         <v>1.846008582156463</v>
@@ -18911,7 +18899,7 @@
         <v>2.372952097911829</v>
       </c>
       <c r="C16" t="n">
-        <v>2.48245584904508</v>
+        <v>2.481347307646178</v>
       </c>
       <c r="D16" t="n">
         <v>2.558057589812607</v>
@@ -18930,7 +18918,7 @@
         <v>2.301587646603187</v>
       </c>
       <c r="C17" t="n">
-        <v>2.262094000622066</v>
+        <v>2.315047505131863</v>
       </c>
       <c r="D17" t="n">
         <v>2.505611165299316</v>
@@ -18949,7 +18937,7 @@
         <v>2.485426827170242</v>
       </c>
       <c r="C18" t="n">
-        <v>2.618076250519374</v>
+        <v>2.618076250519375</v>
       </c>
       <c r="D18" t="n">
         <v>-0.4530599346746462</v>
